--- a/Data/michigantrees_sequence.xlsx
+++ b/Data/michigantrees_sequence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27629"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="540" windowWidth="25040" windowHeight="14260" tabRatio="500"/>
+    <workbookView xWindow="560" yWindow="520" windowWidth="25040" windowHeight="14280" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="178">
   <si>
     <t>Family</t>
   </si>
@@ -539,6 +539,21 @@
   </si>
   <si>
     <t>incana_sbsp_rugosa</t>
+  </si>
+  <si>
+    <t>polygamous</t>
+  </si>
+  <si>
+    <t>monoecious/dioecious</t>
+  </si>
+  <si>
+    <t>dioecious/polygamo_monecious</t>
+  </si>
+  <si>
+    <t>polygamo_monecious</t>
+  </si>
+  <si>
+    <t>perfect_or_dioecious</t>
   </si>
 </sst>
 </file>
@@ -927,8 +942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="F67" sqref="F67"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="G97" sqref="G97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2398,8 +2413,11 @@
       <c r="F64">
         <v>16</v>
       </c>
-    </row>
-    <row r="65" spans="1:6">
+      <c r="G64" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" t="s">
         <v>104</v>
       </c>
@@ -2418,8 +2436,11 @@
       <c r="F65">
         <v>26</v>
       </c>
-    </row>
-    <row r="66" spans="1:6">
+      <c r="G65" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" t="s">
         <v>104</v>
       </c>
@@ -2438,8 +2459,11 @@
       <c r="F66">
         <v>22</v>
       </c>
-    </row>
-    <row r="67" spans="1:6">
+      <c r="G66" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" t="s">
         <v>104</v>
       </c>
@@ -2455,8 +2479,14 @@
       <c r="E67" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="68" spans="1:6">
+      <c r="F67">
+        <v>25</v>
+      </c>
+      <c r="G67" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" t="s">
         <v>104</v>
       </c>
@@ -2472,8 +2502,14 @@
       <c r="E68" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="69" spans="1:6">
+      <c r="F68">
+        <v>25</v>
+      </c>
+      <c r="G68" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" t="s">
         <v>104</v>
       </c>
@@ -2489,8 +2525,14 @@
       <c r="E69" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="70" spans="1:6">
+      <c r="F69">
+        <v>18</v>
+      </c>
+      <c r="G69" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" t="s">
         <v>104</v>
       </c>
@@ -2506,8 +2548,14 @@
       <c r="E70" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="F70">
+        <v>28</v>
+      </c>
+      <c r="G70" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" t="s">
         <v>112</v>
       </c>
@@ -2523,8 +2571,14 @@
       <c r="E71" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="72" spans="1:6">
+      <c r="F71">
+        <v>30</v>
+      </c>
+      <c r="G71" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" t="s">
         <v>112</v>
       </c>
@@ -2540,8 +2594,14 @@
       <c r="E72" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="73" spans="1:6">
+      <c r="F72">
+        <v>18</v>
+      </c>
+      <c r="G72" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" t="s">
         <v>115</v>
       </c>
@@ -2557,8 +2617,14 @@
       <c r="E73" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="74" spans="1:6">
+      <c r="F73">
+        <v>20</v>
+      </c>
+      <c r="G73" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" t="s">
         <v>118</v>
       </c>
@@ -2574,8 +2640,14 @@
       <c r="E74" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="75" spans="1:6">
+      <c r="F74">
+        <v>7</v>
+      </c>
+      <c r="G74" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" t="s">
         <v>118</v>
       </c>
@@ -2591,8 +2663,14 @@
       <c r="E75" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="76" spans="1:6">
+      <c r="F75">
+        <v>9</v>
+      </c>
+      <c r="G75" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" t="s">
         <v>121</v>
       </c>
@@ -2608,8 +2686,14 @@
       <c r="E76" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="77" spans="1:6">
+      <c r="F76">
+        <v>27</v>
+      </c>
+      <c r="G76" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" t="s">
         <v>121</v>
       </c>
@@ -2625,8 +2709,14 @@
       <c r="E77" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="78" spans="1:6">
+      <c r="F77">
+        <v>30</v>
+      </c>
+      <c r="G77" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" t="s">
         <v>121</v>
       </c>
@@ -2642,8 +2732,14 @@
       <c r="E78" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="79" spans="1:6">
+      <c r="F78">
+        <v>30</v>
+      </c>
+      <c r="G78" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" t="s">
         <v>121</v>
       </c>
@@ -2659,8 +2755,14 @@
       <c r="E79" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="F79">
+        <v>30</v>
+      </c>
+      <c r="G79" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" t="s">
         <v>121</v>
       </c>
@@ -2676,8 +2778,14 @@
       <c r="E80" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="81" spans="1:5">
+      <c r="F80">
+        <v>9</v>
+      </c>
+      <c r="G80" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" t="s">
         <v>121</v>
       </c>
@@ -2693,8 +2801,14 @@
       <c r="E81" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="82" spans="1:5">
+      <c r="F81">
+        <v>12</v>
+      </c>
+      <c r="G81" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" t="s">
         <v>121</v>
       </c>
@@ -2710,8 +2824,14 @@
       <c r="E82" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="83" spans="1:5">
+      <c r="F82">
+        <v>18</v>
+      </c>
+      <c r="G82" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" t="s">
         <v>121</v>
       </c>
@@ -2727,8 +2847,14 @@
       <c r="E83" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="84" spans="1:5">
+      <c r="F83">
+        <v>25</v>
+      </c>
+      <c r="G83" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" t="s">
         <v>121</v>
       </c>
@@ -2744,8 +2870,14 @@
       <c r="E84" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>15</v>
+      </c>
+      <c r="G84" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" t="s">
         <v>121</v>
       </c>
@@ -2761,8 +2893,14 @@
       <c r="E85" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="86" spans="1:5">
+      <c r="F85">
+        <v>20</v>
+      </c>
+      <c r="G85" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" t="s">
         <v>133</v>
       </c>
@@ -2778,8 +2916,14 @@
       <c r="E86" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="87" spans="1:5">
+      <c r="F86">
+        <v>8</v>
+      </c>
+      <c r="G86" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" t="s">
         <v>133</v>
       </c>
@@ -2795,8 +2939,14 @@
       <c r="E87" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="88" spans="1:5">
+      <c r="F87">
+        <v>10</v>
+      </c>
+      <c r="G87" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" t="s">
         <v>137</v>
       </c>
@@ -2812,8 +2962,14 @@
       <c r="E88" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="89" spans="1:5">
+      <c r="F88">
+        <v>18</v>
+      </c>
+      <c r="G88" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" t="s">
         <v>140</v>
       </c>
@@ -2829,8 +2985,14 @@
       <c r="E89" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="90" spans="1:5">
+      <c r="F89">
+        <v>28</v>
+      </c>
+      <c r="G89" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" t="s">
         <v>140</v>
       </c>
@@ -2846,8 +3008,14 @@
       <c r="E90" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="91" spans="1:5">
+      <c r="F90">
+        <v>20</v>
+      </c>
+      <c r="G90" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" t="s">
         <v>140</v>
       </c>
@@ -2863,8 +3031,14 @@
       <c r="E91" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="92" spans="1:5">
+      <c r="F91">
+        <v>18</v>
+      </c>
+      <c r="G91" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" t="s">
         <v>140</v>
       </c>
@@ -2880,8 +3054,14 @@
       <c r="E92" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="93" spans="1:5">
+      <c r="F92">
+        <v>25</v>
+      </c>
+      <c r="G92" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" t="s">
         <v>140</v>
       </c>
@@ -2897,8 +3077,14 @@
       <c r="E93" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="94" spans="1:5">
+      <c r="F93">
+        <v>15</v>
+      </c>
+      <c r="G93" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" t="s">
         <v>145</v>
       </c>
@@ -2914,8 +3100,14 @@
       <c r="E94" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="95" spans="1:5">
+      <c r="F94">
+        <v>12</v>
+      </c>
+      <c r="G94" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" t="s">
         <v>145</v>
       </c>
@@ -2931,8 +3123,14 @@
       <c r="E95" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="96" spans="1:5">
+      <c r="F95">
+        <v>15</v>
+      </c>
+      <c r="G95" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" t="s">
         <v>149</v>
       </c>
@@ -2947,6 +3145,12 @@
       </c>
       <c r="E96" t="s">
         <v>12</v>
+      </c>
+      <c r="F96">
+        <v>9</v>
+      </c>
+      <c r="G96" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/Data/michigantrees_sequence.xlsx
+++ b/Data/michigantrees_sequence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27629"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="520" windowWidth="25040" windowHeight="14280" tabRatio="500"/>
+    <workbookView xWindow="3760" yWindow="4200" windowWidth="25600" windowHeight="14820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -577,18 +577,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF008000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -603,12 +597,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -940,10 +931,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I96"/>
+  <dimension ref="A1:I95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="G97" sqref="G97"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -959,56 +950,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>167</v>
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2">
+        <v>32</v>
+      </c>
+      <c r="G2" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="G3" t="s">
         <v>162</v>
@@ -1016,71 +1026,71 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F4">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
         <v>17</v>
       </c>
       <c r="F5">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F6">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1088,45 +1098,45 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F7">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F8">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="G8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1137,16 +1147,16 @@
         <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
       </c>
       <c r="F9">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="G9" t="s">
         <v>164</v>
@@ -1160,16 +1170,16 @@
         <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
       </c>
       <c r="F10">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G10" t="s">
         <v>164</v>
@@ -1183,7 +1193,7 @@
         <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1192,7 +1202,7 @@
         <v>13</v>
       </c>
       <c r="F11">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G11" t="s">
         <v>164</v>
@@ -1206,7 +1216,7 @@
         <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
         <v>21</v>
@@ -1229,7 +1239,7 @@
         <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1238,7 +1248,7 @@
         <v>13</v>
       </c>
       <c r="F13">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G13" t="s">
         <v>164</v>
@@ -1252,7 +1262,7 @@
         <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
@@ -1261,7 +1271,7 @@
         <v>13</v>
       </c>
       <c r="F14">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G14" t="s">
         <v>164</v>
@@ -1272,19 +1282,19 @@
         <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F15">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G15" t="s">
         <v>164</v>
@@ -1298,7 +1308,7 @@
         <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D16" t="s">
         <v>39</v>
@@ -1307,7 +1317,7 @@
         <v>17</v>
       </c>
       <c r="F16">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="G16" t="s">
         <v>164</v>
@@ -1321,7 +1331,7 @@
         <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D17" t="s">
         <v>39</v>
@@ -1330,7 +1340,7 @@
         <v>17</v>
       </c>
       <c r="F17">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="G17" t="s">
         <v>164</v>
@@ -1344,7 +1354,7 @@
         <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D18" t="s">
         <v>39</v>
@@ -1353,7 +1363,7 @@
         <v>17</v>
       </c>
       <c r="F18">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G18" t="s">
         <v>164</v>
@@ -1361,25 +1371,25 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D19" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="F19">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G19" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1387,22 +1397,22 @@
         <v>42</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>168</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>169</v>
       </c>
       <c r="D20" t="s">
         <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="F20">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G20" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1410,16 +1420,16 @@
         <v>42</v>
       </c>
       <c r="B21" t="s">
-        <v>168</v>
+        <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
       <c r="D21" t="s">
         <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="F21">
         <v>26</v>
@@ -1433,10 +1443,10 @@
         <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D22" t="s">
         <v>11</v>
@@ -1445,30 +1455,30 @@
         <v>12</v>
       </c>
       <c r="F22">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G22" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D23" t="s">
         <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="F23">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="G23" t="s">
         <v>162</v>
@@ -1479,19 +1489,19 @@
         <v>50</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C24" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D24" t="s">
         <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="F24">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G24" t="s">
         <v>162</v>
@@ -1505,16 +1515,16 @@
         <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D25" t="s">
         <v>11</v>
       </c>
       <c r="E25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25">
         <v>12</v>
-      </c>
-      <c r="F25">
-        <v>7</v>
       </c>
       <c r="G25" t="s">
         <v>162</v>
@@ -1525,19 +1535,19 @@
         <v>50</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C26" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D26" t="s">
         <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F26">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G26" t="s">
         <v>162</v>
@@ -1548,19 +1558,19 @@
         <v>50</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C27" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="D27" t="s">
         <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F27">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G27" t="s">
         <v>162</v>
@@ -1574,16 +1584,16 @@
         <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="D28" t="s">
         <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F28">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G28" t="s">
         <v>162</v>
@@ -1597,7 +1607,7 @@
         <v>58</v>
       </c>
       <c r="C29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D29" t="s">
         <v>11</v>
@@ -1606,7 +1616,7 @@
         <v>17</v>
       </c>
       <c r="F29">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G29" t="s">
         <v>162</v>
@@ -1620,16 +1630,16 @@
         <v>58</v>
       </c>
       <c r="C30" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="D30" t="s">
         <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="F30">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G30" t="s">
         <v>162</v>
@@ -1643,16 +1653,16 @@
         <v>58</v>
       </c>
       <c r="C31" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="D31" t="s">
         <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="F31">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G31" t="s">
         <v>162</v>
@@ -1660,48 +1670,48 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="B32" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C32" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D32" t="s">
         <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F32">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="G32" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C33" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D33" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E33" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F33">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="G33" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1712,7 +1722,7 @@
         <v>67</v>
       </c>
       <c r="C34" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="D34" t="s">
         <v>21</v>
@@ -1721,7 +1731,7 @@
         <v>13</v>
       </c>
       <c r="F34">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G34" t="s">
         <v>162</v>
@@ -1735,7 +1745,7 @@
         <v>67</v>
       </c>
       <c r="C35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D35" t="s">
         <v>21</v>
@@ -1744,7 +1754,7 @@
         <v>13</v>
       </c>
       <c r="F35">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G35" t="s">
         <v>162</v>
@@ -1758,7 +1768,7 @@
         <v>67</v>
       </c>
       <c r="C36" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="D36" t="s">
         <v>21</v>
@@ -1767,7 +1777,7 @@
         <v>13</v>
       </c>
       <c r="F36">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G36" t="s">
         <v>162</v>
@@ -1775,25 +1785,25 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B37" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C37" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="D37" t="s">
         <v>21</v>
       </c>
       <c r="E37" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="F37">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="G37" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1804,7 +1814,7 @@
         <v>71</v>
       </c>
       <c r="C38" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="D38" t="s">
         <v>21</v>
@@ -1813,7 +1823,7 @@
         <v>61</v>
       </c>
       <c r="F38">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="G38" t="s">
         <v>165</v>
@@ -1821,25 +1831,25 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B39" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C39" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D39" t="s">
         <v>21</v>
       </c>
       <c r="E39" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="F39">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="G39" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1847,22 +1857,22 @@
         <v>73</v>
       </c>
       <c r="B40" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C40" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="D40" t="s">
         <v>21</v>
       </c>
       <c r="E40" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F40">
         <v>18</v>
       </c>
       <c r="G40" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1873,7 +1883,7 @@
         <v>76</v>
       </c>
       <c r="C41" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="D41" t="s">
         <v>21</v>
@@ -1882,33 +1892,33 @@
         <v>17</v>
       </c>
       <c r="F41">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G41" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B42" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C42" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="D42" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="E42" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F42">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G42" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1916,19 +1926,19 @@
         <v>77</v>
       </c>
       <c r="B43" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C43" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D43" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="E43" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F43">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G43" t="s">
         <v>165</v>
@@ -1939,10 +1949,10 @@
         <v>77</v>
       </c>
       <c r="B44" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C44" t="s">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="D44" t="s">
         <v>21</v>
@@ -1965,7 +1975,7 @@
         <v>82</v>
       </c>
       <c r="C45" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="D45" t="s">
         <v>21</v>
@@ -1974,7 +1984,7 @@
         <v>17</v>
       </c>
       <c r="F45">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G45" t="s">
         <v>165</v>
@@ -1988,7 +1998,7 @@
         <v>82</v>
       </c>
       <c r="C46" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D46" t="s">
         <v>21</v>
@@ -1997,7 +2007,7 @@
         <v>17</v>
       </c>
       <c r="F46">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G46" t="s">
         <v>165</v>
@@ -2008,10 +2018,10 @@
         <v>77</v>
       </c>
       <c r="B47" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C47" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D47" t="s">
         <v>21</v>
@@ -2020,7 +2030,7 @@
         <v>17</v>
       </c>
       <c r="F47">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G47" t="s">
         <v>165</v>
@@ -2031,10 +2041,10 @@
         <v>77</v>
       </c>
       <c r="B48" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C48" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D48" t="s">
         <v>21</v>
@@ -2043,7 +2053,7 @@
         <v>17</v>
       </c>
       <c r="F48">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="G48" t="s">
         <v>165</v>
@@ -2057,7 +2067,7 @@
         <v>82</v>
       </c>
       <c r="C49" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="D49" t="s">
         <v>21</v>
@@ -2066,7 +2076,7 @@
         <v>17</v>
       </c>
       <c r="F49">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="G49" t="s">
         <v>165</v>
@@ -2080,7 +2090,7 @@
         <v>82</v>
       </c>
       <c r="C50" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="D50" t="s">
         <v>21</v>
@@ -2103,7 +2113,7 @@
         <v>82</v>
       </c>
       <c r="C51" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D51" t="s">
         <v>21</v>
@@ -2112,7 +2122,7 @@
         <v>17</v>
       </c>
       <c r="F51">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G51" t="s">
         <v>165</v>
@@ -2126,7 +2136,7 @@
         <v>82</v>
       </c>
       <c r="C52" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D52" t="s">
         <v>21</v>
@@ -2135,7 +2145,7 @@
         <v>17</v>
       </c>
       <c r="F52">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G52" t="s">
         <v>165</v>
@@ -2149,7 +2159,7 @@
         <v>82</v>
       </c>
       <c r="C53" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D53" t="s">
         <v>21</v>
@@ -2158,7 +2168,7 @@
         <v>17</v>
       </c>
       <c r="F53">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G53" t="s">
         <v>165</v>
@@ -2172,7 +2182,7 @@
         <v>82</v>
       </c>
       <c r="C54" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D54" t="s">
         <v>21</v>
@@ -2181,7 +2191,7 @@
         <v>17</v>
       </c>
       <c r="F54">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G54" t="s">
         <v>165</v>
@@ -2195,7 +2205,7 @@
         <v>82</v>
       </c>
       <c r="C55" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D55" t="s">
         <v>21</v>
@@ -2204,7 +2214,7 @@
         <v>17</v>
       </c>
       <c r="F55">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G55" t="s">
         <v>165</v>
@@ -2212,22 +2222,22 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="B56" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="C56" t="s">
-        <v>93</v>
+        <v>172</v>
       </c>
       <c r="D56" t="s">
         <v>21</v>
       </c>
       <c r="E56" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F56">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="G56" t="s">
         <v>165</v>
@@ -2241,16 +2251,16 @@
         <v>95</v>
       </c>
       <c r="C57" t="s">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="D57" t="s">
         <v>21</v>
       </c>
       <c r="E57" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="F57">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G57" t="s">
         <v>165</v>
@@ -2261,19 +2271,19 @@
         <v>94</v>
       </c>
       <c r="B58" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C58" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D58" t="s">
         <v>21</v>
       </c>
       <c r="E58" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="F58">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G58" t="s">
         <v>165</v>
@@ -2287,16 +2297,16 @@
         <v>97</v>
       </c>
       <c r="C59" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D59" t="s">
         <v>21</v>
       </c>
       <c r="E59" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="F59">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G59" t="s">
         <v>165</v>
@@ -2310,7 +2320,7 @@
         <v>97</v>
       </c>
       <c r="C60" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D60" t="s">
         <v>21</v>
@@ -2319,7 +2329,7 @@
         <v>45</v>
       </c>
       <c r="F60">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G60" t="s">
         <v>165</v>
@@ -2333,7 +2343,7 @@
         <v>97</v>
       </c>
       <c r="C61" t="s">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="D61" t="s">
         <v>21</v>
@@ -2342,7 +2352,7 @@
         <v>45</v>
       </c>
       <c r="F61">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G61" t="s">
         <v>165</v>
@@ -2353,19 +2363,19 @@
         <v>94</v>
       </c>
       <c r="B62" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C62" t="s">
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="D62" t="s">
         <v>21</v>
       </c>
       <c r="E62" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="F62">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G62" t="s">
         <v>165</v>
@@ -2376,10 +2386,10 @@
         <v>94</v>
       </c>
       <c r="B63" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C63" t="s">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="D63" t="s">
         <v>21</v>
@@ -2388,7 +2398,7 @@
         <v>17</v>
       </c>
       <c r="F63">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G63" t="s">
         <v>165</v>
@@ -2396,13 +2406,13 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B64" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C64" t="s">
-        <v>24</v>
+        <v>106</v>
       </c>
       <c r="D64" t="s">
         <v>21</v>
@@ -2411,7 +2421,7 @@
         <v>17</v>
       </c>
       <c r="F64">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G64" t="s">
         <v>165</v>
@@ -2425,7 +2435,7 @@
         <v>105</v>
       </c>
       <c r="C65" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D65" t="s">
         <v>21</v>
@@ -2434,7 +2444,7 @@
         <v>17</v>
       </c>
       <c r="F65">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G65" t="s">
         <v>165</v>
@@ -2448,7 +2458,7 @@
         <v>105</v>
       </c>
       <c r="C66" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D66" t="s">
         <v>21</v>
@@ -2457,7 +2467,7 @@
         <v>17</v>
       </c>
       <c r="F66">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G66" t="s">
         <v>165</v>
@@ -2471,7 +2481,7 @@
         <v>105</v>
       </c>
       <c r="C67" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D67" t="s">
         <v>21</v>
@@ -2491,10 +2501,10 @@
         <v>104</v>
       </c>
       <c r="B68" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C68" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D68" t="s">
         <v>21</v>
@@ -2503,7 +2513,7 @@
         <v>17</v>
       </c>
       <c r="F68">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G68" t="s">
         <v>165</v>
@@ -2517,7 +2527,7 @@
         <v>110</v>
       </c>
       <c r="C69" t="s">
-        <v>111</v>
+        <v>31</v>
       </c>
       <c r="D69" t="s">
         <v>21</v>
@@ -2526,7 +2536,7 @@
         <v>17</v>
       </c>
       <c r="F69">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G69" t="s">
         <v>165</v>
@@ -2534,25 +2544,25 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B70" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C70" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="D70" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F70">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G70" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2563,7 +2573,7 @@
         <v>113</v>
       </c>
       <c r="C71" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="D71" t="s">
         <v>11</v>
@@ -2572,7 +2582,7 @@
         <v>12</v>
       </c>
       <c r="F71">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G71" t="s">
         <v>162</v>
@@ -2580,13 +2590,13 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B72" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C72" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D72" t="s">
         <v>11</v>
@@ -2595,21 +2605,21 @@
         <v>12</v>
       </c>
       <c r="F72">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G72" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B73" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C73" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="D73" t="s">
         <v>11</v>
@@ -2618,7 +2628,7 @@
         <v>12</v>
       </c>
       <c r="F73">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G73" t="s">
         <v>170</v>
@@ -2632,7 +2642,7 @@
         <v>119</v>
       </c>
       <c r="C74" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="D74" t="s">
         <v>11</v>
@@ -2641,7 +2651,7 @@
         <v>12</v>
       </c>
       <c r="F74">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G74" t="s">
         <v>170</v>
@@ -2649,25 +2659,25 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B75" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C75" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D75" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E75" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F75">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="G75" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2678,7 +2688,7 @@
         <v>122</v>
       </c>
       <c r="C76" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D76" t="s">
         <v>21</v>
@@ -2687,10 +2697,10 @@
         <v>17</v>
       </c>
       <c r="F76">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G76" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2701,19 +2711,19 @@
         <v>122</v>
       </c>
       <c r="C77" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D77" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E77" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F77">
         <v>30</v>
       </c>
       <c r="G77" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2724,7 +2734,7 @@
         <v>122</v>
       </c>
       <c r="C78" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D78" t="s">
         <v>32</v>
@@ -2747,19 +2757,19 @@
         <v>122</v>
       </c>
       <c r="C79" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D79" t="s">
         <v>32</v>
       </c>
       <c r="E79" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F79">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="G79" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2770,19 +2780,19 @@
         <v>122</v>
       </c>
       <c r="C80" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D80" t="s">
         <v>32</v>
       </c>
       <c r="E80" t="s">
+        <v>61</v>
+      </c>
+      <c r="F80">
         <v>12</v>
       </c>
-      <c r="F80">
-        <v>9</v>
-      </c>
       <c r="G80" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2793,19 +2803,19 @@
         <v>122</v>
       </c>
       <c r="C81" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D81" t="s">
         <v>32</v>
       </c>
       <c r="E81" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="F81">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G81" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2816,7 +2826,7 @@
         <v>122</v>
       </c>
       <c r="C82" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D82" t="s">
         <v>32</v>
@@ -2825,10 +2835,10 @@
         <v>45</v>
       </c>
       <c r="F82">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G82" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2836,22 +2846,22 @@
         <v>121</v>
       </c>
       <c r="B83" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="C83" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="D83" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="F83">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G83" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2862,7 +2872,7 @@
         <v>131</v>
       </c>
       <c r="C84" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="D84" t="s">
         <v>11</v>
@@ -2871,21 +2881,21 @@
         <v>12</v>
       </c>
       <c r="F84">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G84" t="s">
-        <v>176</v>
+        <v>32</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="B85" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C85" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D85" t="s">
         <v>11</v>
@@ -2894,10 +2904,10 @@
         <v>12</v>
       </c>
       <c r="F85">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="G85" t="s">
-        <v>32</v>
+        <v>162</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2908,16 +2918,16 @@
         <v>134</v>
       </c>
       <c r="C86" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D86" t="s">
         <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F86">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G86" t="s">
         <v>162</v>
@@ -2925,13 +2935,13 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B87" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C87" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D87" t="s">
         <v>11</v>
@@ -2940,33 +2950,33 @@
         <v>17</v>
       </c>
       <c r="F87">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G87" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B88" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C88" t="s">
-        <v>139</v>
+        <v>57</v>
       </c>
       <c r="D88" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E88" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F88">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G88" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2977,7 +2987,7 @@
         <v>141</v>
       </c>
       <c r="C89" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="D89" t="s">
         <v>21</v>
@@ -2986,10 +2996,10 @@
         <v>13</v>
       </c>
       <c r="F89">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="G89" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -3000,19 +3010,19 @@
         <v>141</v>
       </c>
       <c r="C90" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="D90" t="s">
         <v>21</v>
       </c>
       <c r="E90" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="F90">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G90" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -3023,7 +3033,7 @@
         <v>141</v>
       </c>
       <c r="C91" t="s">
-        <v>59</v>
+        <v>142</v>
       </c>
       <c r="D91" t="s">
         <v>21</v>
@@ -3032,7 +3042,7 @@
         <v>45</v>
       </c>
       <c r="F91">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G91" t="s">
         <v>164</v>
@@ -3046,39 +3056,39 @@
         <v>141</v>
       </c>
       <c r="C92" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D92" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="E92" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="F92">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G92" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B93" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C93" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D93" t="s">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F93">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G93" t="s">
         <v>162</v>
@@ -3092,7 +3102,7 @@
         <v>146</v>
       </c>
       <c r="C94" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D94" t="s">
         <v>11</v>
@@ -3101,7 +3111,7 @@
         <v>12</v>
       </c>
       <c r="F94">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G94" t="s">
         <v>162</v>
@@ -3109,13 +3119,13 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B95" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C95" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D95" t="s">
         <v>11</v>
@@ -3124,39 +3134,13 @@
         <v>12</v>
       </c>
       <c r="F95">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G95" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
-      <c r="A96" t="s">
-        <v>149</v>
-      </c>
-      <c r="B96" t="s">
-        <v>150</v>
-      </c>
-      <c r="C96" t="s">
-        <v>151</v>
-      </c>
-      <c r="D96" t="s">
-        <v>11</v>
-      </c>
-      <c r="E96" t="s">
-        <v>12</v>
-      </c>
-      <c r="F96">
-        <v>9</v>
-      </c>
-      <c r="G96" t="s">
-        <v>162</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D1:E1"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/Data/michigantrees_sequence.xlsx
+++ b/Data/michigantrees_sequence.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27629"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="3760" yWindow="4200" windowWidth="25600" windowHeight="14820" tabRatio="500"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="174">
   <si>
     <t>Family</t>
   </si>
@@ -535,25 +535,13 @@
     <t>polygamo_dioecious</t>
   </si>
   <si>
-    <t>functionially_dioecious</t>
-  </si>
-  <si>
     <t>incana_sbsp_rugosa</t>
   </si>
   <si>
     <t>polygamous</t>
   </si>
   <si>
-    <t>monoecious/dioecious</t>
-  </si>
-  <si>
-    <t>dioecious/polygamo_monecious</t>
-  </si>
-  <si>
     <t>polygamo_monecious</t>
-  </si>
-  <si>
-    <t>perfect_or_dioecious</t>
   </si>
 </sst>
 </file>
@@ -933,8 +921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1688,7 +1676,7 @@
         <v>7</v>
       </c>
       <c r="G32" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2228,7 +2216,7 @@
         <v>95</v>
       </c>
       <c r="C56" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D56" t="s">
         <v>21</v>
@@ -2677,7 +2665,7 @@
         <v>27</v>
       </c>
       <c r="G75" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2700,7 +2688,7 @@
         <v>30</v>
       </c>
       <c r="G76" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2723,7 +2711,7 @@
         <v>30</v>
       </c>
       <c r="G77" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2746,7 +2734,7 @@
         <v>30</v>
       </c>
       <c r="G78" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2769,7 +2757,7 @@
         <v>9</v>
       </c>
       <c r="G79" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2815,7 +2803,7 @@
         <v>18</v>
       </c>
       <c r="G81" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2861,7 +2849,7 @@
         <v>15</v>
       </c>
       <c r="G83" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="84" spans="1:7">

--- a/Data/michigantrees_sequence.xlsx
+++ b/Data/michigantrees_sequence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3760" yWindow="4200" windowWidth="25600" windowHeight="14820" tabRatio="500"/>
+    <workbookView xWindow="3760" yWindow="4200" windowWidth="36860" windowHeight="14820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="188">
   <si>
     <t>Family</t>
   </si>
@@ -523,9 +523,6 @@
     <t>flower_buds</t>
   </si>
   <si>
-    <t>source</t>
-  </si>
-  <si>
     <t>Gleditsia</t>
   </si>
   <si>
@@ -542,6 +539,51 @@
   </si>
   <si>
     <t>polygamo_monecious</t>
+  </si>
+  <si>
+    <t>shade_tol</t>
+  </si>
+  <si>
+    <t>inflorescence size</t>
+  </si>
+  <si>
+    <t>flower_size</t>
+  </si>
+  <si>
+    <t>intolerant</t>
+  </si>
+  <si>
+    <t>fruit_size</t>
+  </si>
+  <si>
+    <t>5-8</t>
+  </si>
+  <si>
+    <t>5-12</t>
+  </si>
+  <si>
+    <t>3-4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>tolerant</t>
+  </si>
+  <si>
+    <t>1.5-2</t>
+  </si>
+  <si>
+    <t>1-1.5</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>8-10,15-20</t>
   </si>
 </sst>
 </file>
@@ -585,9 +627,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -919,10 +963,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I95"/>
+  <dimension ref="A1:L95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="D76" sqref="D76"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -935,9 +979,10 @@
     <col min="7" max="7" width="19.5" customWidth="1"/>
     <col min="8" max="8" width="13.5" customWidth="1"/>
     <col min="9" max="9" width="15.6640625" customWidth="1"/>
+    <col min="11" max="12" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -963,10 +1008,19 @@
         <v>166</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>173</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -988,8 +1042,17 @@
       <c r="G2" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="I2" t="s">
+        <v>176</v>
+      </c>
+      <c r="K2" s="3">
+        <v>5</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1011,8 +1074,17 @@
       <c r="G3" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="I3" t="s">
+        <v>183</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1034,8 +1106,17 @@
       <c r="G4" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="I4" t="s">
+        <v>183</v>
+      </c>
+      <c r="J4">
+        <v>5</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1057,8 +1138,14 @@
       <c r="G5" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="I5" t="s">
+        <v>176</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -1080,8 +1167,17 @@
       <c r="G6" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="I6" t="s">
+        <v>183</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -1103,8 +1199,14 @@
       <c r="G7" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="I7" t="s">
+        <v>176</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -1126,8 +1228,11 @@
       <c r="G8" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -1150,7 +1255,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -1173,7 +1278,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -1196,7 +1301,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -1219,7 +1324,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -1242,7 +1347,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -1265,7 +1370,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -1288,7 +1393,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -1385,10 +1490,10 @@
         <v>42</v>
       </c>
       <c r="B20" t="s">
+        <v>167</v>
+      </c>
+      <c r="C20" t="s">
         <v>168</v>
-      </c>
-      <c r="C20" t="s">
-        <v>169</v>
       </c>
       <c r="D20" t="s">
         <v>11</v>
@@ -1400,7 +1505,7 @@
         <v>26</v>
       </c>
       <c r="G20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1423,7 +1528,7 @@
         <v>26</v>
       </c>
       <c r="G21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1860,7 +1965,7 @@
         <v>18</v>
       </c>
       <c r="G40" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2216,7 +2321,7 @@
         <v>95</v>
       </c>
       <c r="C56" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D56" t="s">
         <v>21</v>
@@ -2596,7 +2701,7 @@
         <v>20</v>
       </c>
       <c r="G72" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2619,7 +2724,7 @@
         <v>7</v>
       </c>
       <c r="G73" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2642,7 +2747,7 @@
         <v>9</v>
       </c>
       <c r="G74" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2665,7 +2770,7 @@
         <v>27</v>
       </c>
       <c r="G75" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2711,7 +2816,7 @@
         <v>30</v>
       </c>
       <c r="G77" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2734,7 +2839,7 @@
         <v>30</v>
       </c>
       <c r="G78" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2757,7 +2862,7 @@
         <v>9</v>
       </c>
       <c r="G79" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2849,7 +2954,7 @@
         <v>15</v>
       </c>
       <c r="G83" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2941,7 +3046,7 @@
         <v>18</v>
       </c>
       <c r="G87" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2987,7 +3092,7 @@
         <v>20</v>
       </c>
       <c r="G89" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="90" spans="1:7">

--- a/Data/michigantrees_sequence.xlsx
+++ b/Data/michigantrees_sequence.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27629"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3760" yWindow="4200" windowWidth="36860" windowHeight="14820" tabRatio="500"/>
+    <workbookView xWindow="3340" yWindow="140" windowWidth="25600" windowHeight="14760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -70,9 +70,6 @@
     <t>Sassafras</t>
   </si>
   <si>
-    <t>albidium</t>
-  </si>
-  <si>
     <t>syn</t>
   </si>
   <si>
@@ -154,9 +151,6 @@
     <t>Cercis</t>
   </si>
   <si>
-    <t>candensis</t>
-  </si>
-  <si>
     <t>pro/syn</t>
   </si>
   <si>
@@ -175,9 +169,6 @@
     <t>Rosaceae</t>
   </si>
   <si>
-    <t>Amalanchier</t>
-  </si>
-  <si>
     <t>arborea</t>
   </si>
   <si>
@@ -277,9 +268,6 @@
     <t>macrocarpa</t>
   </si>
   <si>
-    <t xml:space="preserve">Quercus </t>
-  </si>
-  <si>
     <t>muehlenbergii</t>
   </si>
   <si>
@@ -307,12 +295,6 @@
     <t>Betulaceae</t>
   </si>
   <si>
-    <t xml:space="preserve">Alnus </t>
-  </si>
-  <si>
-    <t>gluntinosa</t>
-  </si>
-  <si>
     <t>Betula</t>
   </si>
   <si>
@@ -532,9 +514,6 @@
     <t>polygamo_dioecious</t>
   </si>
   <si>
-    <t>incana_sbsp_rugosa</t>
-  </si>
-  <si>
     <t>polygamous</t>
   </si>
   <si>
@@ -584,6 +563,27 @@
   </si>
   <si>
     <t>8-10,15-20</t>
+  </si>
+  <si>
+    <t>incana</t>
+  </si>
+  <si>
+    <t>Amelanchier</t>
+  </si>
+  <si>
+    <t>Alnus</t>
+  </si>
+  <si>
+    <t>pennsylvanica</t>
+  </si>
+  <si>
+    <t>canadensis</t>
+  </si>
+  <si>
+    <t>glutinosa</t>
+  </si>
+  <si>
+    <t>albidum</t>
   </si>
 </sst>
 </file>
@@ -966,7 +966,7 @@
   <dimension ref="A1:L95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -999,25 +999,25 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>173</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1040,16 +1040,16 @@
         <v>32</v>
       </c>
       <c r="G2" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="I2" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="K2" s="3">
         <v>5</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1072,16 +1072,16 @@
         <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="I3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1092,132 +1092,132 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="I4" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="J4">
         <v>5</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5">
         <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="I5" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6">
         <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="I6" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
         <v>26</v>
       </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F7">
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="I7" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
         <v>28</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>29</v>
       </c>
-      <c r="C8" t="s">
-        <v>30</v>
-      </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
@@ -1226,24 +1226,24 @@
         <v>32</v>
       </c>
       <c r="G8" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="J8" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
         <v>28</v>
       </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
       <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
         <v>31</v>
-      </c>
-      <c r="D9" t="s">
-        <v>32</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
@@ -1252,21 +1252,21 @@
         <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
         <v>28</v>
       </c>
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
@@ -1275,21 +1275,21 @@
         <v>24</v>
       </c>
       <c r="G10" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
         <v>28</v>
       </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
@@ -1298,21 +1298,21 @@
         <v>32</v>
       </c>
       <c r="G11" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
         <v>28</v>
       </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12" t="s">
         <v>13</v>
@@ -1321,21 +1321,21 @@
         <v>32</v>
       </c>
       <c r="G12" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
         <v>28</v>
       </c>
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E13" t="s">
         <v>13</v>
@@ -1344,21 +1344,21 @@
         <v>30</v>
       </c>
       <c r="G13" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
         <v>28</v>
       </c>
-      <c r="B14" t="s">
-        <v>29</v>
-      </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14" t="s">
         <v>13</v>
@@ -1367,156 +1367,156 @@
         <v>18</v>
       </c>
       <c r="G14" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s">
         <v>38</v>
       </c>
-      <c r="C15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" t="s">
-        <v>39</v>
-      </c>
       <c r="E15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F15">
         <v>25</v>
       </c>
       <c r="G15" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" t="s">
         <v>38</v>
       </c>
-      <c r="C16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" t="s">
-        <v>39</v>
-      </c>
       <c r="E16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F16">
         <v>12</v>
       </c>
       <c r="G16" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" t="s">
         <v>38</v>
       </c>
-      <c r="C17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" t="s">
-        <v>39</v>
-      </c>
       <c r="E17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F17">
         <v>25</v>
       </c>
       <c r="G17" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" t="s">
         <v>38</v>
       </c>
-      <c r="C18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" t="s">
-        <v>39</v>
-      </c>
       <c r="E18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F18">
         <v>20</v>
       </c>
       <c r="G18" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" t="s">
         <v>42</v>
       </c>
-      <c r="B19" t="s">
-        <v>43</v>
-      </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>185</v>
       </c>
       <c r="D19" t="s">
         <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F19">
         <v>25</v>
       </c>
       <c r="G19" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B20" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C20" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D20" t="s">
         <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F20">
         <v>26</v>
       </c>
       <c r="G20" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D21" t="s">
         <v>11</v>
@@ -1528,18 +1528,18 @@
         <v>26</v>
       </c>
       <c r="G21" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D22" t="s">
         <v>11</v>
@@ -1551,41 +1551,41 @@
         <v>18</v>
       </c>
       <c r="G22" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>182</v>
       </c>
       <c r="C23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D23" t="s">
         <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F23">
         <v>8</v>
       </c>
       <c r="G23" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" t="s">
         <v>50</v>
       </c>
-      <c r="B24" t="s">
-        <v>53</v>
-      </c>
       <c r="C24" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D24" t="s">
         <v>11</v>
@@ -1597,41 +1597,41 @@
         <v>7</v>
       </c>
       <c r="G24" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
         <v>50</v>
       </c>
-      <c r="B25" t="s">
-        <v>53</v>
-      </c>
       <c r="C25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D25" t="s">
         <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F25">
         <v>12</v>
       </c>
       <c r="G25" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C26" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D26" t="s">
         <v>11</v>
@@ -1643,18 +1643,18 @@
         <v>7</v>
       </c>
       <c r="G26" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D27" t="s">
         <v>11</v>
@@ -1666,87 +1666,87 @@
         <v>9</v>
       </c>
       <c r="G27" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D28" t="s">
         <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F28">
         <v>10</v>
       </c>
       <c r="G28" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D29" t="s">
         <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F29">
         <v>25</v>
       </c>
       <c r="G29" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D30" t="s">
         <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F30">
         <v>10</v>
       </c>
       <c r="G30" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C31" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D31" t="s">
         <v>11</v>
@@ -1758,44 +1758,44 @@
         <v>18</v>
       </c>
       <c r="G31" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B32" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C32" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D32" t="s">
         <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F32">
         <v>7</v>
       </c>
       <c r="G32" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C33" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E33" t="s">
         <v>13</v>
@@ -1804,21 +1804,21 @@
         <v>30</v>
       </c>
       <c r="G33" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B34" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C34" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E34" t="s">
         <v>13</v>
@@ -1827,21 +1827,21 @@
         <v>22</v>
       </c>
       <c r="G34" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" t="s">
         <v>66</v>
       </c>
-      <c r="B35" t="s">
-        <v>67</v>
-      </c>
-      <c r="C35" t="s">
-        <v>69</v>
-      </c>
       <c r="D35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E35" t="s">
         <v>13</v>
@@ -1850,21 +1850,21 @@
         <v>24</v>
       </c>
       <c r="G35" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B36" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C36" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D36" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E36" t="s">
         <v>13</v>
@@ -1873,67 +1873,67 @@
         <v>26</v>
       </c>
       <c r="G36" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B37" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E37" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F37">
         <v>15</v>
       </c>
       <c r="G37" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B38" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C38" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E38" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F38">
         <v>6</v>
       </c>
       <c r="G38" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B39" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C39" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E39" t="s">
         <v>12</v>
@@ -1942,67 +1942,67 @@
         <v>18</v>
       </c>
       <c r="G39" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" t="s">
         <v>73</v>
       </c>
-      <c r="B40" t="s">
-        <v>76</v>
-      </c>
       <c r="C40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D40" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F40">
         <v>18</v>
       </c>
       <c r="G40" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" t="s">
         <v>73</v>
       </c>
-      <c r="B41" t="s">
-        <v>76</v>
-      </c>
       <c r="C41" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D41" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F41">
         <v>15</v>
       </c>
       <c r="G41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B42" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C42" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E42" t="s">
         <v>12</v>
@@ -2011,320 +2011,320 @@
         <v>30</v>
       </c>
       <c r="G42" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
+        <v>74</v>
+      </c>
+      <c r="B43" t="s">
         <v>77</v>
       </c>
-      <c r="B43" t="s">
-        <v>80</v>
-      </c>
       <c r="C43" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D43" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F43">
         <v>28</v>
       </c>
       <c r="G43" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B44" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D44" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F44">
         <v>28</v>
       </c>
       <c r="G44" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B45" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C45" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F45">
         <v>24</v>
       </c>
       <c r="G45" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B46" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C46" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D46" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F46">
         <v>26</v>
       </c>
       <c r="G46" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B47" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C47" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D47" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F47">
         <v>25</v>
       </c>
       <c r="G47" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B48" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C48" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D48" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F48">
         <v>4</v>
       </c>
       <c r="G48" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B49" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C49" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D49" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F49">
         <v>28</v>
       </c>
       <c r="G49" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B50" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C50" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D50" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F50">
         <v>28</v>
       </c>
       <c r="G50" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B51" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C51" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D51" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E51" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F51">
         <v>24</v>
       </c>
       <c r="G51" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B52" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C52" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D52" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E52" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F52">
         <v>21</v>
       </c>
       <c r="G52" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B53" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C53" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D53" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E53" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F53">
         <v>18</v>
       </c>
       <c r="G53" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B54" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C54" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D54" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E54" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F54">
         <v>20</v>
       </c>
       <c r="G54" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B55" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C55" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D55" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E55" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F55">
         <v>21</v>
       </c>
       <c r="G55" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B56" t="s">
-        <v>95</v>
+        <v>183</v>
       </c>
       <c r="C56" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="D56" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E56" t="s">
         <v>13</v>
@@ -2333,44 +2333,44 @@
         <v>8</v>
       </c>
       <c r="G56" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B57" t="s">
-        <v>95</v>
+        <v>183</v>
       </c>
       <c r="C57" t="s">
-        <v>96</v>
+        <v>186</v>
       </c>
       <c r="D57" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E57" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F57">
         <v>18</v>
       </c>
       <c r="G57" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B58" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C58" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D58" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E58" t="s">
         <v>13</v>
@@ -2379,271 +2379,271 @@
         <v>30</v>
       </c>
       <c r="G58" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B59" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C59" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D59" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E59" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F59">
         <v>22</v>
       </c>
       <c r="G59" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
+        <v>90</v>
+      </c>
+      <c r="B60" t="s">
+        <v>91</v>
+      </c>
+      <c r="C60" t="s">
         <v>94</v>
       </c>
-      <c r="B60" t="s">
-        <v>97</v>
-      </c>
-      <c r="C60" t="s">
-        <v>100</v>
-      </c>
       <c r="D60" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E60" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F60">
         <v>15</v>
       </c>
       <c r="G60" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B61" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C61" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D61" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E61" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F61">
         <v>18</v>
       </c>
       <c r="G61" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B62" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C62" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D62" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E62" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F62">
         <v>10</v>
       </c>
       <c r="G62" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B63" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C63" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D63" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E63" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F63">
         <v>16</v>
       </c>
       <c r="G63" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B64" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C64" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D64" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E64" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F64">
         <v>26</v>
       </c>
       <c r="G64" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B65" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C65" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D65" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E65" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F65">
         <v>22</v>
       </c>
       <c r="G65" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B66" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C66" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D66" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E66" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F66">
         <v>25</v>
       </c>
       <c r="G66" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B67" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C67" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D67" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E67" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F67">
         <v>25</v>
       </c>
       <c r="G67" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
+        <v>98</v>
+      </c>
+      <c r="B68" t="s">
         <v>104</v>
       </c>
-      <c r="B68" t="s">
-        <v>110</v>
-      </c>
       <c r="C68" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D68" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E68" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F68">
         <v>18</v>
       </c>
       <c r="G68" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" t="s">
+        <v>98</v>
+      </c>
+      <c r="B69" t="s">
         <v>104</v>
       </c>
-      <c r="B69" t="s">
-        <v>110</v>
-      </c>
       <c r="C69" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D69" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E69" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F69">
         <v>28</v>
       </c>
       <c r="G69" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B70" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C70" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D70" t="s">
         <v>11</v>
@@ -2655,18 +2655,18 @@
         <v>30</v>
       </c>
       <c r="G70" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B71" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C71" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D71" t="s">
         <v>11</v>
@@ -2678,18 +2678,18 @@
         <v>18</v>
       </c>
       <c r="G71" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B72" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C72" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D72" t="s">
         <v>11</v>
@@ -2701,18 +2701,18 @@
         <v>20</v>
       </c>
       <c r="G72" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B73" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C73" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D73" t="s">
         <v>11</v>
@@ -2724,18 +2724,18 @@
         <v>7</v>
       </c>
       <c r="G73" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B74" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C74" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D74" t="s">
         <v>11</v>
@@ -2747,67 +2747,67 @@
         <v>9</v>
       </c>
       <c r="G74" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B75" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C75" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D75" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E75" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F75">
         <v>27</v>
       </c>
       <c r="G75" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B76" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C76" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D76" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E76" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F76">
         <v>30</v>
       </c>
       <c r="G76" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B77" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C77" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D77" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E77" t="s">
         <v>13</v>
@@ -2816,21 +2816,21 @@
         <v>30</v>
       </c>
       <c r="G77" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B78" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C78" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D78" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E78" t="s">
         <v>13</v>
@@ -2839,21 +2839,21 @@
         <v>30</v>
       </c>
       <c r="G78" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" t="s">
+        <v>115</v>
+      </c>
+      <c r="B79" t="s">
+        <v>116</v>
+      </c>
+      <c r="C79" t="s">
         <v>121</v>
       </c>
-      <c r="B79" t="s">
-        <v>122</v>
-      </c>
-      <c r="C79" t="s">
-        <v>127</v>
-      </c>
       <c r="D79" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E79" t="s">
         <v>12</v>
@@ -2862,87 +2862,87 @@
         <v>9</v>
       </c>
       <c r="G79" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B80" t="s">
+        <v>116</v>
+      </c>
+      <c r="C80" t="s">
         <v>122</v>
       </c>
-      <c r="C80" t="s">
-        <v>128</v>
-      </c>
       <c r="D80" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E80" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F80">
         <v>12</v>
       </c>
       <c r="G80" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B81" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C81" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D81" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E81" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F81">
         <v>18</v>
       </c>
       <c r="G81" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B82" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C82" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D82" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E82" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F82">
         <v>25</v>
       </c>
       <c r="G82" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B83" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C83" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D83" t="s">
         <v>11</v>
@@ -2954,18 +2954,18 @@
         <v>15</v>
       </c>
       <c r="G83" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B84" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C84" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D84" t="s">
         <v>11</v>
@@ -2977,18 +2977,18 @@
         <v>20</v>
       </c>
       <c r="G84" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B85" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C85" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D85" t="s">
         <v>11</v>
@@ -3000,67 +3000,67 @@
         <v>8</v>
       </c>
       <c r="G85" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B86" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C86" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D86" t="s">
         <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F86">
         <v>10</v>
       </c>
       <c r="G86" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B87" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C87" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D87" t="s">
         <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F87">
         <v>18</v>
       </c>
       <c r="G87" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B88" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C88" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D88" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E88" t="s">
         <v>13</v>
@@ -3069,21 +3069,21 @@
         <v>28</v>
       </c>
       <c r="G88" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B89" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C89" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D89" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E89" t="s">
         <v>13</v>
@@ -3092,67 +3092,67 @@
         <v>20</v>
       </c>
       <c r="G89" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B90" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C90" t="s">
-        <v>59</v>
+        <v>184</v>
       </c>
       <c r="D90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E90" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F90">
         <v>18</v>
       </c>
       <c r="G90" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B91" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C91" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D91" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E91" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F91">
         <v>25</v>
       </c>
       <c r="G91" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B92" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C92" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D92" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E92" t="s">
         <v>13</v>
@@ -3161,18 +3161,18 @@
         <v>15</v>
       </c>
       <c r="G92" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B93" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C93" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D93" t="s">
         <v>11</v>
@@ -3184,18 +3184,18 @@
         <v>12</v>
       </c>
       <c r="G93" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B94" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C94" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D94" t="s">
         <v>11</v>
@@ -3207,18 +3207,18 @@
         <v>15</v>
       </c>
       <c r="G94" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B95" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C95" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D95" t="s">
         <v>11</v>
@@ -3230,7 +3230,7 @@
         <v>9</v>
       </c>
       <c r="G95" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -3259,12 +3259,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -3272,31 +3272,31 @@
     </row>
     <row r="3" spans="1:3">
       <c r="B3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C3" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="B5" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C5" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="C6" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/Data/michigantrees_sequence.xlsx
+++ b/Data/michigantrees_sequence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27629"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3340" yWindow="140" windowWidth="25600" windowHeight="14760" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14800" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="239">
   <si>
     <t>Family</t>
   </si>
@@ -502,9 +502,6 @@
     <t>monoecious</t>
   </si>
   <si>
-    <t>flower_buds</t>
-  </si>
-  <si>
     <t>Gleditsia</t>
   </si>
   <si>
@@ -523,48 +520,12 @@
     <t>shade_tol</t>
   </si>
   <si>
-    <t>inflorescence size</t>
-  </si>
-  <si>
-    <t>flower_size</t>
-  </si>
-  <si>
     <t>intolerant</t>
   </si>
   <si>
-    <t>fruit_size</t>
-  </si>
-  <si>
-    <t>5-8</t>
-  </si>
-  <si>
-    <t>5-12</t>
-  </si>
-  <si>
-    <t>3-4</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2-3</t>
-  </si>
-  <si>
     <t>tolerant</t>
   </si>
   <si>
-    <t>1.5-2</t>
-  </si>
-  <si>
-    <t>1-1.5</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>8-10,15-20</t>
-  </si>
-  <si>
     <t>incana</t>
   </si>
   <si>
@@ -584,6 +545,198 @@
   </si>
   <si>
     <t>albidum</t>
+  </si>
+  <si>
+    <t>av_fruit_time</t>
+  </si>
+  <si>
+    <t>very_intolerant</t>
+  </si>
+  <si>
+    <t>viridus</t>
+  </si>
+  <si>
+    <t>laevis</t>
+  </si>
+  <si>
+    <t>sanguinea</t>
+  </si>
+  <si>
+    <t>Ericaceae</t>
+  </si>
+  <si>
+    <t>Arctostaphylos</t>
+  </si>
+  <si>
+    <t>amomum</t>
+  </si>
+  <si>
+    <t>Corylus</t>
+  </si>
+  <si>
+    <t>cornuta</t>
+  </si>
+  <si>
+    <t>Crataegus</t>
+  </si>
+  <si>
+    <t>chrysocarpa</t>
+  </si>
+  <si>
+    <t>crus-galli</t>
+  </si>
+  <si>
+    <t>macrosperma</t>
+  </si>
+  <si>
+    <t>punctata</t>
+  </si>
+  <si>
+    <t>succulenta</t>
+  </si>
+  <si>
+    <t>Thymelaeaceae</t>
+  </si>
+  <si>
+    <t>Dirca</t>
+  </si>
+  <si>
+    <t>Frangula</t>
+  </si>
+  <si>
+    <t>alnus</t>
+  </si>
+  <si>
+    <t>Aqufoliaceae</t>
+  </si>
+  <si>
+    <t>Ilex</t>
+  </si>
+  <si>
+    <t>mucronata</t>
+  </si>
+  <si>
+    <t>verticillata</t>
+  </si>
+  <si>
+    <t>moderately_tolerant</t>
+  </si>
+  <si>
+    <t>Lindera</t>
+  </si>
+  <si>
+    <t>benzoin</t>
+  </si>
+  <si>
+    <t>Myricaceae</t>
+  </si>
+  <si>
+    <t>Myrica</t>
+  </si>
+  <si>
+    <t>gale</t>
+  </si>
+  <si>
+    <t>Rutaceae</t>
+  </si>
+  <si>
+    <t>Ptelea</t>
+  </si>
+  <si>
+    <t>trifoliata</t>
+  </si>
+  <si>
+    <t>alnifolia</t>
+  </si>
+  <si>
+    <t>aromatica</t>
+  </si>
+  <si>
+    <t>Grossulariaceae</t>
+  </si>
+  <si>
+    <t>Ribes</t>
+  </si>
+  <si>
+    <t>triste</t>
+  </si>
+  <si>
+    <t>bebbiana</t>
+  </si>
+  <si>
+    <t>candida</t>
+  </si>
+  <si>
+    <t>discolor</t>
+  </si>
+  <si>
+    <t>eriocephala</t>
+  </si>
+  <si>
+    <t>interior</t>
+  </si>
+  <si>
+    <t>humilis</t>
+  </si>
+  <si>
+    <t>lucida</t>
+  </si>
+  <si>
+    <t>myricoides</t>
+  </si>
+  <si>
+    <t>pedicellaris</t>
+  </si>
+  <si>
+    <t>petiolaris</t>
+  </si>
+  <si>
+    <t>serissima</t>
+  </si>
+  <si>
+    <t>Elaeagnaceae</t>
+  </si>
+  <si>
+    <t>Shepherdia</t>
+  </si>
+  <si>
+    <t>decora</t>
+  </si>
+  <si>
+    <t>Staphyleaceae</t>
+  </si>
+  <si>
+    <t>Staphylea</t>
+  </si>
+  <si>
+    <t>trifolia</t>
+  </si>
+  <si>
+    <t>Syringa</t>
+  </si>
+  <si>
+    <t>vulgaris</t>
+  </si>
+  <si>
+    <t>Vaccinium</t>
+  </si>
+  <si>
+    <t>myrtilloides</t>
+  </si>
+  <si>
+    <t>ovalifolium</t>
+  </si>
+  <si>
+    <t>pallidum</t>
+  </si>
+  <si>
+    <t>Zanthoxylum</t>
+  </si>
+  <si>
+    <t>americanum</t>
+  </si>
+  <si>
+    <t>uva_ursi</t>
   </si>
 </sst>
 </file>
@@ -627,11 +780,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -963,10 +1114,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L95"/>
+  <dimension ref="A1:I139"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -979,10 +1130,9 @@
     <col min="7" max="7" width="19.5" customWidth="1"/>
     <col min="8" max="8" width="13.5" customWidth="1"/>
     <col min="9" max="9" width="15.6640625" customWidth="1"/>
-    <col min="11" max="12" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1005,22 +1155,13 @@
         <v>157</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1043,16 +1184,10 @@
         <v>156</v>
       </c>
       <c r="I2" t="s">
-        <v>169</v>
-      </c>
-      <c r="K2" s="3">
-        <v>5</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1075,16 +1210,10 @@
         <v>156</v>
       </c>
       <c r="I3" t="s">
-        <v>176</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1092,7 +1221,7 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -1107,16 +1236,10 @@
         <v>158</v>
       </c>
       <c r="I4" t="s">
-        <v>176</v>
-      </c>
-      <c r="J4">
-        <v>5</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1139,13 +1262,10 @@
         <v>159</v>
       </c>
       <c r="I5" t="s">
-        <v>169</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1167,17 +1287,14 @@
       <c r="G6" t="s">
         <v>156</v>
       </c>
+      <c r="H6">
+        <v>10.5</v>
+      </c>
       <c r="I6" t="s">
-        <v>176</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -1200,13 +1317,10 @@
         <v>159</v>
       </c>
       <c r="I7" t="s">
-        <v>169</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -1228,11 +1342,8 @@
       <c r="G8" t="s">
         <v>158</v>
       </c>
-      <c r="J8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -1255,7 +1366,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -1278,7 +1389,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -1301,7 +1412,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -1324,7 +1435,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -1347,7 +1458,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -1370,7 +1481,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -1393,7 +1504,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -1416,7 +1527,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -1439,7 +1550,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -1462,7 +1573,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -1470,7 +1581,7 @@
         <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="D19" t="s">
         <v>11</v>
@@ -1485,15 +1596,15 @@
         <v>156</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>41</v>
       </c>
       <c r="B20" t="s">
+        <v>160</v>
+      </c>
+      <c r="C20" t="s">
         <v>161</v>
-      </c>
-      <c r="C20" t="s">
-        <v>162</v>
       </c>
       <c r="D20" t="s">
         <v>11</v>
@@ -1505,10 +1616,10 @@
         <v>26</v>
       </c>
       <c r="G20" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -1528,10 +1639,10 @@
         <v>26</v>
       </c>
       <c r="G21" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -1554,12 +1665,12 @@
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
         <v>48</v>
       </c>
       <c r="B23" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="C23" t="s">
         <v>49</v>
@@ -1576,8 +1687,14 @@
       <c r="G23" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>7</v>
+      </c>
+      <c r="I23" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -1600,7 +1717,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>48</v>
       </c>
@@ -1623,7 +1740,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>48</v>
       </c>
@@ -1645,8 +1762,14 @@
       <c r="G26" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26">
+        <v>10</v>
+      </c>
+      <c r="I26" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
         <v>48</v>
       </c>
@@ -1669,7 +1792,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
         <v>48</v>
       </c>
@@ -1692,7 +1815,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
         <v>48</v>
       </c>
@@ -1715,7 +1838,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
         <v>48</v>
       </c>
@@ -1738,7 +1861,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
         <v>48</v>
       </c>
@@ -1761,7 +1884,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -1783,8 +1906,14 @@
       <c r="G32" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="H32">
+        <v>8.5</v>
+      </c>
+      <c r="I32" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
         <v>63</v>
       </c>
@@ -1807,7 +1936,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
         <v>63</v>
       </c>
@@ -1830,7 +1959,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
         <v>63</v>
       </c>
@@ -1853,7 +1982,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
         <v>63</v>
       </c>
@@ -1876,7 +2005,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
         <v>67</v>
       </c>
@@ -1899,7 +2028,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
         <v>67</v>
       </c>
@@ -1922,7 +2051,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
         <v>70</v>
       </c>
@@ -1945,7 +2074,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
         <v>70</v>
       </c>
@@ -1965,10 +2094,10 @@
         <v>18</v>
       </c>
       <c r="G40" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" t="s">
         <v>70</v>
       </c>
@@ -1991,7 +2120,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
         <v>74</v>
       </c>
@@ -2014,7 +2143,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:9">
       <c r="A43" t="s">
         <v>74</v>
       </c>
@@ -2037,7 +2166,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
         <v>74</v>
       </c>
@@ -2060,7 +2189,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
         <v>74</v>
       </c>
@@ -2083,7 +2212,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:9">
       <c r="A46" t="s">
         <v>74</v>
       </c>
@@ -2106,7 +2235,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:9">
       <c r="A47" t="s">
         <v>74</v>
       </c>
@@ -2129,7 +2258,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
         <v>74</v>
       </c>
@@ -2151,8 +2280,11 @@
       <c r="G48" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="I48" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
         <v>74</v>
       </c>
@@ -2175,7 +2307,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
         <v>74</v>
       </c>
@@ -2198,7 +2330,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:9">
       <c r="A51" t="s">
         <v>74</v>
       </c>
@@ -2221,7 +2353,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:9">
       <c r="A52" t="s">
         <v>74</v>
       </c>
@@ -2244,7 +2376,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:9">
       <c r="A53" t="s">
         <v>74</v>
       </c>
@@ -2267,7 +2399,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:9">
       <c r="A54" t="s">
         <v>74</v>
       </c>
@@ -2290,7 +2422,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:9">
       <c r="A55" t="s">
         <v>74</v>
       </c>
@@ -2313,15 +2445,15 @@
         <v>159</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:9">
       <c r="A56" t="s">
         <v>90</v>
       </c>
       <c r="B56" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="C56" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="D56" t="s">
         <v>20</v>
@@ -2335,16 +2467,22 @@
       <c r="G56" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="57" spans="1:7">
+      <c r="H56">
+        <v>9</v>
+      </c>
+      <c r="I56" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" t="s">
         <v>90</v>
       </c>
       <c r="B57" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="C57" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="D57" t="s">
         <v>20</v>
@@ -2359,7 +2497,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:9">
       <c r="A58" t="s">
         <v>90</v>
       </c>
@@ -2382,7 +2520,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:9">
       <c r="A59" t="s">
         <v>90</v>
       </c>
@@ -2405,7 +2543,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:9">
       <c r="A60" t="s">
         <v>90</v>
       </c>
@@ -2428,7 +2566,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:9">
       <c r="A61" t="s">
         <v>90</v>
       </c>
@@ -2451,7 +2589,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:9">
       <c r="A62" t="s">
         <v>90</v>
       </c>
@@ -2474,7 +2612,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:9">
       <c r="A63" t="s">
         <v>90</v>
       </c>
@@ -2497,7 +2635,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:9">
       <c r="A64" t="s">
         <v>98</v>
       </c>
@@ -2520,7 +2658,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:9">
       <c r="A65" t="s">
         <v>98</v>
       </c>
@@ -2543,7 +2681,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:9">
       <c r="A66" t="s">
         <v>98</v>
       </c>
@@ -2566,7 +2704,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:9">
       <c r="A67" t="s">
         <v>98</v>
       </c>
@@ -2589,7 +2727,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:9">
       <c r="A68" t="s">
         <v>98</v>
       </c>
@@ -2612,7 +2750,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:9">
       <c r="A69" t="s">
         <v>98</v>
       </c>
@@ -2635,7 +2773,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:9">
       <c r="A70" t="s">
         <v>106</v>
       </c>
@@ -2658,7 +2796,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:9">
       <c r="A71" t="s">
         <v>106</v>
       </c>
@@ -2681,7 +2819,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:9">
       <c r="A72" t="s">
         <v>109</v>
       </c>
@@ -2701,10 +2839,10 @@
         <v>20</v>
       </c>
       <c r="G72" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" t="s">
         <v>112</v>
       </c>
@@ -2724,10 +2862,16 @@
         <v>7</v>
       </c>
       <c r="G73" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>162</v>
+      </c>
+      <c r="H73">
+        <v>9.5</v>
+      </c>
+      <c r="I73" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" t="s">
         <v>112</v>
       </c>
@@ -2747,10 +2891,16 @@
         <v>9</v>
       </c>
       <c r="G74" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>162</v>
+      </c>
+      <c r="H74">
+        <v>9.5</v>
+      </c>
+      <c r="I74" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" t="s">
         <v>115</v>
       </c>
@@ -2770,10 +2920,10 @@
         <v>27</v>
       </c>
       <c r="G75" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" t="s">
         <v>115</v>
       </c>
@@ -2796,7 +2946,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:9">
       <c r="A77" t="s">
         <v>115</v>
       </c>
@@ -2816,10 +2966,10 @@
         <v>30</v>
       </c>
       <c r="G77" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" t="s">
         <v>115</v>
       </c>
@@ -2839,10 +2989,10 @@
         <v>30</v>
       </c>
       <c r="G78" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" t="s">
         <v>115</v>
       </c>
@@ -2853,7 +3003,7 @@
         <v>121</v>
       </c>
       <c r="D79" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
         <v>12</v>
@@ -2862,10 +3012,16 @@
         <v>9</v>
       </c>
       <c r="G79" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>164</v>
+      </c>
+      <c r="H79">
+        <v>7.5</v>
+      </c>
+      <c r="I79" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" t="s">
         <v>115</v>
       </c>
@@ -2876,7 +3032,7 @@
         <v>122</v>
       </c>
       <c r="D80" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
         <v>58</v>
@@ -2887,8 +3043,14 @@
       <c r="G80" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="81" spans="1:7">
+      <c r="H80">
+        <v>7.5</v>
+      </c>
+      <c r="I80" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" t="s">
         <v>115</v>
       </c>
@@ -2911,7 +3073,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:9">
       <c r="A82" t="s">
         <v>115</v>
       </c>
@@ -2934,7 +3096,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:9">
       <c r="A83" t="s">
         <v>115</v>
       </c>
@@ -2954,10 +3116,10 @@
         <v>15</v>
       </c>
       <c r="G83" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" t="s">
         <v>115</v>
       </c>
@@ -2980,7 +3142,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:9">
       <c r="A85" t="s">
         <v>127</v>
       </c>
@@ -3002,8 +3164,14 @@
       <c r="G85" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="86" spans="1:7">
+      <c r="H85">
+        <v>10</v>
+      </c>
+      <c r="I85" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" t="s">
         <v>127</v>
       </c>
@@ -3026,7 +3194,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:9">
       <c r="A87" t="s">
         <v>131</v>
       </c>
@@ -3046,10 +3214,10 @@
         <v>18</v>
       </c>
       <c r="G87" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" t="s">
         <v>134</v>
       </c>
@@ -3072,7 +3240,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:9">
       <c r="A89" t="s">
         <v>134</v>
       </c>
@@ -3092,10 +3260,10 @@
         <v>20</v>
       </c>
       <c r="G89" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" t="s">
         <v>134</v>
       </c>
@@ -3103,7 +3271,7 @@
         <v>135</v>
       </c>
       <c r="C90" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="D90" t="s">
         <v>20</v>
@@ -3118,7 +3286,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:9">
       <c r="A91" t="s">
         <v>134</v>
       </c>
@@ -3141,7 +3309,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:9">
       <c r="A92" t="s">
         <v>134</v>
       </c>
@@ -3164,7 +3332,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:9">
       <c r="A93" t="s">
         <v>139</v>
       </c>
@@ -3187,7 +3355,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:9">
       <c r="A94" t="s">
         <v>139</v>
       </c>
@@ -3210,7 +3378,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:9">
       <c r="A95" t="s">
         <v>143</v>
       </c>
@@ -3227,10 +3395,1283 @@
         <v>12</v>
       </c>
       <c r="F95">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G95" t="s">
         <v>156</v>
+      </c>
+      <c r="H95">
+        <v>9.5</v>
+      </c>
+      <c r="I95" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" t="s">
+        <v>90</v>
+      </c>
+      <c r="B96" t="s">
+        <v>170</v>
+      </c>
+      <c r="C96" t="s">
+        <v>177</v>
+      </c>
+      <c r="D96" t="s">
+        <v>20</v>
+      </c>
+      <c r="E96" t="s">
+        <v>16</v>
+      </c>
+      <c r="F96">
+        <v>3</v>
+      </c>
+      <c r="G96" t="s">
+        <v>159</v>
+      </c>
+      <c r="H96">
+        <v>9.5</v>
+      </c>
+      <c r="I96" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" t="s">
+        <v>48</v>
+      </c>
+      <c r="B97" t="s">
+        <v>169</v>
+      </c>
+      <c r="C97" t="s">
+        <v>178</v>
+      </c>
+      <c r="D97" t="s">
+        <v>11</v>
+      </c>
+      <c r="E97" t="s">
+        <v>58</v>
+      </c>
+      <c r="F97">
+        <v>10</v>
+      </c>
+      <c r="G97" t="s">
+        <v>156</v>
+      </c>
+      <c r="H97">
+        <v>7</v>
+      </c>
+      <c r="I97" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" t="s">
+        <v>48</v>
+      </c>
+      <c r="B98" t="s">
+        <v>169</v>
+      </c>
+      <c r="C98" t="s">
+        <v>179</v>
+      </c>
+      <c r="D98" t="s">
+        <v>11</v>
+      </c>
+      <c r="E98" t="s">
+        <v>12</v>
+      </c>
+      <c r="F98">
+        <v>8</v>
+      </c>
+      <c r="G98" t="s">
+        <v>156</v>
+      </c>
+      <c r="H98">
+        <v>7</v>
+      </c>
+      <c r="I98" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" t="s">
+        <v>180</v>
+      </c>
+      <c r="B99" t="s">
+        <v>181</v>
+      </c>
+      <c r="C99" t="s">
+        <v>238</v>
+      </c>
+      <c r="D99" t="s">
+        <v>11</v>
+      </c>
+      <c r="E99" t="s">
+        <v>16</v>
+      </c>
+      <c r="F99">
+        <v>0.3</v>
+      </c>
+      <c r="G99" t="s">
+        <v>156</v>
+      </c>
+      <c r="H99">
+        <v>8</v>
+      </c>
+      <c r="I99" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" t="s">
+        <v>127</v>
+      </c>
+      <c r="B100" t="s">
+        <v>128</v>
+      </c>
+      <c r="C100" t="s">
+        <v>182</v>
+      </c>
+      <c r="D100" t="s">
+        <v>11</v>
+      </c>
+      <c r="E100" t="s">
+        <v>12</v>
+      </c>
+      <c r="F100">
+        <v>4</v>
+      </c>
+      <c r="G100" t="s">
+        <v>156</v>
+      </c>
+      <c r="H100">
+        <v>8.5</v>
+      </c>
+      <c r="I100" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" t="s">
+        <v>90</v>
+      </c>
+      <c r="B101" t="s">
+        <v>183</v>
+      </c>
+      <c r="C101" t="s">
+        <v>54</v>
+      </c>
+      <c r="D101" t="s">
+        <v>20</v>
+      </c>
+      <c r="E101" t="s">
+        <v>13</v>
+      </c>
+      <c r="F101">
+        <v>3</v>
+      </c>
+      <c r="G101" t="s">
+        <v>159</v>
+      </c>
+      <c r="H101">
+        <v>8.5</v>
+      </c>
+      <c r="I101" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" t="s">
+        <v>90</v>
+      </c>
+      <c r="B102" t="s">
+        <v>183</v>
+      </c>
+      <c r="C102" t="s">
+        <v>184</v>
+      </c>
+      <c r="D102" t="s">
+        <v>20</v>
+      </c>
+      <c r="E102" t="s">
+        <v>13</v>
+      </c>
+      <c r="F102">
+        <v>4</v>
+      </c>
+      <c r="G102" t="s">
+        <v>159</v>
+      </c>
+      <c r="H102">
+        <v>8.5</v>
+      </c>
+      <c r="I102" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" t="s">
+        <v>48</v>
+      </c>
+      <c r="B103" t="s">
+        <v>185</v>
+      </c>
+      <c r="C103" t="s">
+        <v>186</v>
+      </c>
+      <c r="D103" t="s">
+        <v>11</v>
+      </c>
+      <c r="E103" t="s">
+        <v>16</v>
+      </c>
+      <c r="F103">
+        <v>6</v>
+      </c>
+      <c r="G103" t="s">
+        <v>156</v>
+      </c>
+      <c r="H103">
+        <v>9</v>
+      </c>
+      <c r="I103" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" t="s">
+        <v>48</v>
+      </c>
+      <c r="B104" t="s">
+        <v>185</v>
+      </c>
+      <c r="C104" t="s">
+        <v>187</v>
+      </c>
+      <c r="D104" t="s">
+        <v>11</v>
+      </c>
+      <c r="E104" t="s">
+        <v>16</v>
+      </c>
+      <c r="F104">
+        <v>10</v>
+      </c>
+      <c r="G104" t="s">
+        <v>156</v>
+      </c>
+      <c r="H104">
+        <v>9.5</v>
+      </c>
+      <c r="I104" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" t="s">
+        <v>48</v>
+      </c>
+      <c r="B105" t="s">
+        <v>185</v>
+      </c>
+      <c r="C105" t="s">
+        <v>188</v>
+      </c>
+      <c r="D105" t="s">
+        <v>11</v>
+      </c>
+      <c r="E105" t="s">
+        <v>16</v>
+      </c>
+      <c r="F105">
+        <v>7</v>
+      </c>
+      <c r="G105" t="s">
+        <v>156</v>
+      </c>
+      <c r="H105">
+        <v>9.5</v>
+      </c>
+      <c r="I105" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" t="s">
+        <v>48</v>
+      </c>
+      <c r="B106" t="s">
+        <v>185</v>
+      </c>
+      <c r="C106" t="s">
+        <v>189</v>
+      </c>
+      <c r="D106" t="s">
+        <v>11</v>
+      </c>
+      <c r="E106" t="s">
+        <v>16</v>
+      </c>
+      <c r="F106">
+        <v>10</v>
+      </c>
+      <c r="G106" t="s">
+        <v>156</v>
+      </c>
+      <c r="H106">
+        <v>8.5</v>
+      </c>
+      <c r="I106" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" t="s">
+        <v>48</v>
+      </c>
+      <c r="B107" t="s">
+        <v>185</v>
+      </c>
+      <c r="C107" t="s">
+        <v>190</v>
+      </c>
+      <c r="D107" t="s">
+        <v>11</v>
+      </c>
+      <c r="E107" t="s">
+        <v>16</v>
+      </c>
+      <c r="F107">
+        <v>8</v>
+      </c>
+      <c r="G107" t="s">
+        <v>156</v>
+      </c>
+      <c r="H107">
+        <v>9.5</v>
+      </c>
+      <c r="I107" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" t="s">
+        <v>191</v>
+      </c>
+      <c r="B108" t="s">
+        <v>192</v>
+      </c>
+      <c r="C108" t="s">
+        <v>88</v>
+      </c>
+      <c r="D108" t="s">
+        <v>11</v>
+      </c>
+      <c r="E108" t="s">
+        <v>13</v>
+      </c>
+      <c r="F108">
+        <v>2</v>
+      </c>
+      <c r="G108" t="s">
+        <v>156</v>
+      </c>
+      <c r="H108">
+        <v>6</v>
+      </c>
+      <c r="I108" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" t="s">
+        <v>60</v>
+      </c>
+      <c r="B109" t="s">
+        <v>193</v>
+      </c>
+      <c r="C109" t="s">
+        <v>194</v>
+      </c>
+      <c r="D109" t="s">
+        <v>11</v>
+      </c>
+      <c r="E109" t="s">
+        <v>12</v>
+      </c>
+      <c r="F109">
+        <v>6</v>
+      </c>
+      <c r="G109" t="s">
+        <v>156</v>
+      </c>
+      <c r="H109">
+        <v>7.5</v>
+      </c>
+      <c r="I109" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" t="s">
+        <v>195</v>
+      </c>
+      <c r="B110" t="s">
+        <v>196</v>
+      </c>
+      <c r="C110" t="s">
+        <v>197</v>
+      </c>
+      <c r="D110" t="s">
+        <v>11</v>
+      </c>
+      <c r="E110" t="s">
+        <v>16</v>
+      </c>
+      <c r="F110">
+        <v>4</v>
+      </c>
+      <c r="G110" t="s">
+        <v>158</v>
+      </c>
+      <c r="H110">
+        <v>7.5</v>
+      </c>
+      <c r="I110" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" t="s">
+        <v>195</v>
+      </c>
+      <c r="B111" t="s">
+        <v>196</v>
+      </c>
+      <c r="C111" t="s">
+        <v>198</v>
+      </c>
+      <c r="D111" t="s">
+        <v>11</v>
+      </c>
+      <c r="E111" t="s">
+        <v>12</v>
+      </c>
+      <c r="F111">
+        <v>5</v>
+      </c>
+      <c r="G111" t="s">
+        <v>158</v>
+      </c>
+      <c r="H111">
+        <v>9.5</v>
+      </c>
+      <c r="I111" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" t="s">
+        <v>14</v>
+      </c>
+      <c r="B112" t="s">
+        <v>200</v>
+      </c>
+      <c r="C112" t="s">
+        <v>201</v>
+      </c>
+      <c r="D112" t="s">
+        <v>11</v>
+      </c>
+      <c r="E112" t="s">
+        <v>13</v>
+      </c>
+      <c r="F112">
+        <v>5</v>
+      </c>
+      <c r="G112" t="s">
+        <v>158</v>
+      </c>
+      <c r="H112">
+        <v>8</v>
+      </c>
+      <c r="I112" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" t="s">
+        <v>202</v>
+      </c>
+      <c r="B113" t="s">
+        <v>203</v>
+      </c>
+      <c r="C113" t="s">
+        <v>204</v>
+      </c>
+      <c r="D113" t="s">
+        <v>20</v>
+      </c>
+      <c r="E113" t="s">
+        <v>13</v>
+      </c>
+      <c r="F113">
+        <v>1.5</v>
+      </c>
+      <c r="G113" t="s">
+        <v>158</v>
+      </c>
+      <c r="H113">
+        <v>7.5</v>
+      </c>
+      <c r="I113" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" t="s">
+        <v>48</v>
+      </c>
+      <c r="B114" t="s">
+        <v>55</v>
+      </c>
+      <c r="C114" t="s">
+        <v>54</v>
+      </c>
+      <c r="D114" t="s">
+        <v>11</v>
+      </c>
+      <c r="E114" t="s">
+        <v>13</v>
+      </c>
+      <c r="F114">
+        <v>10</v>
+      </c>
+      <c r="G114" t="s">
+        <v>156</v>
+      </c>
+      <c r="H114">
+        <v>8.5</v>
+      </c>
+      <c r="I114" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" t="s">
+        <v>48</v>
+      </c>
+      <c r="B115" t="s">
+        <v>55</v>
+      </c>
+      <c r="C115" t="s">
+        <v>23</v>
+      </c>
+      <c r="D115" t="s">
+        <v>11</v>
+      </c>
+      <c r="E115" t="s">
+        <v>58</v>
+      </c>
+      <c r="F115">
+        <v>10</v>
+      </c>
+      <c r="G115" t="s">
+        <v>156</v>
+      </c>
+      <c r="H115">
+        <v>7.5</v>
+      </c>
+      <c r="I115" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" t="s">
+        <v>205</v>
+      </c>
+      <c r="B116" t="s">
+        <v>206</v>
+      </c>
+      <c r="C116" t="s">
+        <v>207</v>
+      </c>
+      <c r="D116" t="s">
+        <v>11</v>
+      </c>
+      <c r="E116" t="s">
+        <v>16</v>
+      </c>
+      <c r="F116">
+        <v>5</v>
+      </c>
+      <c r="G116" t="s">
+        <v>163</v>
+      </c>
+      <c r="H116">
+        <v>9.5</v>
+      </c>
+      <c r="I116" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" t="s">
+        <v>60</v>
+      </c>
+      <c r="B117" t="s">
+        <v>61</v>
+      </c>
+      <c r="C117" t="s">
+        <v>208</v>
+      </c>
+      <c r="D117" t="s">
+        <v>11</v>
+      </c>
+      <c r="E117" t="s">
+        <v>16</v>
+      </c>
+      <c r="F117">
+        <v>2</v>
+      </c>
+      <c r="G117" t="s">
+        <v>158</v>
+      </c>
+      <c r="H117">
+        <v>8.5</v>
+      </c>
+      <c r="I117" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118" t="s">
+        <v>112</v>
+      </c>
+      <c r="B118" t="s">
+        <v>113</v>
+      </c>
+      <c r="C118" t="s">
+        <v>209</v>
+      </c>
+      <c r="D118" t="s">
+        <v>11</v>
+      </c>
+      <c r="E118" t="s">
+        <v>13</v>
+      </c>
+      <c r="F118">
+        <v>2</v>
+      </c>
+      <c r="G118" t="s">
+        <v>158</v>
+      </c>
+      <c r="H118">
+        <v>7.5</v>
+      </c>
+      <c r="I118" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" t="s">
+        <v>210</v>
+      </c>
+      <c r="B119" t="s">
+        <v>211</v>
+      </c>
+      <c r="C119" t="s">
+        <v>212</v>
+      </c>
+      <c r="D119" t="s">
+        <v>11</v>
+      </c>
+      <c r="E119" t="s">
+        <v>16</v>
+      </c>
+      <c r="F119">
+        <v>1</v>
+      </c>
+      <c r="G119" t="s">
+        <v>156</v>
+      </c>
+      <c r="H119">
+        <v>7.5</v>
+      </c>
+      <c r="I119" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" t="s">
+        <v>27</v>
+      </c>
+      <c r="B120" t="s">
+        <v>37</v>
+      </c>
+      <c r="C120" t="s">
+        <v>213</v>
+      </c>
+      <c r="D120" t="s">
+        <v>38</v>
+      </c>
+      <c r="E120" t="s">
+        <v>43</v>
+      </c>
+      <c r="F120">
+        <v>4</v>
+      </c>
+      <c r="G120" t="s">
+        <v>158</v>
+      </c>
+      <c r="H120">
+        <v>5.5</v>
+      </c>
+      <c r="I120" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" t="s">
+        <v>27</v>
+      </c>
+      <c r="B121" t="s">
+        <v>37</v>
+      </c>
+      <c r="C121" t="s">
+        <v>214</v>
+      </c>
+      <c r="D121" t="s">
+        <v>38</v>
+      </c>
+      <c r="E121" t="s">
+        <v>43</v>
+      </c>
+      <c r="F121">
+        <v>1.5</v>
+      </c>
+      <c r="G121" t="s">
+        <v>158</v>
+      </c>
+      <c r="H121">
+        <v>6</v>
+      </c>
+      <c r="I121" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" t="s">
+        <v>27</v>
+      </c>
+      <c r="B122" t="s">
+        <v>37</v>
+      </c>
+      <c r="C122" t="s">
+        <v>108</v>
+      </c>
+      <c r="D122" t="s">
+        <v>38</v>
+      </c>
+      <c r="E122" t="s">
+        <v>43</v>
+      </c>
+      <c r="F122">
+        <v>3</v>
+      </c>
+      <c r="G122" t="s">
+        <v>158</v>
+      </c>
+      <c r="H122">
+        <v>6.5</v>
+      </c>
+      <c r="I122" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" t="s">
+        <v>27</v>
+      </c>
+      <c r="B123" t="s">
+        <v>37</v>
+      </c>
+      <c r="C123" t="s">
+        <v>215</v>
+      </c>
+      <c r="D123" t="s">
+        <v>38</v>
+      </c>
+      <c r="E123" t="s">
+        <v>13</v>
+      </c>
+      <c r="F123">
+        <v>3</v>
+      </c>
+      <c r="G123" t="s">
+        <v>158</v>
+      </c>
+      <c r="H123">
+        <v>5.5</v>
+      </c>
+      <c r="I123" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" t="s">
+        <v>27</v>
+      </c>
+      <c r="B124" t="s">
+        <v>37</v>
+      </c>
+      <c r="C124" t="s">
+        <v>216</v>
+      </c>
+      <c r="D124" t="s">
+        <v>38</v>
+      </c>
+      <c r="E124" t="s">
+        <v>43</v>
+      </c>
+      <c r="F124">
+        <v>6</v>
+      </c>
+      <c r="G124" t="s">
+        <v>158</v>
+      </c>
+      <c r="H124">
+        <v>5.5</v>
+      </c>
+      <c r="I124" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" t="s">
+        <v>27</v>
+      </c>
+      <c r="B125" t="s">
+        <v>37</v>
+      </c>
+      <c r="C125" t="s">
+        <v>217</v>
+      </c>
+      <c r="D125" t="s">
+        <v>38</v>
+      </c>
+      <c r="E125" t="s">
+        <v>16</v>
+      </c>
+      <c r="F125">
+        <v>4</v>
+      </c>
+      <c r="G125" t="s">
+        <v>158</v>
+      </c>
+      <c r="H125">
+        <v>6</v>
+      </c>
+      <c r="I125" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" t="s">
+        <v>27</v>
+      </c>
+      <c r="B126" t="s">
+        <v>37</v>
+      </c>
+      <c r="C126" t="s">
+        <v>218</v>
+      </c>
+      <c r="D126" t="s">
+        <v>38</v>
+      </c>
+      <c r="E126" t="s">
+        <v>13</v>
+      </c>
+      <c r="F126">
+        <v>3</v>
+      </c>
+      <c r="G126" t="s">
+        <v>158</v>
+      </c>
+      <c r="H126">
+        <v>5</v>
+      </c>
+      <c r="I126" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" t="s">
+        <v>27</v>
+      </c>
+      <c r="B127" t="s">
+        <v>37</v>
+      </c>
+      <c r="C127" t="s">
+        <v>219</v>
+      </c>
+      <c r="D127" t="s">
+        <v>38</v>
+      </c>
+      <c r="E127" t="s">
+        <v>16</v>
+      </c>
+      <c r="F127">
+        <v>6</v>
+      </c>
+      <c r="G127" t="s">
+        <v>158</v>
+      </c>
+      <c r="H127">
+        <v>6.5</v>
+      </c>
+      <c r="I127" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128" t="s">
+        <v>27</v>
+      </c>
+      <c r="B128" t="s">
+        <v>37</v>
+      </c>
+      <c r="C128" t="s">
+        <v>220</v>
+      </c>
+      <c r="D128" t="s">
+        <v>38</v>
+      </c>
+      <c r="E128" t="s">
+        <v>43</v>
+      </c>
+      <c r="F128">
+        <v>2.5</v>
+      </c>
+      <c r="G128" t="s">
+        <v>158</v>
+      </c>
+      <c r="H128">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" t="s">
+        <v>27</v>
+      </c>
+      <c r="B129" t="s">
+        <v>37</v>
+      </c>
+      <c r="C129" t="s">
+        <v>221</v>
+      </c>
+      <c r="D129" t="s">
+        <v>38</v>
+      </c>
+      <c r="E129" t="s">
+        <v>16</v>
+      </c>
+      <c r="F129">
+        <v>1</v>
+      </c>
+      <c r="G129" t="s">
+        <v>158</v>
+      </c>
+      <c r="H129">
+        <v>6.5</v>
+      </c>
+      <c r="I129" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130" t="s">
+        <v>27</v>
+      </c>
+      <c r="B130" t="s">
+        <v>37</v>
+      </c>
+      <c r="C130" t="s">
+        <v>222</v>
+      </c>
+      <c r="D130" t="s">
+        <v>38</v>
+      </c>
+      <c r="E130" t="s">
+        <v>16</v>
+      </c>
+      <c r="F130">
+        <v>3</v>
+      </c>
+      <c r="G130" t="s">
+        <v>158</v>
+      </c>
+      <c r="I130" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131" t="s">
+        <v>27</v>
+      </c>
+      <c r="B131" t="s">
+        <v>37</v>
+      </c>
+      <c r="C131" t="s">
+        <v>223</v>
+      </c>
+      <c r="D131" t="s">
+        <v>38</v>
+      </c>
+      <c r="E131" t="s">
+        <v>12</v>
+      </c>
+      <c r="F131">
+        <v>4</v>
+      </c>
+      <c r="G131" t="s">
+        <v>158</v>
+      </c>
+      <c r="H131">
+        <v>9</v>
+      </c>
+      <c r="I131" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132" t="s">
+        <v>224</v>
+      </c>
+      <c r="B132" t="s">
+        <v>225</v>
+      </c>
+      <c r="C132" t="s">
+        <v>172</v>
+      </c>
+      <c r="D132" t="s">
+        <v>11</v>
+      </c>
+      <c r="E132" t="s">
+        <v>13</v>
+      </c>
+      <c r="F132">
+        <v>3</v>
+      </c>
+      <c r="G132" t="s">
+        <v>158</v>
+      </c>
+      <c r="H132">
+        <v>7.5</v>
+      </c>
+      <c r="I132" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133" t="s">
+        <v>48</v>
+      </c>
+      <c r="B133" t="s">
+        <v>53</v>
+      </c>
+      <c r="C133" t="s">
+        <v>226</v>
+      </c>
+      <c r="D133" t="s">
+        <v>11</v>
+      </c>
+      <c r="E133" t="s">
+        <v>12</v>
+      </c>
+      <c r="F133">
+        <v>10</v>
+      </c>
+      <c r="G133" t="s">
+        <v>156</v>
+      </c>
+      <c r="H133">
+        <v>8.5</v>
+      </c>
+      <c r="I133" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134" t="s">
+        <v>227</v>
+      </c>
+      <c r="B134" t="s">
+        <v>228</v>
+      </c>
+      <c r="C134" t="s">
+        <v>229</v>
+      </c>
+      <c r="D134" t="s">
+        <v>11</v>
+      </c>
+      <c r="E134" t="s">
+        <v>58</v>
+      </c>
+      <c r="F134">
+        <v>4</v>
+      </c>
+      <c r="G134" t="s">
+        <v>156</v>
+      </c>
+      <c r="H134">
+        <v>9.5</v>
+      </c>
+      <c r="I134" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="A135" t="s">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>230</v>
+      </c>
+      <c r="C135" t="s">
+        <v>231</v>
+      </c>
+      <c r="D135" t="s">
+        <v>11</v>
+      </c>
+      <c r="E135" t="s">
+        <v>58</v>
+      </c>
+      <c r="F135">
+        <v>7</v>
+      </c>
+      <c r="G135" t="s">
+        <v>156</v>
+      </c>
+      <c r="I135" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136" t="s">
+        <v>180</v>
+      </c>
+      <c r="B136" t="s">
+        <v>232</v>
+      </c>
+      <c r="C136" t="s">
+        <v>233</v>
+      </c>
+      <c r="D136" t="s">
+        <v>11</v>
+      </c>
+      <c r="E136" t="s">
+        <v>16</v>
+      </c>
+      <c r="F136">
+        <v>0.5</v>
+      </c>
+      <c r="G136" t="s">
+        <v>156</v>
+      </c>
+      <c r="H136">
+        <v>7.5</v>
+      </c>
+      <c r="I136" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137" t="s">
+        <v>180</v>
+      </c>
+      <c r="B137" t="s">
+        <v>232</v>
+      </c>
+      <c r="C137" t="s">
+        <v>234</v>
+      </c>
+      <c r="D137" t="s">
+        <v>11</v>
+      </c>
+      <c r="E137" t="s">
+        <v>13</v>
+      </c>
+      <c r="F137">
+        <v>1.5</v>
+      </c>
+      <c r="G137" t="s">
+        <v>156</v>
+      </c>
+      <c r="H137">
+        <v>7.5</v>
+      </c>
+      <c r="I137" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138" t="s">
+        <v>180</v>
+      </c>
+      <c r="B138" t="s">
+        <v>232</v>
+      </c>
+      <c r="C138" t="s">
+        <v>235</v>
+      </c>
+      <c r="D138" t="s">
+        <v>11</v>
+      </c>
+      <c r="E138" t="s">
+        <v>13</v>
+      </c>
+      <c r="F138">
+        <v>0.8</v>
+      </c>
+      <c r="G138" t="s">
+        <v>156</v>
+      </c>
+      <c r="H138">
+        <v>7.5</v>
+      </c>
+      <c r="I138" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="A139" t="s">
+        <v>205</v>
+      </c>
+      <c r="B139" t="s">
+        <v>236</v>
+      </c>
+      <c r="C139" t="s">
+        <v>237</v>
+      </c>
+      <c r="D139" t="s">
+        <v>11</v>
+      </c>
+      <c r="E139" t="s">
+        <v>13</v>
+      </c>
+      <c r="F139">
+        <v>5</v>
+      </c>
+      <c r="G139" t="s">
+        <v>158</v>
+      </c>
+      <c r="H139">
+        <v>8.5</v>
+      </c>
+      <c r="I139" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/Data/michigantrees_sequence.xlsx
+++ b/Data/michigantrees_sequence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27629"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14800" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14780" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="248">
   <si>
     <t>Family</t>
   </si>
@@ -737,6 +737,33 @@
   </si>
   <si>
     <t>uva_ursi</t>
+  </si>
+  <si>
+    <t>very_tolerant</t>
+  </si>
+  <si>
+    <t>av.fruit time</t>
+  </si>
+  <si>
+    <t>1-12=Jan-Dec</t>
+  </si>
+  <si>
+    <t>autmn=9.5</t>
+  </si>
+  <si>
+    <t>late autumn=10</t>
+  </si>
+  <si>
+    <t>early autmn=9</t>
+  </si>
+  <si>
+    <t>very intolerant</t>
+  </si>
+  <si>
+    <t>moderately tolerant</t>
+  </si>
+  <si>
+    <t>very tolerant</t>
   </si>
 </sst>
 </file>
@@ -1116,8 +1143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="C99" sqref="C99"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="G85" sqref="G85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1183,6 +1210,9 @@
       <c r="G2" t="s">
         <v>156</v>
       </c>
+      <c r="H2">
+        <v>9.5</v>
+      </c>
       <c r="I2" t="s">
         <v>166</v>
       </c>
@@ -1209,6 +1239,9 @@
       <c r="G3" t="s">
         <v>156</v>
       </c>
+      <c r="H3">
+        <v>9.5</v>
+      </c>
       <c r="I3" t="s">
         <v>167</v>
       </c>
@@ -1235,6 +1268,9 @@
       <c r="G4" t="s">
         <v>158</v>
       </c>
+      <c r="H4">
+        <v>9.5</v>
+      </c>
       <c r="I4" t="s">
         <v>167</v>
       </c>
@@ -1261,6 +1297,9 @@
       <c r="G5" t="s">
         <v>159</v>
       </c>
+      <c r="H5">
+        <v>10</v>
+      </c>
       <c r="I5" t="s">
         <v>166</v>
       </c>
@@ -1342,6 +1381,12 @@
       <c r="G8" t="s">
         <v>158</v>
       </c>
+      <c r="H8">
+        <v>5.5</v>
+      </c>
+      <c r="I8" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
@@ -1365,6 +1410,9 @@
       <c r="G9" t="s">
         <v>158</v>
       </c>
+      <c r="I9" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
@@ -1388,6 +1436,12 @@
       <c r="G10" t="s">
         <v>158</v>
       </c>
+      <c r="H10">
+        <v>5.5</v>
+      </c>
+      <c r="I10" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
@@ -1411,6 +1465,12 @@
       <c r="G11" t="s">
         <v>158</v>
       </c>
+      <c r="H11">
+        <v>5.5</v>
+      </c>
+      <c r="I11" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
@@ -1434,6 +1494,12 @@
       <c r="G12" t="s">
         <v>158</v>
       </c>
+      <c r="H12">
+        <v>5.5</v>
+      </c>
+      <c r="I12" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
@@ -1457,6 +1523,12 @@
       <c r="G13" t="s">
         <v>158</v>
       </c>
+      <c r="H13">
+        <v>5.5</v>
+      </c>
+      <c r="I13" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
@@ -1480,6 +1552,12 @@
       <c r="G14" t="s">
         <v>158</v>
       </c>
+      <c r="H14">
+        <v>5.5</v>
+      </c>
+      <c r="I14" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
@@ -1503,6 +1581,12 @@
       <c r="G15" t="s">
         <v>158</v>
       </c>
+      <c r="H15">
+        <v>5.5</v>
+      </c>
+      <c r="I15" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
@@ -1526,6 +1610,12 @@
       <c r="G16" t="s">
         <v>158</v>
       </c>
+      <c r="H16">
+        <v>5</v>
+      </c>
+      <c r="I16" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
@@ -1549,6 +1639,12 @@
       <c r="G17" t="s">
         <v>158</v>
       </c>
+      <c r="H17">
+        <v>5.5</v>
+      </c>
+      <c r="I17" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
@@ -1572,6 +1668,12 @@
       <c r="G18" t="s">
         <v>158</v>
       </c>
+      <c r="H18">
+        <v>6</v>
+      </c>
+      <c r="I18" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
@@ -1595,6 +1697,12 @@
       <c r="G19" t="s">
         <v>156</v>
       </c>
+      <c r="H19">
+        <v>6.5</v>
+      </c>
+      <c r="I19" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
@@ -1618,6 +1726,12 @@
       <c r="G20" t="s">
         <v>162</v>
       </c>
+      <c r="H20">
+        <v>9.5</v>
+      </c>
+      <c r="I20" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
@@ -1641,6 +1755,12 @@
       <c r="G21" t="s">
         <v>162</v>
       </c>
+      <c r="H21">
+        <v>9.5</v>
+      </c>
+      <c r="I21" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
@@ -1664,6 +1784,12 @@
       <c r="G22" t="s">
         <v>156</v>
       </c>
+      <c r="H22">
+        <v>10</v>
+      </c>
+      <c r="I22" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
@@ -1716,6 +1842,12 @@
       <c r="G24" t="s">
         <v>156</v>
       </c>
+      <c r="H24">
+        <v>10</v>
+      </c>
+      <c r="I24" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
@@ -1739,6 +1871,12 @@
       <c r="G25" t="s">
         <v>156</v>
       </c>
+      <c r="H25">
+        <v>8.5</v>
+      </c>
+      <c r="I25" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
@@ -1766,7 +1904,7 @@
         <v>10</v>
       </c>
       <c r="I26" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1791,6 +1929,12 @@
       <c r="G27" t="s">
         <v>156</v>
       </c>
+      <c r="H27">
+        <v>8.5</v>
+      </c>
+      <c r="I27" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
@@ -1814,6 +1958,12 @@
       <c r="G28" t="s">
         <v>156</v>
       </c>
+      <c r="H28">
+        <v>7.5</v>
+      </c>
+      <c r="I28" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
@@ -1837,6 +1987,12 @@
       <c r="G29" t="s">
         <v>156</v>
       </c>
+      <c r="H29">
+        <v>8.5</v>
+      </c>
+      <c r="I29" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
@@ -1860,6 +2016,12 @@
       <c r="G30" t="s">
         <v>156</v>
       </c>
+      <c r="H30">
+        <v>7.5</v>
+      </c>
+      <c r="I30" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
@@ -1883,6 +2045,12 @@
       <c r="G31" t="s">
         <v>156</v>
       </c>
+      <c r="H31">
+        <v>8.5</v>
+      </c>
+      <c r="I31" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
@@ -1935,6 +2103,12 @@
       <c r="G33" t="s">
         <v>156</v>
       </c>
+      <c r="H33">
+        <v>5</v>
+      </c>
+      <c r="I33" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
@@ -1958,6 +2132,12 @@
       <c r="G34" t="s">
         <v>156</v>
       </c>
+      <c r="H34">
+        <v>5</v>
+      </c>
+      <c r="I34" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
@@ -1981,6 +2161,12 @@
       <c r="G35" t="s">
         <v>156</v>
       </c>
+      <c r="H35">
+        <v>5</v>
+      </c>
+      <c r="I35" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
@@ -2004,6 +2190,12 @@
       <c r="G36" t="s">
         <v>156</v>
       </c>
+      <c r="H36">
+        <v>4</v>
+      </c>
+      <c r="I36" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
@@ -2027,6 +2219,12 @@
       <c r="G37" t="s">
         <v>159</v>
       </c>
+      <c r="H37">
+        <v>9.5</v>
+      </c>
+      <c r="I37" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
@@ -2050,6 +2248,12 @@
       <c r="G38" t="s">
         <v>159</v>
       </c>
+      <c r="H38">
+        <v>9</v>
+      </c>
+      <c r="I38" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
@@ -2073,6 +2277,12 @@
       <c r="G39" t="s">
         <v>158</v>
       </c>
+      <c r="H39">
+        <v>9.5</v>
+      </c>
+      <c r="I39" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
@@ -2096,6 +2306,12 @@
       <c r="G40" t="s">
         <v>162</v>
       </c>
+      <c r="H40">
+        <v>6.5</v>
+      </c>
+      <c r="I40" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
@@ -2119,6 +2335,12 @@
       <c r="G41" t="s">
         <v>158</v>
       </c>
+      <c r="H41">
+        <v>7</v>
+      </c>
+      <c r="I41" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
@@ -2142,6 +2364,12 @@
       <c r="G42" t="s">
         <v>159</v>
       </c>
+      <c r="H42">
+        <v>9.5</v>
+      </c>
+      <c r="I42" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
@@ -2165,6 +2393,12 @@
       <c r="G43" t="s">
         <v>159</v>
       </c>
+      <c r="H43">
+        <v>9.5</v>
+      </c>
+      <c r="I43" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
@@ -2188,6 +2422,12 @@
       <c r="G44" t="s">
         <v>159</v>
       </c>
+      <c r="H44">
+        <v>9.5</v>
+      </c>
+      <c r="I44" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
@@ -2211,6 +2451,12 @@
       <c r="G45" t="s">
         <v>159</v>
       </c>
+      <c r="H45">
+        <v>9.5</v>
+      </c>
+      <c r="I45" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
@@ -2234,6 +2480,12 @@
       <c r="G46" t="s">
         <v>159</v>
       </c>
+      <c r="H46">
+        <v>9.5</v>
+      </c>
+      <c r="I46" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
@@ -2257,6 +2509,12 @@
       <c r="G47" t="s">
         <v>159</v>
       </c>
+      <c r="H47">
+        <v>9.5</v>
+      </c>
+      <c r="I47" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
@@ -2280,6 +2538,9 @@
       <c r="G48" t="s">
         <v>159</v>
       </c>
+      <c r="H48">
+        <v>19</v>
+      </c>
       <c r="I48" t="s">
         <v>166</v>
       </c>
@@ -2306,6 +2567,12 @@
       <c r="G49" t="s">
         <v>159</v>
       </c>
+      <c r="H49">
+        <v>19</v>
+      </c>
+      <c r="I49" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
@@ -2329,6 +2596,12 @@
       <c r="G50" t="s">
         <v>159</v>
       </c>
+      <c r="H50">
+        <v>19</v>
+      </c>
+      <c r="I50" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
@@ -2352,6 +2625,12 @@
       <c r="G51" t="s">
         <v>159</v>
       </c>
+      <c r="H51">
+        <v>19</v>
+      </c>
+      <c r="I51" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
@@ -2375,6 +2654,12 @@
       <c r="G52" t="s">
         <v>159</v>
       </c>
+      <c r="H52">
+        <v>19</v>
+      </c>
+      <c r="I52" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
@@ -2398,6 +2683,12 @@
       <c r="G53" t="s">
         <v>159</v>
       </c>
+      <c r="H53">
+        <v>19</v>
+      </c>
+      <c r="I53" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
@@ -2421,6 +2712,12 @@
       <c r="G54" t="s">
         <v>159</v>
       </c>
+      <c r="H54">
+        <v>19</v>
+      </c>
+      <c r="I54" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
@@ -2444,6 +2741,12 @@
       <c r="G55" t="s">
         <v>159</v>
       </c>
+      <c r="H55">
+        <v>19</v>
+      </c>
+      <c r="I55" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
@@ -2496,6 +2799,12 @@
       <c r="G57" t="s">
         <v>159</v>
       </c>
+      <c r="H57">
+        <v>9.5</v>
+      </c>
+      <c r="I57" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
@@ -2519,6 +2828,12 @@
       <c r="G58" t="s">
         <v>159</v>
       </c>
+      <c r="H58">
+        <v>8</v>
+      </c>
+      <c r="I58" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
@@ -2542,6 +2857,12 @@
       <c r="G59" t="s">
         <v>159</v>
       </c>
+      <c r="H59">
+        <v>8.5</v>
+      </c>
+      <c r="I59" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
@@ -2565,6 +2886,12 @@
       <c r="G60" t="s">
         <v>159</v>
       </c>
+      <c r="H60">
+        <v>8.5</v>
+      </c>
+      <c r="I60" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
@@ -2588,6 +2915,12 @@
       <c r="G61" t="s">
         <v>159</v>
       </c>
+      <c r="H61">
+        <v>5.5</v>
+      </c>
+      <c r="I61" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
@@ -2611,6 +2944,12 @@
       <c r="G62" t="s">
         <v>159</v>
       </c>
+      <c r="H62">
+        <v>6</v>
+      </c>
+      <c r="I62" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
@@ -2634,6 +2973,12 @@
       <c r="G63" t="s">
         <v>159</v>
       </c>
+      <c r="H63">
+        <v>9</v>
+      </c>
+      <c r="I63" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
@@ -2657,6 +3002,12 @@
       <c r="G64" t="s">
         <v>159</v>
       </c>
+      <c r="H64">
+        <v>10</v>
+      </c>
+      <c r="I64" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" t="s">
@@ -2680,6 +3031,12 @@
       <c r="G65" t="s">
         <v>159</v>
       </c>
+      <c r="H65">
+        <v>10</v>
+      </c>
+      <c r="I65" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" t="s">
@@ -2703,6 +3060,12 @@
       <c r="G66" t="s">
         <v>159</v>
       </c>
+      <c r="H66">
+        <v>10</v>
+      </c>
+      <c r="I66" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" t="s">
@@ -2726,6 +3089,12 @@
       <c r="G67" t="s">
         <v>159</v>
       </c>
+      <c r="H67">
+        <v>10</v>
+      </c>
+      <c r="I67" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" t="s">
@@ -2749,6 +3118,12 @@
       <c r="G68" t="s">
         <v>159</v>
       </c>
+      <c r="H68">
+        <v>10</v>
+      </c>
+      <c r="I68" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="s">
@@ -2772,6 +3147,12 @@
       <c r="G69" t="s">
         <v>159</v>
       </c>
+      <c r="H69">
+        <v>10</v>
+      </c>
+      <c r="I69" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" t="s">
@@ -2795,6 +3176,12 @@
       <c r="G70" t="s">
         <v>156</v>
       </c>
+      <c r="H70">
+        <v>10</v>
+      </c>
+      <c r="I70" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" t="s">
@@ -2818,6 +3205,12 @@
       <c r="G71" t="s">
         <v>156</v>
       </c>
+      <c r="H71">
+        <v>10</v>
+      </c>
+      <c r="I71" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" t="s">
@@ -2841,6 +3234,12 @@
       <c r="G72" t="s">
         <v>162</v>
       </c>
+      <c r="H72">
+        <v>10</v>
+      </c>
+      <c r="I72" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" t="s">
@@ -2922,6 +3321,12 @@
       <c r="G75" t="s">
         <v>163</v>
       </c>
+      <c r="H75">
+        <v>10</v>
+      </c>
+      <c r="I75" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" t="s">
@@ -2945,6 +3350,12 @@
       <c r="G76" t="s">
         <v>159</v>
       </c>
+      <c r="H76">
+        <v>9.5</v>
+      </c>
+      <c r="I76" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" t="s">
@@ -2957,7 +3368,7 @@
         <v>119</v>
       </c>
       <c r="D77" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E77" t="s">
         <v>13</v>
@@ -2967,6 +3378,12 @@
       </c>
       <c r="G77" t="s">
         <v>164</v>
+      </c>
+      <c r="H77">
+        <v>5.5</v>
+      </c>
+      <c r="I77" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -2980,7 +3397,7 @@
         <v>120</v>
       </c>
       <c r="D78" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E78" t="s">
         <v>13</v>
@@ -2990,6 +3407,12 @@
       </c>
       <c r="G78" t="s">
         <v>164</v>
+      </c>
+      <c r="H78">
+        <v>5</v>
+      </c>
+      <c r="I78" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -3061,7 +3484,7 @@
         <v>123</v>
       </c>
       <c r="D81" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E81" t="s">
         <v>43</v>
@@ -3071,6 +3494,12 @@
       </c>
       <c r="G81" t="s">
         <v>158</v>
+      </c>
+      <c r="H81">
+        <v>9.5</v>
+      </c>
+      <c r="I81" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -3084,7 +3513,7 @@
         <v>124</v>
       </c>
       <c r="D82" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E82" t="s">
         <v>43</v>
@@ -3094,6 +3523,12 @@
       </c>
       <c r="G82" t="s">
         <v>158</v>
+      </c>
+      <c r="H82">
+        <v>9.5</v>
+      </c>
+      <c r="I82" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -3118,6 +3553,12 @@
       <c r="G83" t="s">
         <v>164</v>
       </c>
+      <c r="H83">
+        <v>10</v>
+      </c>
+      <c r="I83" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" t="s">
@@ -3139,7 +3580,13 @@
         <v>20</v>
       </c>
       <c r="G84" t="s">
-        <v>31</v>
+        <v>156</v>
+      </c>
+      <c r="H84">
+        <v>10</v>
+      </c>
+      <c r="I84" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -3193,6 +3640,12 @@
       <c r="G86" t="s">
         <v>156</v>
       </c>
+      <c r="H86">
+        <v>10</v>
+      </c>
+      <c r="I86" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" t="s">
@@ -3216,6 +3669,12 @@
       <c r="G87" t="s">
         <v>162</v>
       </c>
+      <c r="H87">
+        <v>10</v>
+      </c>
+      <c r="I87" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" t="s">
@@ -3239,6 +3698,12 @@
       <c r="G88" t="s">
         <v>158</v>
       </c>
+      <c r="H88">
+        <v>8.5</v>
+      </c>
+      <c r="I88" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" t="s">
@@ -3262,6 +3727,12 @@
       <c r="G89" t="s">
         <v>162</v>
       </c>
+      <c r="H89">
+        <v>8.5</v>
+      </c>
+      <c r="I89" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" t="s">
@@ -3285,6 +3756,12 @@
       <c r="G90" t="s">
         <v>158</v>
       </c>
+      <c r="H90">
+        <v>9</v>
+      </c>
+      <c r="I90" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" t="s">
@@ -3308,6 +3785,12 @@
       <c r="G91" t="s">
         <v>158</v>
       </c>
+      <c r="H91">
+        <v>9</v>
+      </c>
+      <c r="I91" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" t="s">
@@ -3331,6 +3814,12 @@
       <c r="G92" t="s">
         <v>156</v>
       </c>
+      <c r="H92">
+        <v>9.5</v>
+      </c>
+      <c r="I92" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" t="s">
@@ -3354,6 +3843,12 @@
       <c r="G93" t="s">
         <v>156</v>
       </c>
+      <c r="H93">
+        <v>9</v>
+      </c>
+      <c r="I93" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" t="s">
@@ -3376,6 +3871,12 @@
       </c>
       <c r="G94" t="s">
         <v>156</v>
+      </c>
+      <c r="H94">
+        <v>9</v>
+      </c>
+      <c r="I94" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -4686,10 +5187,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4698,46 +5199,81 @@
     <col min="3" max="3" width="27.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:5">
       <c r="B2" s="1" t="s">
         <v>147</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="B3" t="s">
         <v>148</v>
       </c>
       <c r="C3" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="B4" t="s">
         <v>149</v>
       </c>
       <c r="C4" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" t="s">
+        <v>242</v>
+      </c>
+      <c r="E4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="B5" t="s">
         <v>150</v>
       </c>
       <c r="C5" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" t="s">
+        <v>243</v>
+      </c>
+      <c r="E5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="C6" t="s">
         <v>154</v>
+      </c>
+      <c r="D6" t="s">
+        <v>244</v>
+      </c>
+      <c r="E6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="E7" t="s">
+        <v>247</v>
       </c>
     </row>
   </sheetData>

--- a/Data/michigantrees_sequence.xlsx
+++ b/Data/michigantrees_sequence.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27629"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14780" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="40560" windowHeight="14780" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="251">
   <si>
     <t>Family</t>
   </si>
@@ -553,9 +553,6 @@
     <t>very_intolerant</t>
   </si>
   <si>
-    <t>viridus</t>
-  </si>
-  <si>
     <t>laevis</t>
   </si>
   <si>
@@ -736,9 +733,6 @@
     <t>americanum</t>
   </si>
   <si>
-    <t>uva_ursi</t>
-  </si>
-  <si>
     <t>very_tolerant</t>
   </si>
   <si>
@@ -764,6 +758,21 @@
   </si>
   <si>
     <t>very tolerant</t>
+  </si>
+  <si>
+    <t>flo_time</t>
+  </si>
+  <si>
+    <t>viridis</t>
+  </si>
+  <si>
+    <t>uva-ursi</t>
+  </si>
+  <si>
+    <t>Comptonia</t>
+  </si>
+  <si>
+    <t>peregrina</t>
   </si>
 </sst>
 </file>
@@ -1141,10 +1150,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I139"/>
+  <dimension ref="A1:J140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="G85" sqref="G85"/>
+    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="H141" sqref="H141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1154,12 +1163,12 @@
     <col min="3" max="3" width="35.5" customWidth="1"/>
     <col min="5" max="5" width="13.1640625" customWidth="1"/>
     <col min="6" max="6" width="15.5" customWidth="1"/>
-    <col min="7" max="7" width="19.5" customWidth="1"/>
-    <col min="8" max="8" width="13.5" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" customWidth="1"/>
+    <col min="7" max="8" width="19.5" customWidth="1"/>
+    <col min="9" max="9" width="13.5" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1182,13 +1191,16 @@
         <v>157</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1211,13 +1223,16 @@
         <v>156</v>
       </c>
       <c r="H2">
+        <v>5.5</v>
+      </c>
+      <c r="I2">
         <v>9.5</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1240,13 +1255,16 @@
         <v>156</v>
       </c>
       <c r="H3">
+        <v>5.5</v>
+      </c>
+      <c r="I3">
         <v>9.5</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1269,13 +1287,16 @@
         <v>158</v>
       </c>
       <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
         <v>9.5</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1298,13 +1319,16 @@
         <v>159</v>
       </c>
       <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
         <v>10</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1329,11 +1353,14 @@
       <c r="H6">
         <v>10.5</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6">
+        <v>10.5</v>
+      </c>
+      <c r="J6" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -1355,11 +1382,17 @@
       <c r="G7" t="s">
         <v>159</v>
       </c>
-      <c r="I7" t="s">
+      <c r="H7">
+        <v>4.5</v>
+      </c>
+      <c r="I7">
+        <v>12</v>
+      </c>
+      <c r="J7" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -1382,13 +1415,16 @@
         <v>158</v>
       </c>
       <c r="H8">
+        <v>4.5</v>
+      </c>
+      <c r="I8">
         <v>5.5</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -1410,11 +1446,14 @@
       <c r="G9" t="s">
         <v>158</v>
       </c>
-      <c r="I9" t="s">
+      <c r="H9">
+        <v>4.5</v>
+      </c>
+      <c r="J9" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -1437,13 +1476,16 @@
         <v>158</v>
       </c>
       <c r="H10">
+        <v>4.5</v>
+      </c>
+      <c r="I10">
         <v>5.5</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -1466,13 +1508,16 @@
         <v>158</v>
       </c>
       <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11">
         <v>5.5</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -1495,13 +1540,16 @@
         <v>158</v>
       </c>
       <c r="H12">
+        <v>3.5</v>
+      </c>
+      <c r="I12">
         <v>5.5</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -1524,13 +1572,16 @@
         <v>158</v>
       </c>
       <c r="H13">
+        <v>4.5</v>
+      </c>
+      <c r="I13">
         <v>5.5</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -1553,13 +1604,16 @@
         <v>158</v>
       </c>
       <c r="H14">
+        <v>3.5</v>
+      </c>
+      <c r="I14">
         <v>5.5</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -1582,13 +1636,16 @@
         <v>158</v>
       </c>
       <c r="H15">
+        <v>4.5</v>
+      </c>
+      <c r="I15">
         <v>5.5</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -1611,13 +1668,16 @@
         <v>158</v>
       </c>
       <c r="H16">
+        <v>4</v>
+      </c>
+      <c r="I16">
         <v>5</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -1640,13 +1700,16 @@
         <v>158</v>
       </c>
       <c r="H17">
+        <v>4.5</v>
+      </c>
+      <c r="I17">
         <v>5.5</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -1669,13 +1732,16 @@
         <v>158</v>
       </c>
       <c r="H18">
+        <v>4.5</v>
+      </c>
+      <c r="I18">
         <v>6</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -1698,13 +1764,16 @@
         <v>156</v>
       </c>
       <c r="H19">
+        <v>4.5</v>
+      </c>
+      <c r="I19">
         <v>6.5</v>
       </c>
-      <c r="I19" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -1727,13 +1796,16 @@
         <v>162</v>
       </c>
       <c r="H20">
+        <v>5.5</v>
+      </c>
+      <c r="I20">
         <v>9.5</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -1756,13 +1828,16 @@
         <v>162</v>
       </c>
       <c r="H21">
+        <v>6</v>
+      </c>
+      <c r="I21">
         <v>9.5</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -1785,13 +1860,16 @@
         <v>156</v>
       </c>
       <c r="H22">
+        <v>5.5</v>
+      </c>
+      <c r="I22">
         <v>10</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -1814,13 +1892,16 @@
         <v>156</v>
       </c>
       <c r="H23">
+        <v>4.5</v>
+      </c>
+      <c r="I23">
         <v>7</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -1843,13 +1924,16 @@
         <v>156</v>
       </c>
       <c r="H24">
+        <v>5</v>
+      </c>
+      <c r="I24">
         <v>10</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
         <v>48</v>
       </c>
@@ -1872,13 +1956,16 @@
         <v>156</v>
       </c>
       <c r="H25">
+        <v>5</v>
+      </c>
+      <c r="I25">
         <v>8.5</v>
       </c>
-      <c r="I25" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="J25" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
         <v>48</v>
       </c>
@@ -1901,13 +1988,16 @@
         <v>156</v>
       </c>
       <c r="H26">
+        <v>5.5</v>
+      </c>
+      <c r="I26">
         <v>10</v>
       </c>
-      <c r="I26" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="J26" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
         <v>48</v>
       </c>
@@ -1930,13 +2020,16 @@
         <v>156</v>
       </c>
       <c r="H27">
+        <v>4.5</v>
+      </c>
+      <c r="I27">
         <v>8.5</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
         <v>48</v>
       </c>
@@ -1959,13 +2052,16 @@
         <v>156</v>
       </c>
       <c r="H28">
+        <v>5.5</v>
+      </c>
+      <c r="I28">
         <v>7.5</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
         <v>48</v>
       </c>
@@ -1988,13 +2084,16 @@
         <v>156</v>
       </c>
       <c r="H29">
+        <v>5.5</v>
+      </c>
+      <c r="I29">
         <v>8.5</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:10">
       <c r="A30" t="s">
         <v>48</v>
       </c>
@@ -2017,13 +2116,16 @@
         <v>156</v>
       </c>
       <c r="H30">
+        <v>5.5</v>
+      </c>
+      <c r="I30">
         <v>7.5</v>
       </c>
-      <c r="I30" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="J30" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
         <v>48</v>
       </c>
@@ -2046,13 +2148,16 @@
         <v>156</v>
       </c>
       <c r="H31">
+        <v>4</v>
+      </c>
+      <c r="I31">
         <v>8.5</v>
       </c>
-      <c r="I31" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="J31" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -2075,13 +2180,16 @@
         <v>158</v>
       </c>
       <c r="H32">
+        <v>5</v>
+      </c>
+      <c r="I32">
         <v>8.5</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:10">
       <c r="A33" t="s">
         <v>63</v>
       </c>
@@ -2104,13 +2212,16 @@
         <v>156</v>
       </c>
       <c r="H33">
+        <v>3.5</v>
+      </c>
+      <c r="I33">
         <v>5</v>
       </c>
-      <c r="I33" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="J33" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" t="s">
         <v>63</v>
       </c>
@@ -2133,13 +2244,16 @@
         <v>156</v>
       </c>
       <c r="H34">
+        <v>4.5</v>
+      </c>
+      <c r="I34">
         <v>5</v>
       </c>
-      <c r="I34" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="J34" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" t="s">
         <v>63</v>
       </c>
@@ -2162,13 +2276,16 @@
         <v>156</v>
       </c>
       <c r="H35">
+        <v>3.5</v>
+      </c>
+      <c r="I35">
         <v>5</v>
       </c>
-      <c r="I35" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+      <c r="J35" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" t="s">
         <v>63</v>
       </c>
@@ -2191,13 +2308,16 @@
         <v>156</v>
       </c>
       <c r="H36">
+        <v>3.5</v>
+      </c>
+      <c r="I36">
         <v>4</v>
       </c>
-      <c r="I36" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+      <c r="J36" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" t="s">
         <v>67</v>
       </c>
@@ -2220,13 +2340,16 @@
         <v>159</v>
       </c>
       <c r="H37">
+        <v>5</v>
+      </c>
+      <c r="I37">
         <v>9.5</v>
       </c>
-      <c r="I37" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="J37" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" t="s">
         <v>67</v>
       </c>
@@ -2249,13 +2372,16 @@
         <v>159</v>
       </c>
       <c r="H38">
+        <v>5</v>
+      </c>
+      <c r="I38">
         <v>9</v>
       </c>
-      <c r="I38" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+      <c r="J38" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" t="s">
         <v>70</v>
       </c>
@@ -2278,13 +2404,16 @@
         <v>158</v>
       </c>
       <c r="H39">
+        <v>5.5</v>
+      </c>
+      <c r="I39">
         <v>9.5</v>
       </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:10">
       <c r="A40" t="s">
         <v>70</v>
       </c>
@@ -2307,13 +2436,16 @@
         <v>162</v>
       </c>
       <c r="H40">
+        <v>5.5</v>
+      </c>
+      <c r="I40">
         <v>6.5</v>
       </c>
-      <c r="I40" t="s">
+      <c r="J40" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:10">
       <c r="A41" t="s">
         <v>70</v>
       </c>
@@ -2336,13 +2468,16 @@
         <v>158</v>
       </c>
       <c r="H41">
+        <v>5.5</v>
+      </c>
+      <c r="I41">
         <v>7</v>
       </c>
-      <c r="I41" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+      <c r="J41" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" t="s">
         <v>74</v>
       </c>
@@ -2365,13 +2500,16 @@
         <v>159</v>
       </c>
       <c r="H42">
+        <v>6.5</v>
+      </c>
+      <c r="I42">
         <v>9.5</v>
       </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:10">
       <c r="A43" t="s">
         <v>74</v>
       </c>
@@ -2394,13 +2532,16 @@
         <v>159</v>
       </c>
       <c r="H43">
+        <v>4.5</v>
+      </c>
+      <c r="I43">
         <v>9.5</v>
       </c>
-      <c r="I43" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+      <c r="J43" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" t="s">
         <v>74</v>
       </c>
@@ -2423,13 +2564,16 @@
         <v>159</v>
       </c>
       <c r="H44">
+        <v>5.5</v>
+      </c>
+      <c r="I44">
         <v>9.5</v>
       </c>
-      <c r="I44" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+      <c r="J44" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" t="s">
         <v>74</v>
       </c>
@@ -2452,13 +2596,16 @@
         <v>159</v>
       </c>
       <c r="H45">
+        <v>5.5</v>
+      </c>
+      <c r="I45">
         <v>9.5</v>
       </c>
-      <c r="I45" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+      <c r="J45" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" t="s">
         <v>74</v>
       </c>
@@ -2481,13 +2628,16 @@
         <v>159</v>
       </c>
       <c r="H46">
+        <v>5.5</v>
+      </c>
+      <c r="I46">
         <v>9.5</v>
       </c>
-      <c r="I46" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+      <c r="J46" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" t="s">
         <v>74</v>
       </c>
@@ -2510,13 +2660,16 @@
         <v>159</v>
       </c>
       <c r="H47">
+        <v>5.5</v>
+      </c>
+      <c r="I47">
         <v>9.5</v>
       </c>
-      <c r="I47" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+      <c r="J47" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" t="s">
         <v>74</v>
       </c>
@@ -2539,13 +2692,16 @@
         <v>159</v>
       </c>
       <c r="H48">
+        <v>5</v>
+      </c>
+      <c r="I48">
         <v>19</v>
       </c>
-      <c r="I48" t="s">
+      <c r="J48" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:10">
       <c r="A49" t="s">
         <v>74</v>
       </c>
@@ -2568,13 +2724,16 @@
         <v>159</v>
       </c>
       <c r="H49">
+        <v>5.5</v>
+      </c>
+      <c r="I49">
         <v>19</v>
       </c>
-      <c r="I49" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+      <c r="J49" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" t="s">
         <v>74</v>
       </c>
@@ -2597,13 +2756,16 @@
         <v>159</v>
       </c>
       <c r="H50">
+        <v>5.5</v>
+      </c>
+      <c r="I50">
         <v>19</v>
       </c>
-      <c r="I50" t="s">
+      <c r="J50" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:10">
       <c r="A51" t="s">
         <v>74</v>
       </c>
@@ -2626,13 +2788,16 @@
         <v>159</v>
       </c>
       <c r="H51">
+        <v>5</v>
+      </c>
+      <c r="I51">
         <v>19</v>
       </c>
-      <c r="I51" t="s">
+      <c r="J51" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:10">
       <c r="A52" t="s">
         <v>74</v>
       </c>
@@ -2655,13 +2820,16 @@
         <v>159</v>
       </c>
       <c r="H52">
+        <v>5</v>
+      </c>
+      <c r="I52">
         <v>19</v>
       </c>
-      <c r="I52" t="s">
+      <c r="J52" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:10">
       <c r="A53" t="s">
         <v>74</v>
       </c>
@@ -2684,13 +2852,16 @@
         <v>159</v>
       </c>
       <c r="H53">
+        <v>5</v>
+      </c>
+      <c r="I53">
         <v>19</v>
       </c>
-      <c r="I53" t="s">
+      <c r="J53" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:10">
       <c r="A54" t="s">
         <v>74</v>
       </c>
@@ -2713,13 +2884,16 @@
         <v>159</v>
       </c>
       <c r="H54">
+        <v>5</v>
+      </c>
+      <c r="I54">
         <v>19</v>
       </c>
-      <c r="I54" t="s">
+      <c r="J54" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:10">
       <c r="A55" t="s">
         <v>74</v>
       </c>
@@ -2742,13 +2916,16 @@
         <v>159</v>
       </c>
       <c r="H55">
+        <v>5</v>
+      </c>
+      <c r="I55">
         <v>19</v>
       </c>
-      <c r="I55" t="s">
+      <c r="J55" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:10">
       <c r="A56" t="s">
         <v>90</v>
       </c>
@@ -2771,13 +2948,16 @@
         <v>159</v>
       </c>
       <c r="H56">
+        <v>4</v>
+      </c>
+      <c r="I56">
         <v>9</v>
       </c>
-      <c r="I56" t="s">
+      <c r="J56" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:10">
       <c r="A57" t="s">
         <v>90</v>
       </c>
@@ -2800,13 +2980,16 @@
         <v>159</v>
       </c>
       <c r="H57">
+        <v>4</v>
+      </c>
+      <c r="I57">
         <v>9.5</v>
       </c>
-      <c r="I57" t="s">
+      <c r="J57" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:10">
       <c r="A58" t="s">
         <v>90</v>
       </c>
@@ -2829,13 +3012,16 @@
         <v>159</v>
       </c>
       <c r="H58">
+        <v>4.5</v>
+      </c>
+      <c r="I58">
         <v>8</v>
       </c>
-      <c r="I58" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+      <c r="J58" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" t="s">
         <v>90</v>
       </c>
@@ -2858,13 +3044,16 @@
         <v>159</v>
       </c>
       <c r="H59">
+        <v>4.5</v>
+      </c>
+      <c r="I59">
         <v>8.5</v>
       </c>
-      <c r="I59" t="s">
+      <c r="J59" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:10">
       <c r="A60" t="s">
         <v>90</v>
       </c>
@@ -2887,13 +3076,16 @@
         <v>159</v>
       </c>
       <c r="H60">
+        <v>4</v>
+      </c>
+      <c r="I60">
         <v>8.5</v>
       </c>
-      <c r="I60" t="s">
+      <c r="J60" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:10">
       <c r="A61" t="s">
         <v>90</v>
       </c>
@@ -2916,13 +3108,16 @@
         <v>159</v>
       </c>
       <c r="H61">
+        <v>4</v>
+      </c>
+      <c r="I61">
         <v>5.5</v>
       </c>
-      <c r="I61" t="s">
+      <c r="J61" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:10">
       <c r="A62" t="s">
         <v>90</v>
       </c>
@@ -2945,13 +3140,16 @@
         <v>159</v>
       </c>
       <c r="H62">
+        <v>4.5</v>
+      </c>
+      <c r="I62">
         <v>6</v>
       </c>
-      <c r="I62" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+      <c r="J62" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" t="s">
         <v>90</v>
       </c>
@@ -2974,13 +3172,16 @@
         <v>159</v>
       </c>
       <c r="H63">
+        <v>4.5</v>
+      </c>
+      <c r="I63">
         <v>9</v>
       </c>
-      <c r="I63" t="s">
+      <c r="J63" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:10">
       <c r="A64" t="s">
         <v>98</v>
       </c>
@@ -3003,13 +3204,16 @@
         <v>159</v>
       </c>
       <c r="H64">
+        <v>5.5</v>
+      </c>
+      <c r="I64">
         <v>10</v>
       </c>
-      <c r="I64" t="s">
+      <c r="J64" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:10">
       <c r="A65" t="s">
         <v>98</v>
       </c>
@@ -3032,13 +3236,16 @@
         <v>159</v>
       </c>
       <c r="H65">
+        <v>5.5</v>
+      </c>
+      <c r="I65">
         <v>10</v>
       </c>
-      <c r="I65" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+      <c r="J65" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" t="s">
         <v>98</v>
       </c>
@@ -3061,13 +3268,16 @@
         <v>159</v>
       </c>
       <c r="H66">
+        <v>5.5</v>
+      </c>
+      <c r="I66">
         <v>10</v>
       </c>
-      <c r="I66" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+      <c r="J66" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" t="s">
         <v>98</v>
       </c>
@@ -3090,13 +3300,16 @@
         <v>159</v>
       </c>
       <c r="H67">
+        <v>5.5</v>
+      </c>
+      <c r="I67">
         <v>10</v>
       </c>
-      <c r="I67" t="s">
+      <c r="J67" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:10">
       <c r="A68" t="s">
         <v>98</v>
       </c>
@@ -3119,13 +3332,16 @@
         <v>159</v>
       </c>
       <c r="H68">
+        <v>5</v>
+      </c>
+      <c r="I68">
         <v>10</v>
       </c>
-      <c r="I68" t="s">
+      <c r="J68" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:10">
       <c r="A69" t="s">
         <v>98</v>
       </c>
@@ -3148,13 +3364,16 @@
         <v>159</v>
       </c>
       <c r="H69">
+        <v>5</v>
+      </c>
+      <c r="I69">
         <v>10</v>
       </c>
-      <c r="I69" t="s">
+      <c r="J69" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:10">
       <c r="A70" t="s">
         <v>106</v>
       </c>
@@ -3177,13 +3396,16 @@
         <v>156</v>
       </c>
       <c r="H70">
+        <v>6.5</v>
+      </c>
+      <c r="I70">
         <v>10</v>
       </c>
-      <c r="I70" t="s">
+      <c r="J70" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:10">
       <c r="A71" t="s">
         <v>106</v>
       </c>
@@ -3206,13 +3428,16 @@
         <v>156</v>
       </c>
       <c r="H71">
+        <v>6.5</v>
+      </c>
+      <c r="I71">
         <v>10</v>
       </c>
-      <c r="I71" t="s">
+      <c r="J71" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:10">
       <c r="A72" t="s">
         <v>109</v>
       </c>
@@ -3235,13 +3460,16 @@
         <v>162</v>
       </c>
       <c r="H72">
+        <v>6</v>
+      </c>
+      <c r="I72">
         <v>10</v>
       </c>
-      <c r="I72" t="s">
+      <c r="J72" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:10">
       <c r="A73" t="s">
         <v>112</v>
       </c>
@@ -3264,13 +3492,16 @@
         <v>162</v>
       </c>
       <c r="H73">
+        <v>6</v>
+      </c>
+      <c r="I73">
         <v>9.5</v>
       </c>
-      <c r="I73" t="s">
+      <c r="J73" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:10">
       <c r="A74" t="s">
         <v>112</v>
       </c>
@@ -3293,13 +3524,16 @@
         <v>162</v>
       </c>
       <c r="H74">
+        <v>6</v>
+      </c>
+      <c r="I74">
         <v>9.5</v>
       </c>
-      <c r="I74" t="s">
+      <c r="J74" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:10">
       <c r="A75" t="s">
         <v>115</v>
       </c>
@@ -3322,13 +3556,16 @@
         <v>163</v>
       </c>
       <c r="H75">
+        <v>4.5</v>
+      </c>
+      <c r="I75">
         <v>10</v>
       </c>
-      <c r="I75" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+      <c r="J75" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" t="s">
         <v>115</v>
       </c>
@@ -3351,13 +3588,16 @@
         <v>159</v>
       </c>
       <c r="H76">
+        <v>4.5</v>
+      </c>
+      <c r="I76">
         <v>9.5</v>
       </c>
-      <c r="I76" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+      <c r="J76" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" t="s">
         <v>115</v>
       </c>
@@ -3380,13 +3620,16 @@
         <v>164</v>
       </c>
       <c r="H77">
+        <v>4</v>
+      </c>
+      <c r="I77">
         <v>5.5</v>
       </c>
-      <c r="I77" t="s">
+      <c r="J77" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:10">
       <c r="A78" t="s">
         <v>115</v>
       </c>
@@ -3409,13 +3652,16 @@
         <v>164</v>
       </c>
       <c r="H78">
+        <v>3.5</v>
+      </c>
+      <c r="I78">
         <v>5</v>
       </c>
-      <c r="I78" t="s">
+      <c r="J78" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:10">
       <c r="A79" t="s">
         <v>115</v>
       </c>
@@ -3438,13 +3684,16 @@
         <v>164</v>
       </c>
       <c r="H79">
+        <v>6</v>
+      </c>
+      <c r="I79">
         <v>7.5</v>
       </c>
-      <c r="I79" t="s">
+      <c r="J79" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:10">
       <c r="A80" t="s">
         <v>115</v>
       </c>
@@ -3467,13 +3716,16 @@
         <v>158</v>
       </c>
       <c r="H80">
+        <v>5.5</v>
+      </c>
+      <c r="I80">
         <v>7.5</v>
       </c>
-      <c r="I80" t="s">
+      <c r="J80" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:10">
       <c r="A81" t="s">
         <v>115</v>
       </c>
@@ -3496,13 +3748,16 @@
         <v>158</v>
       </c>
       <c r="H81">
+        <v>5.5</v>
+      </c>
+      <c r="I81">
         <v>9.5</v>
       </c>
-      <c r="I81" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+      <c r="J81" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" t="s">
         <v>115</v>
       </c>
@@ -3525,13 +3780,16 @@
         <v>158</v>
       </c>
       <c r="H82">
+        <v>4.5</v>
+      </c>
+      <c r="I82">
         <v>9.5</v>
       </c>
-      <c r="I82" t="s">
+      <c r="J82" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:10">
       <c r="A83" t="s">
         <v>115</v>
       </c>
@@ -3554,13 +3812,16 @@
         <v>164</v>
       </c>
       <c r="H83">
+        <v>4.5</v>
+      </c>
+      <c r="I83">
         <v>10</v>
       </c>
-      <c r="I83" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+      <c r="J83" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" t="s">
         <v>115</v>
       </c>
@@ -3583,13 +3844,16 @@
         <v>156</v>
       </c>
       <c r="H84">
+        <v>6</v>
+      </c>
+      <c r="I84">
         <v>10</v>
       </c>
-      <c r="I84" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+      <c r="J84" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" t="s">
         <v>127</v>
       </c>
@@ -3612,13 +3876,16 @@
         <v>156</v>
       </c>
       <c r="H85">
+        <v>5.5</v>
+      </c>
+      <c r="I85">
         <v>10</v>
       </c>
-      <c r="I85" t="s">
+      <c r="J85" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:10">
       <c r="A86" t="s">
         <v>127</v>
       </c>
@@ -3641,13 +3908,16 @@
         <v>156</v>
       </c>
       <c r="H86">
+        <v>5.5</v>
+      </c>
+      <c r="I86">
         <v>10</v>
       </c>
-      <c r="I86" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+      <c r="J86" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" t="s">
         <v>131</v>
       </c>
@@ -3670,13 +3940,16 @@
         <v>162</v>
       </c>
       <c r="H87">
+        <v>5.5</v>
+      </c>
+      <c r="I87">
         <v>10</v>
       </c>
-      <c r="I87" t="s">
+      <c r="J87" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:10">
       <c r="A88" t="s">
         <v>134</v>
       </c>
@@ -3699,13 +3972,16 @@
         <v>158</v>
       </c>
       <c r="H88">
+        <v>5</v>
+      </c>
+      <c r="I88">
         <v>8.5</v>
       </c>
-      <c r="I88" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+      <c r="J88" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" t="s">
         <v>134</v>
       </c>
@@ -3728,13 +4004,16 @@
         <v>162</v>
       </c>
       <c r="H89">
+        <v>5</v>
+      </c>
+      <c r="I89">
         <v>8.5</v>
       </c>
-      <c r="I89" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+      <c r="J89" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" t="s">
         <v>134</v>
       </c>
@@ -3757,13 +4036,16 @@
         <v>158</v>
       </c>
       <c r="H90">
+        <v>5</v>
+      </c>
+      <c r="I90">
         <v>9</v>
       </c>
-      <c r="I90" t="s">
+      <c r="J90" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:10">
       <c r="A91" t="s">
         <v>134</v>
       </c>
@@ -3786,13 +4068,16 @@
         <v>158</v>
       </c>
       <c r="H91">
+        <v>5</v>
+      </c>
+      <c r="I91">
         <v>9</v>
       </c>
-      <c r="I91" t="s">
+      <c r="J91" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:10">
       <c r="A92" t="s">
         <v>134</v>
       </c>
@@ -3815,13 +4100,16 @@
         <v>156</v>
       </c>
       <c r="H92">
+        <v>4</v>
+      </c>
+      <c r="I92">
         <v>9.5</v>
       </c>
-      <c r="I92" t="s">
+      <c r="J92" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:10">
       <c r="A93" t="s">
         <v>139</v>
       </c>
@@ -3844,13 +4132,16 @@
         <v>156</v>
       </c>
       <c r="H93">
+        <v>6.5</v>
+      </c>
+      <c r="I93">
         <v>9</v>
       </c>
-      <c r="I93" t="s">
+      <c r="J93" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:10">
       <c r="A94" t="s">
         <v>139</v>
       </c>
@@ -3873,13 +4164,16 @@
         <v>156</v>
       </c>
       <c r="H94">
+        <v>6.5</v>
+      </c>
+      <c r="I94">
         <v>9</v>
       </c>
-      <c r="I94" t="s">
+      <c r="J94" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:10">
       <c r="A95" t="s">
         <v>143</v>
       </c>
@@ -3902,13 +4196,16 @@
         <v>156</v>
       </c>
       <c r="H95">
+        <v>5.5</v>
+      </c>
+      <c r="I95">
         <v>9.5</v>
       </c>
-      <c r="I95" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+      <c r="J95" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" t="s">
         <v>90</v>
       </c>
@@ -3916,7 +4213,7 @@
         <v>170</v>
       </c>
       <c r="C96" t="s">
-        <v>177</v>
+        <v>247</v>
       </c>
       <c r="D96" t="s">
         <v>20</v>
@@ -3931,13 +4228,16 @@
         <v>159</v>
       </c>
       <c r="H96">
+        <v>5.5</v>
+      </c>
+      <c r="I96">
         <v>9.5</v>
       </c>
-      <c r="I96" t="s">
+      <c r="J96" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:10">
       <c r="A97" t="s">
         <v>48</v>
       </c>
@@ -3945,7 +4245,7 @@
         <v>169</v>
       </c>
       <c r="C97" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D97" t="s">
         <v>11</v>
@@ -3960,13 +4260,16 @@
         <v>156</v>
       </c>
       <c r="H97">
+        <v>4</v>
+      </c>
+      <c r="I97">
         <v>7</v>
       </c>
-      <c r="I97" t="s">
+      <c r="J97" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:10">
       <c r="A98" t="s">
         <v>48</v>
       </c>
@@ -3974,7 +4277,7 @@
         <v>169</v>
       </c>
       <c r="C98" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D98" t="s">
         <v>11</v>
@@ -3989,21 +4292,24 @@
         <v>156</v>
       </c>
       <c r="H98">
+        <v>4.5</v>
+      </c>
+      <c r="I98">
         <v>7</v>
       </c>
-      <c r="I98" t="s">
+      <c r="J98" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:10">
       <c r="A99" t="s">
+        <v>179</v>
+      </c>
+      <c r="B99" t="s">
         <v>180</v>
       </c>
-      <c r="B99" t="s">
-        <v>181</v>
-      </c>
       <c r="C99" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="D99" t="s">
         <v>11</v>
@@ -4018,79 +4324,88 @@
         <v>156</v>
       </c>
       <c r="H99">
+        <v>5.5</v>
+      </c>
+      <c r="I99">
         <v>8</v>
       </c>
-      <c r="I99" t="s">
+      <c r="J99" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:10">
       <c r="A100" t="s">
+        <v>201</v>
+      </c>
+      <c r="B100" t="s">
+        <v>249</v>
+      </c>
+      <c r="C100" t="s">
+        <v>250</v>
+      </c>
+      <c r="D100" t="s">
+        <v>20</v>
+      </c>
+      <c r="E100" t="s">
+        <v>13</v>
+      </c>
+      <c r="F100">
+        <v>1</v>
+      </c>
+      <c r="G100" t="s">
+        <v>159</v>
+      </c>
+      <c r="H100">
+        <v>4.5</v>
+      </c>
+      <c r="I100">
+        <v>7.5</v>
+      </c>
+      <c r="J100" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
+      <c r="A101" t="s">
         <v>127</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B101" t="s">
         <v>128</v>
       </c>
-      <c r="C100" t="s">
-        <v>182</v>
-      </c>
-      <c r="D100" t="s">
-        <v>11</v>
-      </c>
-      <c r="E100" t="s">
+      <c r="C101" t="s">
+        <v>181</v>
+      </c>
+      <c r="D101" t="s">
+        <v>11</v>
+      </c>
+      <c r="E101" t="s">
         <v>12</v>
       </c>
-      <c r="F100">
+      <c r="F101">
         <v>4</v>
       </c>
-      <c r="G100" t="s">
+      <c r="G101" t="s">
         <v>156</v>
       </c>
-      <c r="H100">
+      <c r="H101">
+        <v>6</v>
+      </c>
+      <c r="I101">
         <v>8.5</v>
       </c>
-      <c r="I100" t="s">
+      <c r="J101" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
-      <c r="A101" t="s">
-        <v>90</v>
-      </c>
-      <c r="B101" t="s">
-        <v>183</v>
-      </c>
-      <c r="C101" t="s">
-        <v>54</v>
-      </c>
-      <c r="D101" t="s">
-        <v>20</v>
-      </c>
-      <c r="E101" t="s">
-        <v>13</v>
-      </c>
-      <c r="F101">
-        <v>3</v>
-      </c>
-      <c r="G101" t="s">
-        <v>159</v>
-      </c>
-      <c r="H101">
-        <v>8.5</v>
-      </c>
-      <c r="I101" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:10">
       <c r="A102" t="s">
         <v>90</v>
       </c>
       <c r="B102" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C102" t="s">
-        <v>184</v>
+        <v>54</v>
       </c>
       <c r="D102" t="s">
         <v>20</v>
@@ -4099,56 +4414,62 @@
         <v>13</v>
       </c>
       <c r="F102">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G102" t="s">
         <v>159</v>
       </c>
       <c r="H102">
+        <v>3.5</v>
+      </c>
+      <c r="I102">
         <v>8.5</v>
       </c>
-      <c r="I102" t="s">
+      <c r="J102" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:10">
       <c r="A103" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="B103" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C103" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D103" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E103" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F103">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G103" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="H103">
-        <v>9</v>
-      </c>
-      <c r="I103" t="s">
+        <v>4.5</v>
+      </c>
+      <c r="I103">
+        <v>8.5</v>
+      </c>
+      <c r="J103" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:10">
       <c r="A104" t="s">
         <v>48</v>
       </c>
       <c r="B104" t="s">
+        <v>184</v>
+      </c>
+      <c r="C104" t="s">
         <v>185</v>
-      </c>
-      <c r="C104" t="s">
-        <v>187</v>
       </c>
       <c r="D104" t="s">
         <v>11</v>
@@ -4157,27 +4478,30 @@
         <v>16</v>
       </c>
       <c r="F104">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G104" t="s">
         <v>156</v>
       </c>
       <c r="H104">
-        <v>9.5</v>
-      </c>
-      <c r="I104" t="s">
+        <v>5.5</v>
+      </c>
+      <c r="I104">
+        <v>9</v>
+      </c>
+      <c r="J104" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:10">
       <c r="A105" t="s">
         <v>48</v>
       </c>
       <c r="B105" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C105" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D105" t="s">
         <v>11</v>
@@ -4186,27 +4510,30 @@
         <v>16</v>
       </c>
       <c r="F105">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G105" t="s">
         <v>156</v>
       </c>
       <c r="H105">
+        <v>5.5</v>
+      </c>
+      <c r="I105">
         <v>9.5</v>
       </c>
-      <c r="I105" t="s">
+      <c r="J105" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:10">
       <c r="A106" t="s">
         <v>48</v>
       </c>
       <c r="B106" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C106" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D106" t="s">
         <v>11</v>
@@ -4215,27 +4542,30 @@
         <v>16</v>
       </c>
       <c r="F106">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G106" t="s">
         <v>156</v>
       </c>
       <c r="H106">
-        <v>8.5</v>
-      </c>
-      <c r="I106" t="s">
+        <v>5.5</v>
+      </c>
+      <c r="I106">
+        <v>9.5</v>
+      </c>
+      <c r="J106" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:10">
       <c r="A107" t="s">
         <v>48</v>
       </c>
       <c r="B107" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C107" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D107" t="s">
         <v>11</v>
@@ -4244,149 +4574,164 @@
         <v>16</v>
       </c>
       <c r="F107">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G107" t="s">
         <v>156</v>
       </c>
       <c r="H107">
-        <v>9.5</v>
-      </c>
-      <c r="I107" t="s">
+        <v>5.5</v>
+      </c>
+      <c r="I107">
+        <v>8.5</v>
+      </c>
+      <c r="J107" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:10">
       <c r="A108" t="s">
-        <v>191</v>
+        <v>48</v>
       </c>
       <c r="B108" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C108" t="s">
-        <v>88</v>
+        <v>189</v>
       </c>
       <c r="D108" t="s">
         <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F108">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G108" t="s">
         <v>156</v>
       </c>
       <c r="H108">
-        <v>6</v>
-      </c>
-      <c r="I108" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>5.5</v>
+      </c>
+      <c r="I108">
+        <v>9.5</v>
+      </c>
+      <c r="J108" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" t="s">
-        <v>60</v>
+        <v>190</v>
       </c>
       <c r="B109" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C109" t="s">
-        <v>194</v>
+        <v>88</v>
       </c>
       <c r="D109" t="s">
         <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F109">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G109" t="s">
         <v>156</v>
       </c>
       <c r="H109">
+        <v>4.5</v>
+      </c>
+      <c r="I109">
+        <v>6</v>
+      </c>
+      <c r="J109" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
+      <c r="A110" t="s">
+        <v>60</v>
+      </c>
+      <c r="B110" t="s">
+        <v>192</v>
+      </c>
+      <c r="C110" t="s">
+        <v>193</v>
+      </c>
+      <c r="D110" t="s">
+        <v>11</v>
+      </c>
+      <c r="E110" t="s">
+        <v>12</v>
+      </c>
+      <c r="F110">
+        <v>6</v>
+      </c>
+      <c r="G110" t="s">
+        <v>156</v>
+      </c>
+      <c r="H110">
+        <v>6</v>
+      </c>
+      <c r="I110">
         <v>7.5</v>
       </c>
-      <c r="I109" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
-      <c r="A110" t="s">
+      <c r="J110" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
+      <c r="A111" t="s">
+        <v>194</v>
+      </c>
+      <c r="B111" t="s">
         <v>195</v>
       </c>
-      <c r="B110" t="s">
+      <c r="C111" t="s">
         <v>196</v>
       </c>
-      <c r="C110" t="s">
-        <v>197</v>
-      </c>
-      <c r="D110" t="s">
-        <v>11</v>
-      </c>
-      <c r="E110" t="s">
+      <c r="D111" t="s">
+        <v>11</v>
+      </c>
+      <c r="E111" t="s">
         <v>16</v>
       </c>
-      <c r="F110">
+      <c r="F111">
         <v>4</v>
-      </c>
-      <c r="G110" t="s">
-        <v>158</v>
-      </c>
-      <c r="H110">
-        <v>7.5</v>
-      </c>
-      <c r="I110" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
-      <c r="A111" t="s">
-        <v>195</v>
-      </c>
-      <c r="B111" t="s">
-        <v>196</v>
-      </c>
-      <c r="C111" t="s">
-        <v>198</v>
-      </c>
-      <c r="D111" t="s">
-        <v>11</v>
-      </c>
-      <c r="E111" t="s">
-        <v>12</v>
-      </c>
-      <c r="F111">
-        <v>5</v>
       </c>
       <c r="G111" t="s">
         <v>158</v>
       </c>
       <c r="H111">
-        <v>9.5</v>
-      </c>
-      <c r="I111" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>5</v>
+      </c>
+      <c r="I111">
+        <v>7.5</v>
+      </c>
+      <c r="J111" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" t="s">
-        <v>14</v>
+        <v>194</v>
       </c>
       <c r="B112" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C112" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D112" t="s">
         <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F112">
         <v>5</v>
@@ -4395,71 +4740,80 @@
         <v>158</v>
       </c>
       <c r="H112">
-        <v>8</v>
-      </c>
-      <c r="I112" t="s">
+        <v>6</v>
+      </c>
+      <c r="I112">
+        <v>9.5</v>
+      </c>
+      <c r="J112" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
+      <c r="A113" t="s">
+        <v>14</v>
+      </c>
+      <c r="B113" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="113" spans="1:9">
-      <c r="A113" t="s">
-        <v>202</v>
-      </c>
-      <c r="B113" t="s">
-        <v>203</v>
-      </c>
       <c r="C113" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D113" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
         <v>13</v>
       </c>
       <c r="F113">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="G113" t="s">
         <v>158</v>
       </c>
       <c r="H113">
-        <v>7.5</v>
-      </c>
-      <c r="I113" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>4</v>
+      </c>
+      <c r="I113">
+        <v>8</v>
+      </c>
+      <c r="J113" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" t="s">
-        <v>48</v>
+        <v>201</v>
       </c>
       <c r="B114" t="s">
-        <v>55</v>
+        <v>202</v>
       </c>
       <c r="C114" t="s">
-        <v>54</v>
+        <v>203</v>
       </c>
       <c r="D114" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E114" t="s">
         <v>13</v>
       </c>
       <c r="F114">
-        <v>10</v>
+        <v>1.5</v>
       </c>
       <c r="G114" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H114">
-        <v>8.5</v>
-      </c>
-      <c r="I114" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>4.5</v>
+      </c>
+      <c r="I114">
+        <v>7.5</v>
+      </c>
+      <c r="J114" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" t="s">
         <v>48</v>
       </c>
@@ -4467,13 +4821,13 @@
         <v>55</v>
       </c>
       <c r="C115" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="D115" t="s">
         <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="F115">
         <v>10</v>
@@ -4482,50 +4836,56 @@
         <v>156</v>
       </c>
       <c r="H115">
+        <v>4.5</v>
+      </c>
+      <c r="I115">
+        <v>8.5</v>
+      </c>
+      <c r="J115" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
+      <c r="A116" t="s">
+        <v>48</v>
+      </c>
+      <c r="B116" t="s">
+        <v>55</v>
+      </c>
+      <c r="C116" t="s">
+        <v>23</v>
+      </c>
+      <c r="D116" t="s">
+        <v>11</v>
+      </c>
+      <c r="E116" t="s">
+        <v>58</v>
+      </c>
+      <c r="F116">
+        <v>10</v>
+      </c>
+      <c r="G116" t="s">
+        <v>156</v>
+      </c>
+      <c r="H116">
+        <v>5.5</v>
+      </c>
+      <c r="I116">
         <v>7.5</v>
       </c>
-      <c r="I115" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
-      <c r="A116" t="s">
+      <c r="J116" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
+      <c r="A117" t="s">
+        <v>204</v>
+      </c>
+      <c r="B117" t="s">
         <v>205</v>
       </c>
-      <c r="B116" t="s">
+      <c r="C117" t="s">
         <v>206</v>
-      </c>
-      <c r="C116" t="s">
-        <v>207</v>
-      </c>
-      <c r="D116" t="s">
-        <v>11</v>
-      </c>
-      <c r="E116" t="s">
-        <v>16</v>
-      </c>
-      <c r="F116">
-        <v>5</v>
-      </c>
-      <c r="G116" t="s">
-        <v>163</v>
-      </c>
-      <c r="H116">
-        <v>9.5</v>
-      </c>
-      <c r="I116" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
-      <c r="A117" t="s">
-        <v>60</v>
-      </c>
-      <c r="B117" t="s">
-        <v>61</v>
-      </c>
-      <c r="C117" t="s">
-        <v>208</v>
       </c>
       <c r="D117" t="s">
         <v>11</v>
@@ -4534,33 +4894,36 @@
         <v>16</v>
       </c>
       <c r="F117">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G117" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="H117">
-        <v>8.5</v>
-      </c>
-      <c r="I117" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="I117">
+        <v>9.5</v>
+      </c>
+      <c r="J117" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="B118" t="s">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c r="C118" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D118" t="s">
         <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F118">
         <v>2</v>
@@ -4569,71 +4932,80 @@
         <v>158</v>
       </c>
       <c r="H118">
+        <v>5.5</v>
+      </c>
+      <c r="I118">
+        <v>8.5</v>
+      </c>
+      <c r="J118" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
+      <c r="A119" t="s">
+        <v>112</v>
+      </c>
+      <c r="B119" t="s">
+        <v>113</v>
+      </c>
+      <c r="C119" t="s">
+        <v>208</v>
+      </c>
+      <c r="D119" t="s">
+        <v>11</v>
+      </c>
+      <c r="E119" t="s">
+        <v>13</v>
+      </c>
+      <c r="F119">
+        <v>2</v>
+      </c>
+      <c r="G119" t="s">
+        <v>158</v>
+      </c>
+      <c r="H119">
+        <v>4.5</v>
+      </c>
+      <c r="I119">
         <v>7.5</v>
       </c>
-      <c r="I118" t="s">
+      <c r="J119" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="119" spans="1:9">
-      <c r="A119" t="s">
+    <row r="120" spans="1:10">
+      <c r="A120" t="s">
+        <v>209</v>
+      </c>
+      <c r="B120" t="s">
         <v>210</v>
       </c>
-      <c r="B119" t="s">
+      <c r="C120" t="s">
         <v>211</v>
       </c>
-      <c r="C119" t="s">
-        <v>212</v>
-      </c>
-      <c r="D119" t="s">
-        <v>11</v>
-      </c>
-      <c r="E119" t="s">
+      <c r="D120" t="s">
+        <v>11</v>
+      </c>
+      <c r="E120" t="s">
         <v>16</v>
       </c>
-      <c r="F119">
+      <c r="F120">
         <v>1</v>
       </c>
-      <c r="G119" t="s">
+      <c r="G120" t="s">
         <v>156</v>
       </c>
-      <c r="H119">
+      <c r="H120">
+        <v>5</v>
+      </c>
+      <c r="I120">
         <v>7.5</v>
       </c>
-      <c r="I119" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
-      <c r="A120" t="s">
-        <v>27</v>
-      </c>
-      <c r="B120" t="s">
-        <v>37</v>
-      </c>
-      <c r="C120" t="s">
-        <v>213</v>
-      </c>
-      <c r="D120" t="s">
-        <v>38</v>
-      </c>
-      <c r="E120" t="s">
-        <v>43</v>
-      </c>
-      <c r="F120">
-        <v>4</v>
-      </c>
-      <c r="G120" t="s">
-        <v>158</v>
-      </c>
-      <c r="H120">
-        <v>5.5</v>
-      </c>
-      <c r="I120" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+      <c r="J120" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" t="s">
         <v>27</v>
       </c>
@@ -4641,7 +5013,7 @@
         <v>37</v>
       </c>
       <c r="C121" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D121" t="s">
         <v>38</v>
@@ -4650,19 +5022,22 @@
         <v>43</v>
       </c>
       <c r="F121">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="G121" t="s">
         <v>158</v>
       </c>
       <c r="H121">
-        <v>6</v>
-      </c>
-      <c r="I121" t="s">
+        <v>4.5</v>
+      </c>
+      <c r="I121">
+        <v>5.5</v>
+      </c>
+      <c r="J121" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="122" spans="1:9">
+    <row r="122" spans="1:10">
       <c r="A122" t="s">
         <v>27</v>
       </c>
@@ -4670,7 +5045,7 @@
         <v>37</v>
       </c>
       <c r="C122" t="s">
-        <v>108</v>
+        <v>213</v>
       </c>
       <c r="D122" t="s">
         <v>38</v>
@@ -4679,19 +5054,22 @@
         <v>43</v>
       </c>
       <c r="F122">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="G122" t="s">
         <v>158</v>
       </c>
       <c r="H122">
-        <v>6.5</v>
-      </c>
-      <c r="I122" t="s">
+        <v>5</v>
+      </c>
+      <c r="I122">
+        <v>6</v>
+      </c>
+      <c r="J122" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="123" spans="1:9">
+    <row r="123" spans="1:10">
       <c r="A123" t="s">
         <v>27</v>
       </c>
@@ -4699,13 +5077,13 @@
         <v>37</v>
       </c>
       <c r="C123" t="s">
-        <v>215</v>
+        <v>108</v>
       </c>
       <c r="D123" t="s">
         <v>38</v>
       </c>
       <c r="E123" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="F123">
         <v>3</v>
@@ -4716,11 +5094,14 @@
       <c r="H123">
         <v>5.5</v>
       </c>
-      <c r="I123" t="s">
+      <c r="I123">
+        <v>6.5</v>
+      </c>
+      <c r="J123" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="124" spans="1:9">
+    <row r="124" spans="1:10">
       <c r="A124" t="s">
         <v>27</v>
       </c>
@@ -4728,28 +5109,31 @@
         <v>37</v>
       </c>
       <c r="C124" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D124" t="s">
         <v>38</v>
       </c>
       <c r="E124" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="F124">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G124" t="s">
         <v>158</v>
       </c>
       <c r="H124">
+        <v>3.5</v>
+      </c>
+      <c r="I124">
         <v>5.5</v>
       </c>
-      <c r="I124" t="s">
+      <c r="J124" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="125" spans="1:9">
+    <row r="125" spans="1:10">
       <c r="A125" t="s">
         <v>27</v>
       </c>
@@ -4757,28 +5141,31 @@
         <v>37</v>
       </c>
       <c r="C125" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D125" t="s">
         <v>38</v>
       </c>
       <c r="E125" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="F125">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G125" t="s">
         <v>158</v>
       </c>
       <c r="H125">
-        <v>6</v>
-      </c>
-      <c r="I125" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>4.5</v>
+      </c>
+      <c r="I125">
+        <v>5.5</v>
+      </c>
+      <c r="J125" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" t="s">
         <v>27</v>
       </c>
@@ -4786,28 +5173,31 @@
         <v>37</v>
       </c>
       <c r="C126" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D126" t="s">
         <v>38</v>
       </c>
       <c r="E126" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F126">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G126" t="s">
         <v>158</v>
       </c>
       <c r="H126">
-        <v>5</v>
-      </c>
-      <c r="I126" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>4.5</v>
+      </c>
+      <c r="I126">
+        <v>6</v>
+      </c>
+      <c r="J126" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" t="s">
         <v>27</v>
       </c>
@@ -4815,28 +5205,31 @@
         <v>37</v>
       </c>
       <c r="C127" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D127" t="s">
         <v>38</v>
       </c>
       <c r="E127" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F127">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G127" t="s">
         <v>158</v>
       </c>
       <c r="H127">
-        <v>6.5</v>
-      </c>
-      <c r="I127" t="s">
+        <v>4</v>
+      </c>
+      <c r="I127">
+        <v>5</v>
+      </c>
+      <c r="J127" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" spans="1:10">
       <c r="A128" t="s">
         <v>27</v>
       </c>
@@ -4844,16 +5237,16 @@
         <v>37</v>
       </c>
       <c r="C128" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D128" t="s">
         <v>38</v>
       </c>
       <c r="E128" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="F128">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="G128" t="s">
         <v>158</v>
@@ -4861,8 +5254,14 @@
       <c r="H128">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="129" spans="1:9">
+      <c r="I128">
+        <v>6.5</v>
+      </c>
+      <c r="J128" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" t="s">
         <v>27</v>
       </c>
@@ -4870,28 +5269,28 @@
         <v>37</v>
       </c>
       <c r="C129" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D129" t="s">
         <v>38</v>
       </c>
       <c r="E129" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="F129">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="G129" t="s">
         <v>158</v>
       </c>
       <c r="H129">
-        <v>6.5</v>
-      </c>
-      <c r="I129" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>5.5</v>
+      </c>
+      <c r="I129">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" t="s">
         <v>27</v>
       </c>
@@ -4899,7 +5298,7 @@
         <v>37</v>
       </c>
       <c r="C130" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D130" t="s">
         <v>38</v>
@@ -4908,16 +5307,22 @@
         <v>16</v>
       </c>
       <c r="F130">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G130" t="s">
         <v>158</v>
       </c>
-      <c r="I130" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+      <c r="H130">
+        <v>5.5</v>
+      </c>
+      <c r="I130">
+        <v>6.5</v>
+      </c>
+      <c r="J130" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" t="s">
         <v>27</v>
       </c>
@@ -4925,123 +5330,135 @@
         <v>37</v>
       </c>
       <c r="C131" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D131" t="s">
         <v>38</v>
       </c>
       <c r="E131" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F131">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G131" t="s">
         <v>158</v>
       </c>
       <c r="H131">
-        <v>9</v>
-      </c>
-      <c r="I131" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>5</v>
+      </c>
+      <c r="I131">
+        <v>5</v>
+      </c>
+      <c r="J131" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" t="s">
-        <v>224</v>
+        <v>27</v>
       </c>
       <c r="B132" t="s">
-        <v>225</v>
+        <v>37</v>
       </c>
       <c r="C132" t="s">
-        <v>172</v>
+        <v>222</v>
       </c>
       <c r="D132" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="E132" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F132">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G132" t="s">
         <v>158</v>
       </c>
       <c r="H132">
+        <v>5.5</v>
+      </c>
+      <c r="I132">
+        <v>9</v>
+      </c>
+      <c r="J132" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
+      <c r="A133" t="s">
+        <v>223</v>
+      </c>
+      <c r="B133" t="s">
+        <v>224</v>
+      </c>
+      <c r="C133" t="s">
+        <v>172</v>
+      </c>
+      <c r="D133" t="s">
+        <v>11</v>
+      </c>
+      <c r="E133" t="s">
+        <v>13</v>
+      </c>
+      <c r="F133">
+        <v>3</v>
+      </c>
+      <c r="G133" t="s">
+        <v>158</v>
+      </c>
+      <c r="H133">
+        <v>4.5</v>
+      </c>
+      <c r="I133">
         <v>7.5</v>
       </c>
-      <c r="I132" t="s">
+      <c r="J133" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="133" spans="1:9">
-      <c r="A133" t="s">
+    <row r="134" spans="1:10">
+      <c r="A134" t="s">
         <v>48</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B134" t="s">
         <v>53</v>
       </c>
-      <c r="C133" t="s">
-        <v>226</v>
-      </c>
-      <c r="D133" t="s">
-        <v>11</v>
-      </c>
-      <c r="E133" t="s">
+      <c r="C134" t="s">
+        <v>225</v>
+      </c>
+      <c r="D134" t="s">
+        <v>11</v>
+      </c>
+      <c r="E134" t="s">
         <v>12</v>
       </c>
-      <c r="F133">
+      <c r="F134">
         <v>10</v>
-      </c>
-      <c r="G133" t="s">
-        <v>156</v>
-      </c>
-      <c r="H133">
-        <v>8.5</v>
-      </c>
-      <c r="I133" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
-      <c r="A134" t="s">
-        <v>227</v>
-      </c>
-      <c r="B134" t="s">
-        <v>228</v>
-      </c>
-      <c r="C134" t="s">
-        <v>229</v>
-      </c>
-      <c r="D134" t="s">
-        <v>11</v>
-      </c>
-      <c r="E134" t="s">
-        <v>58</v>
-      </c>
-      <c r="F134">
-        <v>4</v>
       </c>
       <c r="G134" t="s">
         <v>156</v>
       </c>
       <c r="H134">
-        <v>9.5</v>
-      </c>
-      <c r="I134" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>6.5</v>
+      </c>
+      <c r="I134">
+        <v>8.5</v>
+      </c>
+      <c r="J134" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" t="s">
-        <v>134</v>
+        <v>226</v>
       </c>
       <c r="B135" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C135" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D135" t="s">
         <v>11</v>
@@ -5050,82 +5467,94 @@
         <v>58</v>
       </c>
       <c r="F135">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G135" t="s">
         <v>156</v>
       </c>
-      <c r="I135" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+      <c r="H135">
+        <v>4.5</v>
+      </c>
+      <c r="I135">
+        <v>9.5</v>
+      </c>
+      <c r="J135" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" t="s">
-        <v>180</v>
+        <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C136" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D136" t="s">
         <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="F136">
-        <v>0.5</v>
+        <v>7</v>
       </c>
       <c r="G136" t="s">
         <v>156</v>
       </c>
       <c r="H136">
-        <v>7.5</v>
-      </c>
-      <c r="I136" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>5</v>
+      </c>
+      <c r="I136">
+        <v>9</v>
+      </c>
+      <c r="J136" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B137" t="s">
+        <v>231</v>
+      </c>
+      <c r="C137" t="s">
         <v>232</v>
       </c>
-      <c r="C137" t="s">
-        <v>234</v>
-      </c>
       <c r="D137" t="s">
         <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F137">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="G137" t="s">
         <v>156</v>
       </c>
       <c r="H137">
+        <v>5.5</v>
+      </c>
+      <c r="I137">
         <v>7.5</v>
       </c>
-      <c r="I137" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+      <c r="J137" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B138" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C138" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D138" t="s">
         <v>11</v>
@@ -5134,27 +5563,30 @@
         <v>13</v>
       </c>
       <c r="F138">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="G138" t="s">
         <v>156</v>
       </c>
       <c r="H138">
+        <v>5.5</v>
+      </c>
+      <c r="I138">
         <v>7.5</v>
       </c>
-      <c r="I138" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+      <c r="J138" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" t="s">
-        <v>205</v>
+        <v>179</v>
       </c>
       <c r="B139" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C139" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D139" t="s">
         <v>11</v>
@@ -5163,16 +5595,51 @@
         <v>13</v>
       </c>
       <c r="F139">
+        <v>0.8</v>
+      </c>
+      <c r="G139" t="s">
+        <v>156</v>
+      </c>
+      <c r="H139">
+        <v>5.5</v>
+      </c>
+      <c r="I139">
+        <v>7.5</v>
+      </c>
+      <c r="J139" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
+      <c r="A140" t="s">
+        <v>204</v>
+      </c>
+      <c r="B140" t="s">
+        <v>235</v>
+      </c>
+      <c r="C140" t="s">
+        <v>236</v>
+      </c>
+      <c r="D140" t="s">
+        <v>11</v>
+      </c>
+      <c r="E140" t="s">
+        <v>13</v>
+      </c>
+      <c r="F140">
         <v>5</v>
       </c>
-      <c r="G139" t="s">
+      <c r="G140" t="s">
         <v>158</v>
       </c>
-      <c r="H139">
+      <c r="H140">
+        <v>4.5</v>
+      </c>
+      <c r="I140">
         <v>8.5</v>
       </c>
-      <c r="I139" t="s">
-        <v>199</v>
+      <c r="J140" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -5212,7 +5679,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>165</v>
@@ -5226,10 +5693,10 @@
         <v>151</v>
       </c>
       <c r="D3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -5240,7 +5707,7 @@
         <v>152</v>
       </c>
       <c r="D4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E4" t="s">
         <v>166</v>
@@ -5254,10 +5721,10 @@
         <v>153</v>
       </c>
       <c r="D5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -5265,7 +5732,7 @@
         <v>154</v>
       </c>
       <c r="D6" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E6" t="s">
         <v>167</v>
@@ -5273,7 +5740,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="E7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>

--- a/Data/michigantrees_sequence.xlsx
+++ b/Data/michigantrees_sequence.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1920" uniqueCount="369">
   <si>
     <t>Family</t>
   </si>
@@ -773,13 +773,367 @@
   </si>
   <si>
     <t>peregrina</t>
+  </si>
+  <si>
+    <t>imputed_resp</t>
+  </si>
+  <si>
+    <t>imputed_pred</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Andromeda</t>
+  </si>
+  <si>
+    <t>glaucophylla</t>
+  </si>
+  <si>
+    <t>evergreen</t>
+  </si>
+  <si>
+    <t>Araliaceae</t>
+  </si>
+  <si>
+    <t>Aralia</t>
+  </si>
+  <si>
+    <t>hispida</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Aronia</t>
+  </si>
+  <si>
+    <t>prunifolia</t>
+  </si>
+  <si>
+    <t>Berberidaceae</t>
+  </si>
+  <si>
+    <t>Berberis</t>
+  </si>
+  <si>
+    <t>thunbergii</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>Campis</t>
+  </si>
+  <si>
+    <t>radicans</t>
+  </si>
+  <si>
+    <t>Ceanothus</t>
+  </si>
+  <si>
+    <t>americanus</t>
+  </si>
+  <si>
+    <t>herbaceus</t>
+  </si>
+  <si>
+    <t>Celastraceae</t>
+  </si>
+  <si>
+    <t>Celastrus</t>
+  </si>
+  <si>
+    <t>scandens</t>
+  </si>
+  <si>
+    <t>Rubiaceae</t>
+  </si>
+  <si>
+    <t>Cephalanthus</t>
+  </si>
+  <si>
+    <t>Chamaedaphne</t>
+  </si>
+  <si>
+    <t>caliculata</t>
+  </si>
+  <si>
+    <t>Ranunculaceae</t>
+  </si>
+  <si>
+    <t>Clematis</t>
+  </si>
+  <si>
+    <t>rugosa</t>
+  </si>
+  <si>
+    <t>foemina</t>
+  </si>
+  <si>
+    <t>sericea</t>
+  </si>
+  <si>
+    <t>Dasiphora</t>
+  </si>
+  <si>
+    <t>fruticosa</t>
+  </si>
+  <si>
+    <t>persistant</t>
+  </si>
+  <si>
+    <t>Diervillaceae</t>
+  </si>
+  <si>
+    <t>Diervilla</t>
+  </si>
+  <si>
+    <t>lonicera</t>
+  </si>
+  <si>
+    <t>Elaeagnus</t>
+  </si>
+  <si>
+    <t>umbellata</t>
+  </si>
+  <si>
+    <t>Epigaea</t>
+  </si>
+  <si>
+    <t>repens</t>
+  </si>
+  <si>
+    <t>obovatus</t>
+  </si>
+  <si>
+    <t>Gaultheria</t>
+  </si>
+  <si>
+    <t>hispidula</t>
+  </si>
+  <si>
+    <t>procumbens</t>
+  </si>
+  <si>
+    <t>Gaylussacia</t>
+  </si>
+  <si>
+    <t>baccata</t>
+  </si>
+  <si>
+    <t>Hypericaceae</t>
+  </si>
+  <si>
+    <t>Hypericum</t>
+  </si>
+  <si>
+    <t>kalmianum</t>
+  </si>
+  <si>
+    <t>prolificum</t>
+  </si>
+  <si>
+    <t>Kalmia</t>
+  </si>
+  <si>
+    <t>angustifolia</t>
+  </si>
+  <si>
+    <t>persitant</t>
+  </si>
+  <si>
+    <t>polifolia</t>
+  </si>
+  <si>
+    <t>Ligustrum</t>
+  </si>
+  <si>
+    <t>vulgare</t>
+  </si>
+  <si>
+    <t>Caprifoliaceae</t>
+  </si>
+  <si>
+    <t>dioica</t>
+  </si>
+  <si>
+    <t>maackii</t>
+  </si>
+  <si>
+    <t>tatarica</t>
+  </si>
+  <si>
+    <t>unreported</t>
+  </si>
+  <si>
+    <t>Menispermaceae</t>
+  </si>
+  <si>
+    <t>Menispermum</t>
+  </si>
+  <si>
+    <t>canadense</t>
+  </si>
+  <si>
+    <t>Vitaceae</t>
+  </si>
+  <si>
+    <t>Parthenocissus</t>
+  </si>
+  <si>
+    <t>inserta</t>
+  </si>
+  <si>
+    <t>quinquefolia</t>
+  </si>
+  <si>
+    <t>tricuspidata</t>
+  </si>
+  <si>
+    <t>Physocarpus</t>
+  </si>
+  <si>
+    <t>opulifolius</t>
+  </si>
+  <si>
+    <t>Rhododendron</t>
+  </si>
+  <si>
+    <t>groenlandicum</t>
+  </si>
+  <si>
+    <t>cynosbati</t>
+  </si>
+  <si>
+    <t>lacustre</t>
+  </si>
+  <si>
+    <t>Rosa</t>
+  </si>
+  <si>
+    <t>acicularis</t>
+  </si>
+  <si>
+    <t>blanda</t>
+  </si>
+  <si>
+    <t>carolina</t>
+  </si>
+  <si>
+    <t>multiflora</t>
+  </si>
+  <si>
+    <t>Rubus</t>
+  </si>
+  <si>
+    <t>allegheniensis</t>
+  </si>
+  <si>
+    <t>flagellaris</t>
+  </si>
+  <si>
+    <t>hispidus</t>
+  </si>
+  <si>
+    <t>parviflorus</t>
+  </si>
+  <si>
+    <t>strigosis</t>
+  </si>
+  <si>
+    <t>Sambucus</t>
+  </si>
+  <si>
+    <t>racemosa</t>
+  </si>
+  <si>
+    <t>Smilaceae</t>
+  </si>
+  <si>
+    <t>Smilax</t>
+  </si>
+  <si>
+    <t>rotundifolia</t>
+  </si>
+  <si>
+    <t>Solanum</t>
+  </si>
+  <si>
+    <t>dulcamara</t>
+  </si>
+  <si>
+    <t>non_woody</t>
+  </si>
+  <si>
+    <t>Spiraea</t>
+  </si>
+  <si>
+    <t>tomentosa</t>
+  </si>
+  <si>
+    <t>Symphoricarpos</t>
+  </si>
+  <si>
+    <t>albus</t>
+  </si>
+  <si>
+    <t>Toxicodendron</t>
+  </si>
+  <si>
+    <t>vernix</t>
+  </si>
+  <si>
+    <t>angustifolium</t>
+  </si>
+  <si>
+    <t>corymbosum</t>
+  </si>
+  <si>
+    <t>macrocarpon</t>
+  </si>
+  <si>
+    <t>oxycoccos</t>
+  </si>
+  <si>
+    <t>acerifolium</t>
+  </si>
+  <si>
+    <t>cassinoides</t>
+  </si>
+  <si>
+    <t>dentatum</t>
+  </si>
+  <si>
+    <t>rafinesquianum</t>
+  </si>
+  <si>
+    <t>trilobum</t>
+  </si>
+  <si>
+    <t>Vitis</t>
+  </si>
+  <si>
+    <t>aestivalis</t>
+  </si>
+  <si>
+    <t>riparia</t>
+  </si>
+  <si>
+    <t>Lonicera</t>
+  </si>
+  <si>
+    <t>Euonymus</t>
+  </si>
+  <si>
+    <t>atropurpureus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -791,6 +1145,22 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -813,14 +1183,42 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="15">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1150,10 +1548,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J140"/>
+  <dimension ref="A1:L215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="H141" sqref="H141"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A160" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C168" sqref="C168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1166,9 +1565,10 @@
     <col min="7" max="8" width="19.5" customWidth="1"/>
     <col min="9" max="9" width="13.5" customWidth="1"/>
     <col min="10" max="10" width="15.6640625" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1199,8 +1599,14 @@
       <c r="J1" s="1" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1231,8 +1637,14 @@
       <c r="J2" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2" t="s">
+        <v>253</v>
+      </c>
+      <c r="L2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1263,8 +1675,14 @@
       <c r="J3" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3" t="s">
+        <v>253</v>
+      </c>
+      <c r="L3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1295,8 +1713,14 @@
       <c r="J4" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4" t="s">
+        <v>253</v>
+      </c>
+      <c r="L4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1327,8 +1751,14 @@
       <c r="J5" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5" t="s">
+        <v>253</v>
+      </c>
+      <c r="L5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1359,8 +1789,14 @@
       <c r="J6" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6" t="s">
+        <v>253</v>
+      </c>
+      <c r="L6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -1391,8 +1827,14 @@
       <c r="J7" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7" t="s">
+        <v>253</v>
+      </c>
+      <c r="L7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -1423,8 +1865,14 @@
       <c r="J8" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8" t="s">
+        <v>253</v>
+      </c>
+      <c r="L8" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -1452,8 +1900,14 @@
       <c r="J9" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9" t="s">
+        <v>253</v>
+      </c>
+      <c r="L9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -1484,8 +1938,14 @@
       <c r="J10" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="K10" t="s">
+        <v>253</v>
+      </c>
+      <c r="L10" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -1516,8 +1976,14 @@
       <c r="J11" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="K11" t="s">
+        <v>253</v>
+      </c>
+      <c r="L11" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -1548,8 +2014,14 @@
       <c r="J12" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="K12" t="s">
+        <v>253</v>
+      </c>
+      <c r="L12" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -1580,8 +2052,14 @@
       <c r="J13" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="K13" t="s">
+        <v>253</v>
+      </c>
+      <c r="L13" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -1612,8 +2090,14 @@
       <c r="J14" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14" t="s">
+        <v>253</v>
+      </c>
+      <c r="L14" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -1644,8 +2128,14 @@
       <c r="J15" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="K15" t="s">
+        <v>253</v>
+      </c>
+      <c r="L15" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -1676,8 +2166,14 @@
       <c r="J16" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16" t="s">
+        <v>253</v>
+      </c>
+      <c r="L16" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -1708,8 +2204,14 @@
       <c r="J17" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17" t="s">
+        <v>253</v>
+      </c>
+      <c r="L17" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -1740,8 +2242,14 @@
       <c r="J18" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18" t="s">
+        <v>253</v>
+      </c>
+      <c r="L18" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -1772,8 +2280,14 @@
       <c r="J19" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="K19" t="s">
+        <v>253</v>
+      </c>
+      <c r="L19" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -1804,8 +2318,14 @@
       <c r="J20" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="K20" t="s">
+        <v>253</v>
+      </c>
+      <c r="L20" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -1836,8 +2356,14 @@
       <c r="J21" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="K21" t="s">
+        <v>253</v>
+      </c>
+      <c r="L21" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -1868,8 +2394,14 @@
       <c r="J22" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="K22" t="s">
+        <v>253</v>
+      </c>
+      <c r="L22" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -1900,8 +2432,14 @@
       <c r="J23" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="K23" t="s">
+        <v>253</v>
+      </c>
+      <c r="L23" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -1932,8 +2470,14 @@
       <c r="J24" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="K24" t="s">
+        <v>253</v>
+      </c>
+      <c r="L24" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>48</v>
       </c>
@@ -1964,8 +2508,14 @@
       <c r="J25" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="K25" t="s">
+        <v>253</v>
+      </c>
+      <c r="L25" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" t="s">
         <v>48</v>
       </c>
@@ -1996,8 +2546,14 @@
       <c r="J26" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="K26" t="s">
+        <v>253</v>
+      </c>
+      <c r="L26" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" t="s">
         <v>48</v>
       </c>
@@ -2028,8 +2584,14 @@
       <c r="J27" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="K27" t="s">
+        <v>253</v>
+      </c>
+      <c r="L27" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" t="s">
         <v>48</v>
       </c>
@@ -2060,8 +2622,14 @@
       <c r="J28" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="K28" t="s">
+        <v>253</v>
+      </c>
+      <c r="L28" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" t="s">
         <v>48</v>
       </c>
@@ -2092,8 +2660,14 @@
       <c r="J29" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="K29" t="s">
+        <v>253</v>
+      </c>
+      <c r="L29" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
         <v>48</v>
       </c>
@@ -2124,8 +2698,14 @@
       <c r="J30" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="K30" t="s">
+        <v>253</v>
+      </c>
+      <c r="L30" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" t="s">
         <v>48</v>
       </c>
@@ -2156,8 +2736,14 @@
       <c r="J31" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="K31" t="s">
+        <v>253</v>
+      </c>
+      <c r="L31" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -2188,8 +2774,14 @@
       <c r="J32" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="K32" t="s">
+        <v>253</v>
+      </c>
+      <c r="L32" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" t="s">
         <v>63</v>
       </c>
@@ -2220,8 +2812,14 @@
       <c r="J33" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="K33" t="s">
+        <v>253</v>
+      </c>
+      <c r="L33" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" t="s">
         <v>63</v>
       </c>
@@ -2252,8 +2850,14 @@
       <c r="J34" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="K34" t="s">
+        <v>253</v>
+      </c>
+      <c r="L34" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" t="s">
         <v>63</v>
       </c>
@@ -2284,8 +2888,14 @@
       <c r="J35" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="K35" t="s">
+        <v>253</v>
+      </c>
+      <c r="L35" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" t="s">
         <v>63</v>
       </c>
@@ -2316,8 +2926,14 @@
       <c r="J36" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="37" spans="1:10">
+      <c r="K36" t="s">
+        <v>253</v>
+      </c>
+      <c r="L36" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" t="s">
         <v>67</v>
       </c>
@@ -2348,8 +2964,14 @@
       <c r="J37" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="38" spans="1:10">
+      <c r="K37" t="s">
+        <v>253</v>
+      </c>
+      <c r="L37" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" t="s">
         <v>67</v>
       </c>
@@ -2380,8 +3002,14 @@
       <c r="J38" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="39" spans="1:10">
+      <c r="K38" t="s">
+        <v>253</v>
+      </c>
+      <c r="L38" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" t="s">
         <v>70</v>
       </c>
@@ -2412,8 +3040,14 @@
       <c r="J39" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="40" spans="1:10">
+      <c r="K39" t="s">
+        <v>253</v>
+      </c>
+      <c r="L39" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" t="s">
         <v>70</v>
       </c>
@@ -2444,8 +3078,14 @@
       <c r="J40" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="41" spans="1:10">
+      <c r="K40" t="s">
+        <v>253</v>
+      </c>
+      <c r="L40" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" t="s">
         <v>70</v>
       </c>
@@ -2476,8 +3116,14 @@
       <c r="J41" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="42" spans="1:10">
+      <c r="K41" t="s">
+        <v>253</v>
+      </c>
+      <c r="L41" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" t="s">
         <v>74</v>
       </c>
@@ -2508,8 +3154,14 @@
       <c r="J42" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="43" spans="1:10">
+      <c r="K42" t="s">
+        <v>253</v>
+      </c>
+      <c r="L42" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" t="s">
         <v>74</v>
       </c>
@@ -2540,8 +3192,14 @@
       <c r="J43" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="44" spans="1:10">
+      <c r="K43" t="s">
+        <v>253</v>
+      </c>
+      <c r="L43" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" t="s">
         <v>74</v>
       </c>
@@ -2572,8 +3230,14 @@
       <c r="J44" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="45" spans="1:10">
+      <c r="K44" t="s">
+        <v>253</v>
+      </c>
+      <c r="L44" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" t="s">
         <v>74</v>
       </c>
@@ -2604,8 +3268,14 @@
       <c r="J45" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="46" spans="1:10">
+      <c r="K45" t="s">
+        <v>253</v>
+      </c>
+      <c r="L45" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" t="s">
         <v>74</v>
       </c>
@@ -2636,8 +3306,14 @@
       <c r="J46" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="47" spans="1:10">
+      <c r="K46" t="s">
+        <v>253</v>
+      </c>
+      <c r="L46" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" t="s">
         <v>74</v>
       </c>
@@ -2668,8 +3344,14 @@
       <c r="J47" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="48" spans="1:10">
+      <c r="K47" t="s">
+        <v>253</v>
+      </c>
+      <c r="L47" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" t="s">
         <v>74</v>
       </c>
@@ -2700,8 +3382,14 @@
       <c r="J48" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="49" spans="1:10">
+      <c r="K48" t="s">
+        <v>253</v>
+      </c>
+      <c r="L48" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" t="s">
         <v>74</v>
       </c>
@@ -2732,8 +3420,14 @@
       <c r="J49" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="50" spans="1:10">
+      <c r="K49" t="s">
+        <v>253</v>
+      </c>
+      <c r="L49" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" t="s">
         <v>74</v>
       </c>
@@ -2764,8 +3458,14 @@
       <c r="J50" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="51" spans="1:10">
+      <c r="K50" t="s">
+        <v>253</v>
+      </c>
+      <c r="L50" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" t="s">
         <v>74</v>
       </c>
@@ -2796,8 +3496,14 @@
       <c r="J51" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="52" spans="1:10">
+      <c r="K51" t="s">
+        <v>253</v>
+      </c>
+      <c r="L51" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" t="s">
         <v>74</v>
       </c>
@@ -2828,8 +3534,14 @@
       <c r="J52" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="53" spans="1:10">
+      <c r="K52" t="s">
+        <v>253</v>
+      </c>
+      <c r="L52" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" t="s">
         <v>74</v>
       </c>
@@ -2860,8 +3572,14 @@
       <c r="J53" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="54" spans="1:10">
+      <c r="K53" t="s">
+        <v>253</v>
+      </c>
+      <c r="L53" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" t="s">
         <v>74</v>
       </c>
@@ -2892,8 +3610,14 @@
       <c r="J54" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="55" spans="1:10">
+      <c r="K54" t="s">
+        <v>253</v>
+      </c>
+      <c r="L54" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" t="s">
         <v>74</v>
       </c>
@@ -2924,8 +3648,14 @@
       <c r="J55" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="56" spans="1:10">
+      <c r="K55" t="s">
+        <v>253</v>
+      </c>
+      <c r="L55" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" t="s">
         <v>90</v>
       </c>
@@ -2956,8 +3686,14 @@
       <c r="J56" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="57" spans="1:10">
+      <c r="K56" t="s">
+        <v>253</v>
+      </c>
+      <c r="L56" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" t="s">
         <v>90</v>
       </c>
@@ -2988,8 +3724,14 @@
       <c r="J57" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="58" spans="1:10">
+      <c r="K57" t="s">
+        <v>253</v>
+      </c>
+      <c r="L57" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" t="s">
         <v>90</v>
       </c>
@@ -3020,8 +3762,14 @@
       <c r="J58" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="59" spans="1:10">
+      <c r="K58" t="s">
+        <v>253</v>
+      </c>
+      <c r="L58" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" t="s">
         <v>90</v>
       </c>
@@ -3052,8 +3800,14 @@
       <c r="J59" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="60" spans="1:10">
+      <c r="K59" t="s">
+        <v>253</v>
+      </c>
+      <c r="L59" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" t="s">
         <v>90</v>
       </c>
@@ -3084,8 +3838,14 @@
       <c r="J60" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="61" spans="1:10">
+      <c r="K60" t="s">
+        <v>253</v>
+      </c>
+      <c r="L60" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" t="s">
         <v>90</v>
       </c>
@@ -3116,8 +3876,14 @@
       <c r="J61" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="62" spans="1:10">
+      <c r="K61" t="s">
+        <v>253</v>
+      </c>
+      <c r="L61" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" t="s">
         <v>90</v>
       </c>
@@ -3148,8 +3914,14 @@
       <c r="J62" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="63" spans="1:10">
+      <c r="K62" t="s">
+        <v>253</v>
+      </c>
+      <c r="L62" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" t="s">
         <v>90</v>
       </c>
@@ -3180,8 +3952,14 @@
       <c r="J63" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="64" spans="1:10">
+      <c r="K63" t="s">
+        <v>253</v>
+      </c>
+      <c r="L63" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" t="s">
         <v>98</v>
       </c>
@@ -3212,8 +3990,14 @@
       <c r="J64" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="65" spans="1:10">
+      <c r="K64" t="s">
+        <v>253</v>
+      </c>
+      <c r="L64" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" t="s">
         <v>98</v>
       </c>
@@ -3244,8 +4028,14 @@
       <c r="J65" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="66" spans="1:10">
+      <c r="K65" t="s">
+        <v>253</v>
+      </c>
+      <c r="L65" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" t="s">
         <v>98</v>
       </c>
@@ -3276,8 +4066,14 @@
       <c r="J66" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="67" spans="1:10">
+      <c r="K66" t="s">
+        <v>253</v>
+      </c>
+      <c r="L66" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" t="s">
         <v>98</v>
       </c>
@@ -3308,8 +4104,14 @@
       <c r="J67" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="68" spans="1:10">
+      <c r="K67" t="s">
+        <v>253</v>
+      </c>
+      <c r="L67" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" t="s">
         <v>98</v>
       </c>
@@ -3340,8 +4142,14 @@
       <c r="J68" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="69" spans="1:10">
+      <c r="K68" t="s">
+        <v>253</v>
+      </c>
+      <c r="L68" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69" t="s">
         <v>98</v>
       </c>
@@ -3372,8 +4180,14 @@
       <c r="J69" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="70" spans="1:10">
+      <c r="K69" t="s">
+        <v>253</v>
+      </c>
+      <c r="L69" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" t="s">
         <v>106</v>
       </c>
@@ -3404,8 +4218,14 @@
       <c r="J70" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="71" spans="1:10">
+      <c r="K70" t="s">
+        <v>253</v>
+      </c>
+      <c r="L70" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71" t="s">
         <v>106</v>
       </c>
@@ -3436,8 +4256,14 @@
       <c r="J71" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="72" spans="1:10">
+      <c r="K71" t="s">
+        <v>253</v>
+      </c>
+      <c r="L71" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72" t="s">
         <v>109</v>
       </c>
@@ -3468,8 +4294,14 @@
       <c r="J72" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="73" spans="1:10">
+      <c r="K72" t="s">
+        <v>253</v>
+      </c>
+      <c r="L72" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73" t="s">
         <v>112</v>
       </c>
@@ -3500,8 +4332,14 @@
       <c r="J73" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="74" spans="1:10">
+      <c r="K73" t="s">
+        <v>253</v>
+      </c>
+      <c r="L73" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74" t="s">
         <v>112</v>
       </c>
@@ -3532,8 +4370,14 @@
       <c r="J74" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="75" spans="1:10">
+      <c r="K74" t="s">
+        <v>253</v>
+      </c>
+      <c r="L74" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75" t="s">
         <v>115</v>
       </c>
@@ -3564,8 +4408,14 @@
       <c r="J75" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="76" spans="1:10">
+      <c r="K75" t="s">
+        <v>253</v>
+      </c>
+      <c r="L75" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" t="s">
         <v>115</v>
       </c>
@@ -3596,8 +4446,14 @@
       <c r="J76" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="77" spans="1:10">
+      <c r="K76" t="s">
+        <v>253</v>
+      </c>
+      <c r="L76" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77" t="s">
         <v>115</v>
       </c>
@@ -3628,8 +4484,14 @@
       <c r="J77" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="78" spans="1:10">
+      <c r="K77" t="s">
+        <v>253</v>
+      </c>
+      <c r="L77" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78" t="s">
         <v>115</v>
       </c>
@@ -3660,8 +4522,14 @@
       <c r="J78" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="79" spans="1:10">
+      <c r="K78" t="s">
+        <v>253</v>
+      </c>
+      <c r="L78" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79" t="s">
         <v>115</v>
       </c>
@@ -3692,8 +4560,14 @@
       <c r="J79" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="80" spans="1:10">
+      <c r="K79" t="s">
+        <v>253</v>
+      </c>
+      <c r="L79" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80" t="s">
         <v>115</v>
       </c>
@@ -3724,8 +4598,14 @@
       <c r="J80" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="81" spans="1:10">
+      <c r="K80" t="s">
+        <v>253</v>
+      </c>
+      <c r="L80" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81" t="s">
         <v>115</v>
       </c>
@@ -3756,8 +4636,14 @@
       <c r="J81" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="82" spans="1:10">
+      <c r="K81" t="s">
+        <v>253</v>
+      </c>
+      <c r="L81" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
       <c r="A82" t="s">
         <v>115</v>
       </c>
@@ -3788,8 +4674,14 @@
       <c r="J82" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="83" spans="1:10">
+      <c r="K82" t="s">
+        <v>253</v>
+      </c>
+      <c r="L82" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83" t="s">
         <v>115</v>
       </c>
@@ -3820,8 +4712,14 @@
       <c r="J83" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="84" spans="1:10">
+      <c r="K83" t="s">
+        <v>253</v>
+      </c>
+      <c r="L83" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84" t="s">
         <v>115</v>
       </c>
@@ -3852,8 +4750,14 @@
       <c r="J84" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="85" spans="1:10">
+      <c r="K84" t="s">
+        <v>253</v>
+      </c>
+      <c r="L84" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
       <c r="A85" t="s">
         <v>127</v>
       </c>
@@ -3884,8 +4788,14 @@
       <c r="J85" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="86" spans="1:10">
+      <c r="K85" t="s">
+        <v>253</v>
+      </c>
+      <c r="L85" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
       <c r="A86" t="s">
         <v>127</v>
       </c>
@@ -3916,8 +4826,14 @@
       <c r="J86" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="87" spans="1:10">
+      <c r="K86" t="s">
+        <v>253</v>
+      </c>
+      <c r="L86" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87" t="s">
         <v>131</v>
       </c>
@@ -3948,8 +4864,14 @@
       <c r="J87" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="88" spans="1:10">
+      <c r="K87" t="s">
+        <v>253</v>
+      </c>
+      <c r="L87" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88" t="s">
         <v>134</v>
       </c>
@@ -3980,8 +4902,14 @@
       <c r="J88" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="89" spans="1:10">
+      <c r="K88" t="s">
+        <v>253</v>
+      </c>
+      <c r="L88" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
       <c r="A89" t="s">
         <v>134</v>
       </c>
@@ -4012,8 +4940,14 @@
       <c r="J89" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="90" spans="1:10">
+      <c r="K89" t="s">
+        <v>253</v>
+      </c>
+      <c r="L89" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
       <c r="A90" t="s">
         <v>134</v>
       </c>
@@ -4044,8 +4978,14 @@
       <c r="J90" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="91" spans="1:10">
+      <c r="K90" t="s">
+        <v>253</v>
+      </c>
+      <c r="L90" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
       <c r="A91" t="s">
         <v>134</v>
       </c>
@@ -4076,8 +5016,14 @@
       <c r="J91" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="92" spans="1:10">
+      <c r="K91" t="s">
+        <v>253</v>
+      </c>
+      <c r="L91" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
       <c r="A92" t="s">
         <v>134</v>
       </c>
@@ -4108,8 +5054,14 @@
       <c r="J92" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="93" spans="1:10">
+      <c r="K92" t="s">
+        <v>253</v>
+      </c>
+      <c r="L92" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
       <c r="A93" t="s">
         <v>139</v>
       </c>
@@ -4140,8 +5092,14 @@
       <c r="J93" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="94" spans="1:10">
+      <c r="K93" t="s">
+        <v>253</v>
+      </c>
+      <c r="L93" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
       <c r="A94" t="s">
         <v>139</v>
       </c>
@@ -4172,8 +5130,14 @@
       <c r="J94" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="95" spans="1:10">
+      <c r="K94" t="s">
+        <v>253</v>
+      </c>
+      <c r="L94" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
       <c r="A95" t="s">
         <v>143</v>
       </c>
@@ -4204,8 +5168,14 @@
       <c r="J95" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="96" spans="1:10">
+      <c r="K95" t="s">
+        <v>253</v>
+      </c>
+      <c r="L95" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="14" customHeight="1">
       <c r="A96" t="s">
         <v>90</v>
       </c>
@@ -4236,8 +5206,14 @@
       <c r="J96" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="97" spans="1:10">
+      <c r="K96" t="s">
+        <v>253</v>
+      </c>
+      <c r="L96" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
       <c r="A97" t="s">
         <v>48</v>
       </c>
@@ -4268,8 +5244,14 @@
       <c r="J97" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="98" spans="1:10">
+      <c r="K97" t="s">
+        <v>253</v>
+      </c>
+      <c r="L97" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98" t="s">
         <v>48</v>
       </c>
@@ -4300,8 +5282,14 @@
       <c r="J98" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="99" spans="1:10">
+      <c r="K98" t="s">
+        <v>253</v>
+      </c>
+      <c r="L98" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99" t="s">
         <v>179</v>
       </c>
@@ -4332,86 +5320,80 @@
       <c r="J99" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="100" spans="1:10">
+      <c r="K99" t="s">
+        <v>253</v>
+      </c>
+      <c r="L99" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
       <c r="A100" t="s">
-        <v>201</v>
+        <v>48</v>
       </c>
       <c r="B100" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="C100" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="D100" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="F100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G100" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H100">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="I100">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="J100" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10">
+        <v>166</v>
+      </c>
+      <c r="K100" t="s">
+        <v>260</v>
+      </c>
+      <c r="L100" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
       <c r="A101" t="s">
-        <v>127</v>
+        <v>263</v>
       </c>
       <c r="B101" t="s">
-        <v>128</v>
+        <v>264</v>
       </c>
       <c r="C101" t="s">
-        <v>181</v>
-      </c>
-      <c r="D101" t="s">
-        <v>11</v>
+        <v>265</v>
       </c>
       <c r="E101" t="s">
-        <v>12</v>
-      </c>
-      <c r="F101">
-        <v>4</v>
-      </c>
-      <c r="G101" t="s">
-        <v>156</v>
-      </c>
-      <c r="H101">
-        <v>6</v>
-      </c>
-      <c r="I101">
-        <v>8.5</v>
-      </c>
-      <c r="J101" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
       <c r="A102" t="s">
         <v>90</v>
       </c>
       <c r="B102" t="s">
-        <v>182</v>
+        <v>91</v>
       </c>
       <c r="C102" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D102" t="s">
         <v>20</v>
       </c>
       <c r="E102" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="F102">
         <v>3</v>
@@ -4420,7 +5402,7 @@
         <v>159</v>
       </c>
       <c r="H102">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="I102">
         <v>8.5</v>
@@ -4428,16 +5410,22 @@
       <c r="J102" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="103" spans="1:10">
+      <c r="K102" t="s">
+        <v>260</v>
+      </c>
+      <c r="L102" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
       <c r="A103" t="s">
-        <v>90</v>
+        <v>201</v>
       </c>
       <c r="B103" t="s">
-        <v>182</v>
+        <v>249</v>
       </c>
       <c r="C103" t="s">
-        <v>183</v>
+        <v>250</v>
       </c>
       <c r="D103" t="s">
         <v>20</v>
@@ -4446,7 +5434,7 @@
         <v>13</v>
       </c>
       <c r="F103">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G103" t="s">
         <v>159</v>
@@ -4455,109 +5443,133 @@
         <v>4.5</v>
       </c>
       <c r="I103">
+        <v>7.5</v>
+      </c>
+      <c r="J103" t="s">
+        <v>176</v>
+      </c>
+      <c r="K103" t="s">
+        <v>253</v>
+      </c>
+      <c r="L103" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
+      <c r="A104" t="s">
+        <v>127</v>
+      </c>
+      <c r="B104" t="s">
+        <v>128</v>
+      </c>
+      <c r="C104" t="s">
+        <v>181</v>
+      </c>
+      <c r="D104" t="s">
+        <v>11</v>
+      </c>
+      <c r="E104" t="s">
+        <v>12</v>
+      </c>
+      <c r="F104">
+        <v>4</v>
+      </c>
+      <c r="G104" t="s">
+        <v>156</v>
+      </c>
+      <c r="H104">
+        <v>6</v>
+      </c>
+      <c r="I104">
         <v>8.5</v>
       </c>
-      <c r="J103" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10">
-      <c r="A104" t="s">
-        <v>48</v>
-      </c>
-      <c r="B104" t="s">
-        <v>184</v>
-      </c>
-      <c r="C104" t="s">
-        <v>185</v>
-      </c>
-      <c r="D104" t="s">
-        <v>11</v>
-      </c>
-      <c r="E104" t="s">
-        <v>16</v>
-      </c>
-      <c r="F104">
-        <v>6</v>
-      </c>
-      <c r="G104" t="s">
-        <v>156</v>
-      </c>
-      <c r="H104">
-        <v>5.5</v>
-      </c>
-      <c r="I104">
-        <v>9</v>
-      </c>
       <c r="J104" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10">
+        <v>176</v>
+      </c>
+      <c r="K104" t="s">
+        <v>253</v>
+      </c>
+      <c r="L104" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12">
       <c r="A105" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="B105" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C105" t="s">
-        <v>186</v>
+        <v>54</v>
       </c>
       <c r="D105" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E105" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F105">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G105" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="H105">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="I105">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="J105" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="106" spans="1:10">
+      <c r="K105" t="s">
+        <v>253</v>
+      </c>
+      <c r="L105" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12">
       <c r="A106" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="B106" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C106" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D106" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E106" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F106">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G106" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="H106">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="I106">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="J106" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="107" spans="1:10">
+      <c r="K106" t="s">
+        <v>253</v>
+      </c>
+      <c r="L106" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12">
       <c r="A107" t="s">
         <v>48</v>
       </c>
@@ -4565,7 +5577,7 @@
         <v>184</v>
       </c>
       <c r="C107" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D107" t="s">
         <v>11</v>
@@ -4574,7 +5586,7 @@
         <v>16</v>
       </c>
       <c r="F107">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G107" t="s">
         <v>156</v>
@@ -4583,13 +5595,19 @@
         <v>5.5</v>
       </c>
       <c r="I107">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="J107" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="108" spans="1:10">
+      <c r="K107" t="s">
+        <v>253</v>
+      </c>
+      <c r="L107" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12">
       <c r="A108" t="s">
         <v>48</v>
       </c>
@@ -4597,7 +5615,7 @@
         <v>184</v>
       </c>
       <c r="C108" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D108" t="s">
         <v>11</v>
@@ -4606,7 +5624,7 @@
         <v>16</v>
       </c>
       <c r="F108">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G108" t="s">
         <v>156</v>
@@ -4620,80 +5638,98 @@
       <c r="J108" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="109" spans="1:10">
+      <c r="K108" t="s">
+        <v>253</v>
+      </c>
+      <c r="L108" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12">
       <c r="A109" t="s">
-        <v>190</v>
+        <v>48</v>
       </c>
       <c r="B109" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C109" t="s">
-        <v>88</v>
+        <v>187</v>
       </c>
       <c r="D109" t="s">
         <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F109">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G109" t="s">
         <v>156</v>
       </c>
       <c r="H109">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="I109">
-        <v>6</v>
+        <v>9.5</v>
       </c>
       <c r="J109" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10">
+        <v>166</v>
+      </c>
+      <c r="K109" t="s">
+        <v>253</v>
+      </c>
+      <c r="L109" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12">
       <c r="A110" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B110" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C110" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D110" t="s">
         <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F110">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G110" t="s">
         <v>156</v>
       </c>
       <c r="H110">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="I110">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="J110" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10">
+        <v>166</v>
+      </c>
+      <c r="K110" t="s">
+        <v>253</v>
+      </c>
+      <c r="L110" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12">
       <c r="A111" t="s">
-        <v>194</v>
+        <v>48</v>
       </c>
       <c r="B111" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C111" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D111" t="s">
         <v>11</v>
@@ -4702,286 +5738,340 @@
         <v>16</v>
       </c>
       <c r="F111">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G111" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H111">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="I111">
+        <v>9.5</v>
+      </c>
+      <c r="J111" t="s">
+        <v>166</v>
+      </c>
+      <c r="K111" t="s">
+        <v>253</v>
+      </c>
+      <c r="L111" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12">
+      <c r="A112" t="s">
+        <v>190</v>
+      </c>
+      <c r="B112" t="s">
+        <v>191</v>
+      </c>
+      <c r="C112" t="s">
+        <v>88</v>
+      </c>
+      <c r="D112" t="s">
+        <v>11</v>
+      </c>
+      <c r="E112" t="s">
+        <v>13</v>
+      </c>
+      <c r="F112">
+        <v>2</v>
+      </c>
+      <c r="G112" t="s">
+        <v>156</v>
+      </c>
+      <c r="H112">
+        <v>4.5</v>
+      </c>
+      <c r="I112">
+        <v>6</v>
+      </c>
+      <c r="J112" t="s">
+        <v>167</v>
+      </c>
+      <c r="K112" t="s">
+        <v>253</v>
+      </c>
+      <c r="L112" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12">
+      <c r="A113" t="s">
+        <v>60</v>
+      </c>
+      <c r="B113" t="s">
+        <v>192</v>
+      </c>
+      <c r="C113" t="s">
+        <v>193</v>
+      </c>
+      <c r="D113" t="s">
+        <v>11</v>
+      </c>
+      <c r="E113" t="s">
+        <v>12</v>
+      </c>
+      <c r="F113">
+        <v>6</v>
+      </c>
+      <c r="G113" t="s">
+        <v>156</v>
+      </c>
+      <c r="H113">
+        <v>6</v>
+      </c>
+      <c r="I113">
         <v>7.5</v>
-      </c>
-      <c r="J111" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10">
-      <c r="A112" t="s">
-        <v>194</v>
-      </c>
-      <c r="B112" t="s">
-        <v>195</v>
-      </c>
-      <c r="C112" t="s">
-        <v>197</v>
-      </c>
-      <c r="D112" t="s">
-        <v>11</v>
-      </c>
-      <c r="E112" t="s">
-        <v>12</v>
-      </c>
-      <c r="F112">
-        <v>5</v>
-      </c>
-      <c r="G112" t="s">
-        <v>158</v>
-      </c>
-      <c r="H112">
-        <v>6</v>
-      </c>
-      <c r="I112">
-        <v>9.5</v>
-      </c>
-      <c r="J112" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10">
-      <c r="A113" t="s">
-        <v>14</v>
-      </c>
-      <c r="B113" t="s">
-        <v>199</v>
-      </c>
-      <c r="C113" t="s">
-        <v>200</v>
-      </c>
-      <c r="D113" t="s">
-        <v>11</v>
-      </c>
-      <c r="E113" t="s">
-        <v>13</v>
-      </c>
-      <c r="F113">
-        <v>5</v>
-      </c>
-      <c r="G113" t="s">
-        <v>158</v>
-      </c>
-      <c r="H113">
-        <v>4</v>
-      </c>
-      <c r="I113">
-        <v>8</v>
       </c>
       <c r="J113" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="114" spans="1:10">
+      <c r="K113" t="s">
+        <v>253</v>
+      </c>
+      <c r="L113" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12">
       <c r="A114" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B114" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C114" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D114" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F114">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="G114" t="s">
         <v>158</v>
       </c>
       <c r="H114">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="I114">
         <v>7.5</v>
       </c>
       <c r="J114" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10">
+        <v>198</v>
+      </c>
+      <c r="K114" t="s">
+        <v>253</v>
+      </c>
+      <c r="L114" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12">
       <c r="A115" t="s">
-        <v>48</v>
+        <v>194</v>
       </c>
       <c r="B115" t="s">
-        <v>55</v>
+        <v>195</v>
       </c>
       <c r="C115" t="s">
-        <v>54</v>
+        <v>197</v>
       </c>
       <c r="D115" t="s">
         <v>11</v>
       </c>
       <c r="E115" t="s">
+        <v>12</v>
+      </c>
+      <c r="F115">
+        <v>5</v>
+      </c>
+      <c r="G115" t="s">
+        <v>158</v>
+      </c>
+      <c r="H115">
+        <v>6</v>
+      </c>
+      <c r="I115">
+        <v>9.5</v>
+      </c>
+      <c r="J115" t="s">
+        <v>198</v>
+      </c>
+      <c r="K115" t="s">
+        <v>253</v>
+      </c>
+      <c r="L115" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12">
+      <c r="A116" t="s">
+        <v>14</v>
+      </c>
+      <c r="B116" t="s">
+        <v>199</v>
+      </c>
+      <c r="C116" t="s">
+        <v>200</v>
+      </c>
+      <c r="D116" t="s">
+        <v>11</v>
+      </c>
+      <c r="E116" t="s">
         <v>13</v>
       </c>
-      <c r="F115">
-        <v>10</v>
-      </c>
-      <c r="G115" t="s">
-        <v>156</v>
-      </c>
-      <c r="H115">
-        <v>4.5</v>
-      </c>
-      <c r="I115">
-        <v>8.5</v>
-      </c>
-      <c r="J115" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10">
-      <c r="A116" t="s">
-        <v>48</v>
-      </c>
-      <c r="B116" t="s">
-        <v>55</v>
-      </c>
-      <c r="C116" t="s">
-        <v>23</v>
-      </c>
-      <c r="D116" t="s">
-        <v>11</v>
-      </c>
-      <c r="E116" t="s">
-        <v>58</v>
-      </c>
       <c r="F116">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G116" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H116">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="I116">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J116" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="117" spans="1:10">
+      <c r="K116" t="s">
+        <v>253</v>
+      </c>
+      <c r="L116" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12">
       <c r="A117" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B117" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C117" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D117" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E117" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F117">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="G117" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="H117">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="I117">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="J117" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10">
+        <v>166</v>
+      </c>
+      <c r="K117" t="s">
+        <v>253</v>
+      </c>
+      <c r="L117" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12">
       <c r="A118" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B118" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C118" t="s">
-        <v>207</v>
+        <v>54</v>
       </c>
       <c r="D118" t="s">
         <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F118">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G118" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H118">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="I118">
         <v>8.5</v>
       </c>
       <c r="J118" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10">
+        <v>176</v>
+      </c>
+      <c r="K118" t="s">
+        <v>253</v>
+      </c>
+      <c r="L118" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12">
       <c r="A119" t="s">
-        <v>112</v>
+        <v>48</v>
       </c>
       <c r="B119" t="s">
-        <v>113</v>
+        <v>55</v>
       </c>
       <c r="C119" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D119" t="s">
         <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="F119">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G119" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H119">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="I119">
         <v>7.5</v>
       </c>
       <c r="J119" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10">
+        <v>198</v>
+      </c>
+      <c r="K119" t="s">
+        <v>253</v>
+      </c>
+      <c r="L119" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12">
       <c r="A120" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B120" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C120" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D120" t="s">
         <v>11</v>
@@ -4990,214 +6080,256 @@
         <v>16</v>
       </c>
       <c r="F120">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G120" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H120">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I120">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="J120" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="121" spans="1:10">
+      <c r="K120" t="s">
+        <v>253</v>
+      </c>
+      <c r="L120" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12">
       <c r="A121" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="B121" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="C121" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D121" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="F121">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G121" t="s">
         <v>158</v>
       </c>
       <c r="H121">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="I121">
-        <v>5.5</v>
+        <v>8.5</v>
       </c>
       <c r="J121" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="122" spans="1:10">
+      <c r="K121" t="s">
+        <v>253</v>
+      </c>
+      <c r="L121" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12">
       <c r="A122" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="B122" t="s">
-        <v>37</v>
+        <v>113</v>
       </c>
       <c r="C122" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D122" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="F122">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="G122" t="s">
         <v>158</v>
       </c>
       <c r="H122">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="I122">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="J122" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="123" spans="1:10">
+      <c r="K122" t="s">
+        <v>253</v>
+      </c>
+      <c r="L122" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12">
       <c r="A123" t="s">
-        <v>27</v>
+        <v>209</v>
       </c>
       <c r="B123" t="s">
-        <v>37</v>
+        <v>210</v>
       </c>
       <c r="C123" t="s">
-        <v>108</v>
+        <v>236</v>
       </c>
       <c r="D123" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="F123">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="G123" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H123">
+        <v>4.5</v>
+      </c>
+      <c r="I123">
+        <v>7.5</v>
+      </c>
+      <c r="J123" t="s">
+        <v>166</v>
+      </c>
+      <c r="K123" t="s">
+        <v>260</v>
+      </c>
+      <c r="L123" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12">
+      <c r="A124" t="s">
+        <v>209</v>
+      </c>
+      <c r="B124" t="s">
+        <v>210</v>
+      </c>
+      <c r="C124" t="s">
+        <v>327</v>
+      </c>
+      <c r="D124" t="s">
+        <v>11</v>
+      </c>
+      <c r="E124" t="s">
+        <v>12</v>
+      </c>
+      <c r="F124">
+        <v>1.2</v>
+      </c>
+      <c r="G124" t="s">
+        <v>156</v>
+      </c>
+      <c r="H124">
+        <v>4.5</v>
+      </c>
+      <c r="I124">
+        <v>8</v>
+      </c>
+      <c r="J124" t="s">
+        <v>198</v>
+      </c>
+      <c r="K124" t="s">
+        <v>260</v>
+      </c>
+      <c r="L124" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12">
+      <c r="A125" t="s">
+        <v>209</v>
+      </c>
+      <c r="B125" t="s">
+        <v>210</v>
+      </c>
+      <c r="C125" t="s">
+        <v>328</v>
+      </c>
+      <c r="D125" t="s">
+        <v>11</v>
+      </c>
+      <c r="E125" t="s">
+        <v>12</v>
+      </c>
+      <c r="F125">
+        <v>1</v>
+      </c>
+      <c r="G125" t="s">
+        <v>156</v>
+      </c>
+      <c r="H125">
         <v>5.5</v>
       </c>
-      <c r="I123">
-        <v>6.5</v>
-      </c>
-      <c r="J123" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10">
-      <c r="A124" t="s">
-        <v>27</v>
-      </c>
-      <c r="B124" t="s">
-        <v>37</v>
-      </c>
-      <c r="C124" t="s">
-        <v>214</v>
-      </c>
-      <c r="D124" t="s">
-        <v>38</v>
-      </c>
-      <c r="E124" t="s">
-        <v>13</v>
-      </c>
-      <c r="F124">
-        <v>3</v>
-      </c>
-      <c r="G124" t="s">
-        <v>158</v>
-      </c>
-      <c r="H124">
-        <v>3.5</v>
-      </c>
-      <c r="I124">
-        <v>5.5</v>
-      </c>
-      <c r="J124" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10">
-      <c r="A125" t="s">
-        <v>27</v>
-      </c>
-      <c r="B125" t="s">
-        <v>37</v>
-      </c>
-      <c r="C125" t="s">
-        <v>215</v>
-      </c>
-      <c r="D125" t="s">
-        <v>38</v>
-      </c>
-      <c r="E125" t="s">
-        <v>43</v>
-      </c>
-      <c r="F125">
-        <v>6</v>
-      </c>
-      <c r="G125" t="s">
-        <v>158</v>
-      </c>
-      <c r="H125">
-        <v>4.5</v>
-      </c>
       <c r="I125">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="J125" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10">
+        <v>198</v>
+      </c>
+      <c r="K125" t="s">
+        <v>260</v>
+      </c>
+      <c r="L125" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12">
       <c r="A126" t="s">
-        <v>27</v>
+        <v>209</v>
       </c>
       <c r="B126" t="s">
-        <v>37</v>
+        <v>210</v>
       </c>
       <c r="C126" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D126" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
         <v>16</v>
       </c>
       <c r="F126">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G126" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H126">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="I126">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="J126" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10">
+        <v>198</v>
+      </c>
+      <c r="K126" t="s">
+        <v>253</v>
+      </c>
+      <c r="L126" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12">
       <c r="A127" t="s">
         <v>27</v>
       </c>
@@ -5205,31 +6337,37 @@
         <v>37</v>
       </c>
       <c r="C127" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D127" t="s">
         <v>38</v>
       </c>
       <c r="E127" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="F127">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G127" t="s">
         <v>158</v>
       </c>
       <c r="H127">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="I127">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="J127" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="128" spans="1:10">
+      <c r="K127" t="s">
+        <v>253</v>
+      </c>
+      <c r="L127" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12">
       <c r="A128" t="s">
         <v>27</v>
       </c>
@@ -5237,31 +6375,37 @@
         <v>37</v>
       </c>
       <c r="C128" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D128" t="s">
         <v>38</v>
       </c>
       <c r="E128" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="F128">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="G128" t="s">
         <v>158</v>
       </c>
       <c r="H128">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="I128">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="J128" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="129" spans="1:10">
+      <c r="K128" t="s">
+        <v>253</v>
+      </c>
+      <c r="L128" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12">
       <c r="A129" t="s">
         <v>27</v>
       </c>
@@ -5269,7 +6413,7 @@
         <v>37</v>
       </c>
       <c r="C129" t="s">
-        <v>219</v>
+        <v>108</v>
       </c>
       <c r="D129" t="s">
         <v>38</v>
@@ -5278,7 +6422,7 @@
         <v>43</v>
       </c>
       <c r="F129">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="G129" t="s">
         <v>158</v>
@@ -5287,10 +6431,19 @@
         <v>5.5</v>
       </c>
       <c r="I129">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10">
+        <v>6.5</v>
+      </c>
+      <c r="J129" t="s">
+        <v>166</v>
+      </c>
+      <c r="K129" t="s">
+        <v>253</v>
+      </c>
+      <c r="L129" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12">
       <c r="A130" t="s">
         <v>27</v>
       </c>
@@ -5298,31 +6451,37 @@
         <v>37</v>
       </c>
       <c r="C130" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D130" t="s">
         <v>38</v>
       </c>
       <c r="E130" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F130">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G130" t="s">
         <v>158</v>
       </c>
       <c r="H130">
+        <v>3.5</v>
+      </c>
+      <c r="I130">
         <v>5.5</v>
       </c>
-      <c r="I130">
-        <v>6.5</v>
-      </c>
       <c r="J130" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10">
+        <v>166</v>
+      </c>
+      <c r="K130" t="s">
+        <v>253</v>
+      </c>
+      <c r="L130" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12">
       <c r="A131" t="s">
         <v>27</v>
       </c>
@@ -5330,31 +6489,37 @@
         <v>37</v>
       </c>
       <c r="C131" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D131" t="s">
         <v>38</v>
       </c>
       <c r="E131" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="F131">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G131" t="s">
         <v>158</v>
       </c>
       <c r="H131">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="I131">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="J131" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="132" spans="1:10">
+      <c r="K131" t="s">
+        <v>253</v>
+      </c>
+      <c r="L131" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12">
       <c r="A132" t="s">
         <v>27</v>
       </c>
@@ -5362,13 +6527,13 @@
         <v>37</v>
       </c>
       <c r="C132" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D132" t="s">
         <v>38</v>
       </c>
       <c r="E132" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F132">
         <v>4</v>
@@ -5377,27 +6542,33 @@
         <v>158</v>
       </c>
       <c r="H132">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="I132">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J132" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="133" spans="1:10">
+      <c r="K132" t="s">
+        <v>253</v>
+      </c>
+      <c r="L132" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12">
       <c r="A133" t="s">
-        <v>223</v>
+        <v>27</v>
       </c>
       <c r="B133" t="s">
-        <v>224</v>
+        <v>37</v>
       </c>
       <c r="C133" t="s">
-        <v>172</v>
+        <v>217</v>
       </c>
       <c r="D133" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="E133" t="s">
         <v>13</v>
@@ -5409,184 +6580,217 @@
         <v>158</v>
       </c>
       <c r="H133">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="I133">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="J133" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="134" spans="1:10">
+      <c r="K133" t="s">
+        <v>253</v>
+      </c>
+      <c r="L133" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12">
       <c r="A134" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="B134" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C134" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="D134" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="E134" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F134">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G134" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H134">
+        <v>5.5</v>
+      </c>
+      <c r="I134">
         <v>6.5</v>
       </c>
-      <c r="I134">
-        <v>8.5</v>
-      </c>
       <c r="J134" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="135" spans="1:10">
+      <c r="K134" t="s">
+        <v>253</v>
+      </c>
+      <c r="L134" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12">
       <c r="A135" t="s">
-        <v>226</v>
+        <v>27</v>
       </c>
       <c r="B135" t="s">
-        <v>227</v>
+        <v>37</v>
       </c>
       <c r="C135" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="D135" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="E135" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="F135">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="G135" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H135">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="I135">
-        <v>9.5</v>
-      </c>
-      <c r="J135" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10">
+        <v>5.5</v>
+      </c>
+      <c r="K135" t="s">
+        <v>253</v>
+      </c>
+      <c r="L135" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12">
       <c r="A136" t="s">
-        <v>134</v>
+        <v>27</v>
       </c>
       <c r="B136" t="s">
-        <v>229</v>
+        <v>37</v>
       </c>
       <c r="C136" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="D136" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="E136" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="F136">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G136" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H136">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="I136">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="J136" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10">
+        <v>176</v>
+      </c>
+      <c r="K136" t="s">
+        <v>253</v>
+      </c>
+      <c r="L136" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12">
       <c r="A137" t="s">
-        <v>179</v>
+        <v>27</v>
       </c>
       <c r="B137" t="s">
-        <v>231</v>
+        <v>37</v>
       </c>
       <c r="C137" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="D137" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="E137" t="s">
         <v>16</v>
       </c>
       <c r="F137">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="G137" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H137">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="I137">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="J137" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10">
+        <v>166</v>
+      </c>
+      <c r="K137" t="s">
+        <v>253</v>
+      </c>
+      <c r="L137" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12">
       <c r="A138" t="s">
-        <v>179</v>
+        <v>27</v>
       </c>
       <c r="B138" t="s">
-        <v>231</v>
+        <v>37</v>
       </c>
       <c r="C138" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="D138" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="E138" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F138">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="G138" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H138">
         <v>5.5</v>
       </c>
       <c r="I138">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="J138" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10">
+        <v>176</v>
+      </c>
+      <c r="K138" t="s">
+        <v>253</v>
+      </c>
+      <c r="L138" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12">
       <c r="A139" t="s">
-        <v>179</v>
+        <v>223</v>
       </c>
       <c r="B139" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="C139" t="s">
-        <v>234</v>
+        <v>172</v>
       </c>
       <c r="D139" t="s">
         <v>11</v>
@@ -5595,13 +6799,13 @@
         <v>13</v>
       </c>
       <c r="F139">
-        <v>0.8</v>
+        <v>3</v>
       </c>
       <c r="G139" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H139">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="I139">
         <v>7.5</v>
@@ -5609,41 +6813,2721 @@
       <c r="J139" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="140" spans="1:10">
+      <c r="K139" t="s">
+        <v>253</v>
+      </c>
+      <c r="L139" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12">
       <c r="A140" t="s">
-        <v>204</v>
+        <v>48</v>
       </c>
       <c r="B140" t="s">
-        <v>235</v>
+        <v>53</v>
       </c>
       <c r="C140" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="D140" t="s">
         <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F140">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G140" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H140">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="I140">
         <v>8.5</v>
       </c>
       <c r="J140" t="s">
+        <v>166</v>
+      </c>
+      <c r="K140" t="s">
+        <v>253</v>
+      </c>
+      <c r="L140" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12">
+      <c r="A141" t="s">
+        <v>226</v>
+      </c>
+      <c r="B141" t="s">
+        <v>227</v>
+      </c>
+      <c r="C141" t="s">
+        <v>228</v>
+      </c>
+      <c r="D141" t="s">
+        <v>11</v>
+      </c>
+      <c r="E141" t="s">
+        <v>58</v>
+      </c>
+      <c r="F141">
+        <v>4</v>
+      </c>
+      <c r="G141" t="s">
+        <v>156</v>
+      </c>
+      <c r="H141">
+        <v>4.5</v>
+      </c>
+      <c r="I141">
+        <v>9.5</v>
+      </c>
+      <c r="J141" t="s">
         <v>198</v>
+      </c>
+      <c r="K141" t="s">
+        <v>253</v>
+      </c>
+      <c r="L141" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12">
+      <c r="A142" t="s">
+        <v>134</v>
+      </c>
+      <c r="B142" t="s">
+        <v>229</v>
+      </c>
+      <c r="C142" t="s">
+        <v>230</v>
+      </c>
+      <c r="D142" t="s">
+        <v>11</v>
+      </c>
+      <c r="E142" t="s">
+        <v>58</v>
+      </c>
+      <c r="F142">
+        <v>7</v>
+      </c>
+      <c r="G142" t="s">
+        <v>156</v>
+      </c>
+      <c r="H142">
+        <v>5</v>
+      </c>
+      <c r="I142">
+        <v>9</v>
+      </c>
+      <c r="J142" t="s">
+        <v>166</v>
+      </c>
+      <c r="K142" t="s">
+        <v>253</v>
+      </c>
+      <c r="L142" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12">
+      <c r="A143" t="s">
+        <v>179</v>
+      </c>
+      <c r="B143" t="s">
+        <v>231</v>
+      </c>
+      <c r="C143" t="s">
+        <v>232</v>
+      </c>
+      <c r="D143" t="s">
+        <v>11</v>
+      </c>
+      <c r="E143" t="s">
+        <v>16</v>
+      </c>
+      <c r="F143">
+        <v>0.5</v>
+      </c>
+      <c r="G143" t="s">
+        <v>156</v>
+      </c>
+      <c r="H143">
+        <v>5.5</v>
+      </c>
+      <c r="I143">
+        <v>7.5</v>
+      </c>
+      <c r="J143" t="s">
+        <v>198</v>
+      </c>
+      <c r="K143" t="s">
+        <v>253</v>
+      </c>
+      <c r="L143" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12">
+      <c r="A144" t="s">
+        <v>179</v>
+      </c>
+      <c r="B144" t="s">
+        <v>231</v>
+      </c>
+      <c r="C144" t="s">
+        <v>233</v>
+      </c>
+      <c r="D144" t="s">
+        <v>11</v>
+      </c>
+      <c r="E144" t="s">
+        <v>13</v>
+      </c>
+      <c r="F144">
+        <v>1.5</v>
+      </c>
+      <c r="G144" t="s">
+        <v>156</v>
+      </c>
+      <c r="H144">
+        <v>5.5</v>
+      </c>
+      <c r="I144">
+        <v>7.5</v>
+      </c>
+      <c r="J144" t="s">
+        <v>198</v>
+      </c>
+      <c r="K144" t="s">
+        <v>253</v>
+      </c>
+      <c r="L144" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12">
+      <c r="A145" t="s">
+        <v>179</v>
+      </c>
+      <c r="B145" t="s">
+        <v>231</v>
+      </c>
+      <c r="C145" t="s">
+        <v>354</v>
+      </c>
+      <c r="D145" t="s">
+        <v>11</v>
+      </c>
+      <c r="E145" t="s">
+        <v>12</v>
+      </c>
+      <c r="F145">
+        <v>0.5</v>
+      </c>
+      <c r="G145" t="s">
+        <v>156</v>
+      </c>
+      <c r="H145">
+        <v>5.5</v>
+      </c>
+      <c r="I145">
+        <v>7.5</v>
+      </c>
+      <c r="J145" t="s">
+        <v>166</v>
+      </c>
+      <c r="K145" t="s">
+        <v>260</v>
+      </c>
+      <c r="L145" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12">
+      <c r="A146" t="s">
+        <v>179</v>
+      </c>
+      <c r="B146" t="s">
+        <v>231</v>
+      </c>
+      <c r="C146" t="s">
+        <v>357</v>
+      </c>
+      <c r="D146" t="s">
+        <v>11</v>
+      </c>
+      <c r="E146" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12">
+      <c r="A147" t="s">
+        <v>179</v>
+      </c>
+      <c r="B147" t="s">
+        <v>231</v>
+      </c>
+      <c r="C147" t="s">
+        <v>355</v>
+      </c>
+      <c r="D147" t="s">
+        <v>11</v>
+      </c>
+      <c r="E147" t="s">
+        <v>12</v>
+      </c>
+      <c r="F147">
+        <v>4</v>
+      </c>
+      <c r="G147" t="s">
+        <v>156</v>
+      </c>
+      <c r="H147">
+        <v>5.5</v>
+      </c>
+      <c r="I147">
+        <v>7.5</v>
+      </c>
+      <c r="J147" t="s">
+        <v>166</v>
+      </c>
+      <c r="K147" t="s">
+        <v>260</v>
+      </c>
+      <c r="L147" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12">
+      <c r="A148" t="s">
+        <v>179</v>
+      </c>
+      <c r="B148" t="s">
+        <v>231</v>
+      </c>
+      <c r="C148" t="s">
+        <v>356</v>
+      </c>
+      <c r="D148" t="s">
+        <v>11</v>
+      </c>
+      <c r="E148" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12">
+      <c r="A149" t="s">
+        <v>179</v>
+      </c>
+      <c r="B149" t="s">
+        <v>231</v>
+      </c>
+      <c r="C149" t="s">
+        <v>234</v>
+      </c>
+      <c r="D149" t="s">
+        <v>11</v>
+      </c>
+      <c r="E149" t="s">
+        <v>13</v>
+      </c>
+      <c r="F149">
+        <v>0.8</v>
+      </c>
+      <c r="G149" t="s">
+        <v>156</v>
+      </c>
+      <c r="H149">
+        <v>5.5</v>
+      </c>
+      <c r="I149">
+        <v>7.5</v>
+      </c>
+      <c r="J149" t="s">
+        <v>166</v>
+      </c>
+      <c r="K149" t="s">
+        <v>253</v>
+      </c>
+      <c r="L149" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12">
+      <c r="A150" t="s">
+        <v>204</v>
+      </c>
+      <c r="B150" t="s">
+        <v>235</v>
+      </c>
+      <c r="C150" t="s">
+        <v>236</v>
+      </c>
+      <c r="D150" t="s">
+        <v>11</v>
+      </c>
+      <c r="E150" t="s">
+        <v>13</v>
+      </c>
+      <c r="F150">
+        <v>5</v>
+      </c>
+      <c r="G150" t="s">
+        <v>158</v>
+      </c>
+      <c r="H150">
+        <v>4.5</v>
+      </c>
+      <c r="I150">
+        <v>8.5</v>
+      </c>
+      <c r="J150" t="s">
+        <v>198</v>
+      </c>
+      <c r="K150" t="s">
+        <v>253</v>
+      </c>
+      <c r="L150" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12">
+      <c r="A151" t="s">
+        <v>179</v>
+      </c>
+      <c r="B151" t="s">
+        <v>254</v>
+      </c>
+      <c r="C151" t="s">
+        <v>255</v>
+      </c>
+      <c r="E151" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12">
+      <c r="A152" t="s">
+        <v>257</v>
+      </c>
+      <c r="B152" t="s">
+        <v>258</v>
+      </c>
+      <c r="C152" t="s">
+        <v>259</v>
+      </c>
+      <c r="D152" t="s">
+        <v>11</v>
+      </c>
+      <c r="E152" t="s">
+        <v>12</v>
+      </c>
+      <c r="F152">
+        <v>1</v>
+      </c>
+      <c r="G152" t="s">
+        <v>162</v>
+      </c>
+      <c r="H152">
+        <v>6.5</v>
+      </c>
+      <c r="I152">
+        <v>8.5</v>
+      </c>
+      <c r="J152" t="s">
+        <v>166</v>
+      </c>
+      <c r="K152" t="s">
+        <v>260</v>
+      </c>
+      <c r="L152" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12">
+      <c r="A153" t="s">
+        <v>139</v>
+      </c>
+      <c r="B153" t="s">
+        <v>267</v>
+      </c>
+      <c r="C153" t="s">
+        <v>268</v>
+      </c>
+      <c r="D153" t="s">
+        <v>11</v>
+      </c>
+      <c r="E153" t="s">
+        <v>12</v>
+      </c>
+      <c r="F153">
+        <v>15</v>
+      </c>
+      <c r="G153" t="s">
+        <v>156</v>
+      </c>
+      <c r="H153">
+        <v>7.5</v>
+      </c>
+      <c r="I153">
+        <v>9</v>
+      </c>
+      <c r="J153" t="s">
+        <v>166</v>
+      </c>
+      <c r="K153" t="s">
+        <v>260</v>
+      </c>
+      <c r="L153" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12">
+      <c r="A154" t="s">
+        <v>60</v>
+      </c>
+      <c r="B154" t="s">
+        <v>269</v>
+      </c>
+      <c r="C154" t="s">
+        <v>270</v>
+      </c>
+      <c r="D154" t="s">
+        <v>11</v>
+      </c>
+      <c r="E154" t="s">
+        <v>12</v>
+      </c>
+      <c r="F154">
+        <v>1</v>
+      </c>
+      <c r="G154" t="s">
+        <v>156</v>
+      </c>
+      <c r="H154">
+        <v>7</v>
+      </c>
+      <c r="I154">
+        <v>9.5</v>
+      </c>
+      <c r="J154" t="s">
+        <v>166</v>
+      </c>
+      <c r="K154" t="s">
+        <v>260</v>
+      </c>
+      <c r="L154" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12">
+      <c r="A155" t="s">
+        <v>60</v>
+      </c>
+      <c r="B155" t="s">
+        <v>269</v>
+      </c>
+      <c r="C155" t="s">
+        <v>271</v>
+      </c>
+      <c r="D155" t="s">
+        <v>11</v>
+      </c>
+      <c r="E155" t="s">
+        <v>12</v>
+      </c>
+      <c r="F155">
+        <v>0.8</v>
+      </c>
+      <c r="G155" t="s">
+        <v>156</v>
+      </c>
+      <c r="H155">
+        <v>6</v>
+      </c>
+      <c r="I155">
+        <v>9.5</v>
+      </c>
+      <c r="J155" t="s">
+        <v>166</v>
+      </c>
+      <c r="K155" t="s">
+        <v>260</v>
+      </c>
+      <c r="L155" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12">
+      <c r="A156" t="s">
+        <v>272</v>
+      </c>
+      <c r="B156" t="s">
+        <v>273</v>
+      </c>
+      <c r="C156" t="s">
+        <v>274</v>
+      </c>
+      <c r="D156" t="s">
+        <v>11</v>
+      </c>
+      <c r="E156" t="s">
+        <v>12</v>
+      </c>
+      <c r="F156">
+        <v>15</v>
+      </c>
+      <c r="G156" t="s">
+        <v>159</v>
+      </c>
+      <c r="H156">
+        <v>4.5</v>
+      </c>
+      <c r="I156">
+        <v>9.5</v>
+      </c>
+      <c r="J156" t="s">
+        <v>166</v>
+      </c>
+      <c r="K156" t="s">
+        <v>260</v>
+      </c>
+      <c r="L156" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12">
+      <c r="A157" t="s">
+        <v>275</v>
+      </c>
+      <c r="B157" t="s">
+        <v>276</v>
+      </c>
+      <c r="C157" t="s">
+        <v>19</v>
+      </c>
+      <c r="D157" t="s">
+        <v>11</v>
+      </c>
+      <c r="E157" t="s">
+        <v>12</v>
+      </c>
+      <c r="F157">
+        <v>5</v>
+      </c>
+      <c r="G157" t="s">
+        <v>156</v>
+      </c>
+      <c r="H157">
+        <v>7.5</v>
+      </c>
+      <c r="I157">
+        <v>9.5</v>
+      </c>
+      <c r="J157" t="s">
+        <v>237</v>
+      </c>
+      <c r="K157" t="s">
+        <v>260</v>
+      </c>
+      <c r="L157" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12">
+      <c r="A158" t="s">
+        <v>179</v>
+      </c>
+      <c r="B158" t="s">
+        <v>277</v>
+      </c>
+      <c r="C158" t="s">
+        <v>278</v>
+      </c>
+      <c r="E158" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12">
+      <c r="A159" t="s">
+        <v>279</v>
+      </c>
+      <c r="B159" t="s">
+        <v>280</v>
+      </c>
+      <c r="C159" t="s">
+        <v>23</v>
+      </c>
+      <c r="D159" t="s">
+        <v>11</v>
+      </c>
+      <c r="E159" t="s">
+        <v>12</v>
+      </c>
+      <c r="F159">
+        <v>5</v>
+      </c>
+      <c r="G159" t="s">
+        <v>159</v>
+      </c>
+      <c r="H159">
+        <v>7.5</v>
+      </c>
+      <c r="I159">
+        <v>9</v>
+      </c>
+      <c r="J159" t="s">
+        <v>166</v>
+      </c>
+      <c r="K159" t="s">
+        <v>260</v>
+      </c>
+      <c r="L159" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12">
+      <c r="A160" t="s">
+        <v>127</v>
+      </c>
+      <c r="B160" t="s">
+        <v>128</v>
+      </c>
+      <c r="C160" t="s">
+        <v>282</v>
+      </c>
+      <c r="D160" t="s">
+        <v>11</v>
+      </c>
+      <c r="E160" t="s">
+        <v>12</v>
+      </c>
+      <c r="F160">
+        <v>5</v>
+      </c>
+      <c r="G160" t="s">
+        <v>156</v>
+      </c>
+      <c r="H160">
+        <v>5.5</v>
+      </c>
+      <c r="I160">
+        <v>8</v>
+      </c>
+      <c r="J160" t="s">
+        <v>176</v>
+      </c>
+      <c r="K160" t="s">
+        <v>260</v>
+      </c>
+      <c r="L160" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12">
+      <c r="A161" t="s">
+        <v>127</v>
+      </c>
+      <c r="B161" t="s">
+        <v>128</v>
+      </c>
+      <c r="C161" t="s">
+        <v>281</v>
+      </c>
+      <c r="D161" t="s">
+        <v>11</v>
+      </c>
+      <c r="E161" t="s">
+        <v>12</v>
+      </c>
+      <c r="F161">
+        <v>3</v>
+      </c>
+      <c r="G161" t="s">
+        <v>156</v>
+      </c>
+      <c r="H161">
+        <v>5.5</v>
+      </c>
+      <c r="I161">
+        <v>8.5</v>
+      </c>
+      <c r="J161" t="s">
+        <v>166</v>
+      </c>
+      <c r="K161" t="s">
+        <v>260</v>
+      </c>
+      <c r="L161" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12">
+      <c r="A162" t="s">
+        <v>127</v>
+      </c>
+      <c r="B162" t="s">
+        <v>128</v>
+      </c>
+      <c r="C162" t="s">
+        <v>283</v>
+      </c>
+      <c r="D162" t="s">
+        <v>11</v>
+      </c>
+      <c r="E162" t="s">
+        <v>12</v>
+      </c>
+      <c r="F162">
+        <v>3</v>
+      </c>
+      <c r="G162" t="s">
+        <v>156</v>
+      </c>
+      <c r="H162">
+        <v>6</v>
+      </c>
+      <c r="I162">
+        <v>9</v>
+      </c>
+      <c r="J162" t="s">
+        <v>176</v>
+      </c>
+      <c r="K162" t="s">
+        <v>260</v>
+      </c>
+      <c r="L162" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12">
+      <c r="A163" t="s">
+        <v>48</v>
+      </c>
+      <c r="B163" t="s">
+        <v>284</v>
+      </c>
+      <c r="C163" t="s">
+        <v>285</v>
+      </c>
+      <c r="D163" t="s">
+        <v>11</v>
+      </c>
+      <c r="E163" t="s">
+        <v>12</v>
+      </c>
+      <c r="F163">
+        <v>1</v>
+      </c>
+      <c r="G163" t="s">
+        <v>156</v>
+      </c>
+      <c r="H163">
+        <v>7.5</v>
+      </c>
+      <c r="I163" t="s">
+        <v>286</v>
+      </c>
+      <c r="J163" t="s">
+        <v>176</v>
+      </c>
+      <c r="K163" t="s">
+        <v>260</v>
+      </c>
+      <c r="L163" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12">
+      <c r="A164" t="s">
+        <v>287</v>
+      </c>
+      <c r="B164" t="s">
+        <v>288</v>
+      </c>
+      <c r="C164" t="s">
+        <v>289</v>
+      </c>
+      <c r="D164" t="s">
+        <v>11</v>
+      </c>
+      <c r="E164" t="s">
+        <v>12</v>
+      </c>
+      <c r="F164">
+        <v>1</v>
+      </c>
+      <c r="G164" t="s">
+        <v>156</v>
+      </c>
+      <c r="H164">
+        <v>6</v>
+      </c>
+      <c r="I164">
+        <v>9.5</v>
+      </c>
+      <c r="J164" t="s">
+        <v>198</v>
+      </c>
+      <c r="K164" t="s">
+        <v>260</v>
+      </c>
+      <c r="L164" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12">
+      <c r="A165" t="s">
+        <v>223</v>
+      </c>
+      <c r="B165" t="s">
+        <v>290</v>
+      </c>
+      <c r="C165" t="s">
+        <v>291</v>
+      </c>
+      <c r="D165" t="s">
+        <v>11</v>
+      </c>
+      <c r="E165" t="s">
+        <v>12</v>
+      </c>
+      <c r="F165">
+        <v>7</v>
+      </c>
+      <c r="G165" t="s">
+        <v>156</v>
+      </c>
+      <c r="H165">
+        <v>6</v>
+      </c>
+      <c r="I165">
+        <v>8.5</v>
+      </c>
+      <c r="J165" t="s">
+        <v>166</v>
+      </c>
+      <c r="K165" t="s">
+        <v>260</v>
+      </c>
+      <c r="L165" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12">
+      <c r="A166" t="s">
+        <v>179</v>
+      </c>
+      <c r="B166" t="s">
+        <v>292</v>
+      </c>
+      <c r="C166" t="s">
+        <v>293</v>
+      </c>
+      <c r="E166" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12">
+      <c r="A167" t="s">
+        <v>272</v>
+      </c>
+      <c r="B167" t="s">
+        <v>367</v>
+      </c>
+      <c r="C167" t="s">
+        <v>368</v>
+      </c>
+      <c r="D167" t="s">
+        <v>11</v>
+      </c>
+      <c r="E167" t="s">
+        <v>12</v>
+      </c>
+      <c r="F167">
+        <v>4</v>
+      </c>
+      <c r="G167" t="s">
+        <v>156</v>
+      </c>
+      <c r="H167">
+        <v>6</v>
+      </c>
+      <c r="I167">
+        <v>9</v>
+      </c>
+      <c r="J167" t="s">
+        <v>166</v>
+      </c>
+      <c r="K167" t="s">
+        <v>260</v>
+      </c>
+      <c r="L167" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12">
+      <c r="A168" t="s">
+        <v>272</v>
+      </c>
+      <c r="B168" t="s">
+        <v>367</v>
+      </c>
+      <c r="C168" t="s">
+        <v>294</v>
+      </c>
+      <c r="D168" t="s">
+        <v>11</v>
+      </c>
+      <c r="E168" t="s">
+        <v>12</v>
+      </c>
+      <c r="F168">
+        <v>0.4</v>
+      </c>
+      <c r="G168" t="s">
+        <v>156</v>
+      </c>
+      <c r="H168">
+        <v>4.5</v>
+      </c>
+      <c r="I168">
+        <v>9</v>
+      </c>
+      <c r="J168" t="s">
+        <v>167</v>
+      </c>
+      <c r="K168" t="s">
+        <v>260</v>
+      </c>
+      <c r="L168" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12">
+      <c r="A169" t="s">
+        <v>179</v>
+      </c>
+      <c r="B169" t="s">
+        <v>295</v>
+      </c>
+      <c r="C169" t="s">
+        <v>296</v>
+      </c>
+      <c r="D169" t="s">
+        <v>11</v>
+      </c>
+      <c r="E169" t="s">
+        <v>256</v>
+      </c>
+      <c r="F169">
+        <v>0.5</v>
+      </c>
+      <c r="G169" t="s">
+        <v>156</v>
+      </c>
+      <c r="H169">
+        <v>5.5</v>
+      </c>
+      <c r="I169">
+        <v>8</v>
+      </c>
+      <c r="J169" t="s">
+        <v>198</v>
+      </c>
+      <c r="K169" t="s">
+        <v>260</v>
+      </c>
+      <c r="L169" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12">
+      <c r="A170" t="s">
+        <v>179</v>
+      </c>
+      <c r="B170" t="s">
+        <v>295</v>
+      </c>
+      <c r="C170" t="s">
+        <v>297</v>
+      </c>
+      <c r="E170" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12">
+      <c r="A171" t="s">
+        <v>179</v>
+      </c>
+      <c r="B171" t="s">
+        <v>298</v>
+      </c>
+      <c r="C171" t="s">
+        <v>299</v>
+      </c>
+      <c r="D171" t="s">
+        <v>11</v>
+      </c>
+      <c r="E171" t="s">
+        <v>12</v>
+      </c>
+      <c r="F171">
+        <v>1.5</v>
+      </c>
+      <c r="G171" t="s">
+        <v>156</v>
+      </c>
+      <c r="H171">
+        <v>5.5</v>
+      </c>
+      <c r="I171">
+        <v>8.5</v>
+      </c>
+      <c r="J171" t="s">
+        <v>166</v>
+      </c>
+      <c r="K171" t="s">
+        <v>260</v>
+      </c>
+      <c r="L171" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12">
+      <c r="A172" t="s">
+        <v>300</v>
+      </c>
+      <c r="B172" t="s">
+        <v>301</v>
+      </c>
+      <c r="C172" t="s">
+        <v>302</v>
+      </c>
+      <c r="D172" t="s">
+        <v>11</v>
+      </c>
+      <c r="E172" t="s">
+        <v>12</v>
+      </c>
+      <c r="F172">
+        <v>0.8</v>
+      </c>
+      <c r="G172" t="s">
+        <v>156</v>
+      </c>
+      <c r="H172">
+        <v>7.5</v>
+      </c>
+      <c r="I172">
+        <v>8.5</v>
+      </c>
+      <c r="J172" t="s">
+        <v>166</v>
+      </c>
+      <c r="K172" t="s">
+        <v>260</v>
+      </c>
+      <c r="L172" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12">
+      <c r="A173" t="s">
+        <v>300</v>
+      </c>
+      <c r="B173" t="s">
+        <v>301</v>
+      </c>
+      <c r="C173" t="s">
+        <v>303</v>
+      </c>
+      <c r="D173" t="s">
+        <v>11</v>
+      </c>
+      <c r="E173" t="s">
+        <v>12</v>
+      </c>
+      <c r="F173">
+        <v>2</v>
+      </c>
+      <c r="G173" t="s">
+        <v>156</v>
+      </c>
+      <c r="H173">
+        <v>7.5</v>
+      </c>
+      <c r="I173">
+        <v>8.5</v>
+      </c>
+      <c r="J173" t="s">
+        <v>166</v>
+      </c>
+      <c r="K173" t="s">
+        <v>260</v>
+      </c>
+      <c r="L173" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12">
+      <c r="A174" t="s">
+        <v>179</v>
+      </c>
+      <c r="B174" t="s">
+        <v>304</v>
+      </c>
+      <c r="C174" t="s">
+        <v>305</v>
+      </c>
+      <c r="D174" t="s">
+        <v>11</v>
+      </c>
+      <c r="E174" t="s">
+        <v>12</v>
+      </c>
+      <c r="F174">
+        <v>1.7</v>
+      </c>
+      <c r="G174" t="s">
+        <v>156</v>
+      </c>
+      <c r="H174">
+        <v>6.5</v>
+      </c>
+      <c r="I174" t="s">
+        <v>306</v>
+      </c>
+      <c r="J174" t="s">
+        <v>166</v>
+      </c>
+      <c r="K174" t="s">
+        <v>260</v>
+      </c>
+      <c r="L174" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12">
+      <c r="A175" t="s">
+        <v>179</v>
+      </c>
+      <c r="B175" t="s">
+        <v>304</v>
+      </c>
+      <c r="C175" t="s">
+        <v>307</v>
+      </c>
+      <c r="D175" t="s">
+        <v>11</v>
+      </c>
+      <c r="E175" t="s">
+        <v>12</v>
+      </c>
+      <c r="F175">
+        <v>0.7</v>
+      </c>
+      <c r="G175" t="s">
+        <v>156</v>
+      </c>
+      <c r="H175">
+        <v>5.5</v>
+      </c>
+      <c r="I175" t="s">
+        <v>286</v>
+      </c>
+      <c r="J175" t="s">
+        <v>166</v>
+      </c>
+      <c r="K175" t="s">
+        <v>260</v>
+      </c>
+      <c r="L175" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12">
+      <c r="A176" t="s">
+        <v>134</v>
+      </c>
+      <c r="B176" t="s">
+        <v>308</v>
+      </c>
+      <c r="C176" t="s">
+        <v>309</v>
+      </c>
+      <c r="D176" t="s">
+        <v>11</v>
+      </c>
+      <c r="E176" t="s">
+        <v>12</v>
+      </c>
+      <c r="F176">
+        <v>5</v>
+      </c>
+      <c r="G176" t="s">
+        <v>156</v>
+      </c>
+      <c r="H176">
+        <v>6</v>
+      </c>
+      <c r="I176">
+        <v>9</v>
+      </c>
+      <c r="J176" t="s">
+        <v>166</v>
+      </c>
+      <c r="K176" t="s">
+        <v>260</v>
+      </c>
+      <c r="L176" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12">
+      <c r="A177" t="s">
+        <v>310</v>
+      </c>
+      <c r="B177" t="s">
+        <v>366</v>
+      </c>
+      <c r="C177" t="s">
+        <v>172</v>
+      </c>
+      <c r="D177" t="s">
+        <v>11</v>
+      </c>
+      <c r="E177" t="s">
+        <v>12</v>
+      </c>
+      <c r="F177">
+        <v>1.5</v>
+      </c>
+      <c r="G177" t="s">
+        <v>156</v>
+      </c>
+      <c r="H177">
+        <v>5.5</v>
+      </c>
+      <c r="I177">
+        <v>8</v>
+      </c>
+      <c r="J177" t="s">
+        <v>198</v>
+      </c>
+      <c r="K177" t="s">
+        <v>260</v>
+      </c>
+      <c r="L177" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12">
+      <c r="A178" t="s">
+        <v>310</v>
+      </c>
+      <c r="B178" t="s">
+        <v>366</v>
+      </c>
+      <c r="C178" t="s">
+        <v>311</v>
+      </c>
+      <c r="D178" t="s">
+        <v>11</v>
+      </c>
+      <c r="E178" t="s">
+        <v>12</v>
+      </c>
+      <c r="F178">
+        <v>3</v>
+      </c>
+      <c r="G178" t="s">
+        <v>156</v>
+      </c>
+      <c r="H178">
+        <v>5.5</v>
+      </c>
+      <c r="I178">
+        <v>8</v>
+      </c>
+      <c r="J178" t="s">
+        <v>166</v>
+      </c>
+      <c r="K178" t="s">
+        <v>260</v>
+      </c>
+      <c r="L178" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12">
+      <c r="A179" t="s">
+        <v>310</v>
+      </c>
+      <c r="B179" t="s">
+        <v>366</v>
+      </c>
+      <c r="C179" t="s">
+        <v>312</v>
+      </c>
+      <c r="D179" t="s">
+        <v>11</v>
+      </c>
+      <c r="E179" t="s">
+        <v>12</v>
+      </c>
+      <c r="F179">
+        <v>5</v>
+      </c>
+      <c r="G179" t="s">
+        <v>156</v>
+      </c>
+      <c r="H179">
+        <v>6</v>
+      </c>
+      <c r="I179">
+        <v>9</v>
+      </c>
+      <c r="J179" t="s">
+        <v>198</v>
+      </c>
+      <c r="K179" t="s">
+        <v>260</v>
+      </c>
+      <c r="L179" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12">
+      <c r="A180" t="s">
+        <v>310</v>
+      </c>
+      <c r="B180" t="s">
+        <v>366</v>
+      </c>
+      <c r="C180" t="s">
+        <v>313</v>
+      </c>
+      <c r="D180" t="s">
+        <v>11</v>
+      </c>
+      <c r="E180" t="s">
+        <v>12</v>
+      </c>
+      <c r="F180">
+        <v>3</v>
+      </c>
+      <c r="G180" t="s">
+        <v>156</v>
+      </c>
+      <c r="H180">
+        <v>5.5</v>
+      </c>
+      <c r="I180" t="s">
+        <v>314</v>
+      </c>
+      <c r="J180" t="s">
+        <v>198</v>
+      </c>
+      <c r="K180" t="s">
+        <v>260</v>
+      </c>
+      <c r="L180" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12">
+      <c r="A181" t="s">
+        <v>315</v>
+      </c>
+      <c r="B181" t="s">
+        <v>316</v>
+      </c>
+      <c r="C181" t="s">
+        <v>317</v>
+      </c>
+      <c r="D181" t="s">
+        <v>11</v>
+      </c>
+      <c r="E181" t="s">
+        <v>12</v>
+      </c>
+      <c r="F181">
+        <v>4</v>
+      </c>
+      <c r="G181" t="s">
+        <v>158</v>
+      </c>
+      <c r="H181">
+        <v>6</v>
+      </c>
+      <c r="I181">
+        <v>8.5</v>
+      </c>
+      <c r="J181" t="s">
+        <v>166</v>
+      </c>
+      <c r="K181" t="s">
+        <v>260</v>
+      </c>
+      <c r="L181" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12">
+      <c r="A182" t="s">
+        <v>318</v>
+      </c>
+      <c r="B182" t="s">
+        <v>319</v>
+      </c>
+      <c r="C182" t="s">
+        <v>320</v>
+      </c>
+      <c r="D182" t="s">
+        <v>11</v>
+      </c>
+      <c r="E182" t="s">
+        <v>12</v>
+      </c>
+      <c r="F182">
+        <v>10</v>
+      </c>
+      <c r="G182" t="s">
+        <v>156</v>
+      </c>
+      <c r="H182">
+        <v>6.5</v>
+      </c>
+      <c r="I182">
+        <v>9.5</v>
+      </c>
+      <c r="J182" t="s">
+        <v>198</v>
+      </c>
+      <c r="K182" t="s">
+        <v>260</v>
+      </c>
+      <c r="L182" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12">
+      <c r="A183" t="s">
+        <v>318</v>
+      </c>
+      <c r="B183" t="s">
+        <v>319</v>
+      </c>
+      <c r="C183" t="s">
+        <v>321</v>
+      </c>
+      <c r="D183" t="s">
+        <v>11</v>
+      </c>
+      <c r="E183" t="s">
+        <v>12</v>
+      </c>
+      <c r="F183">
+        <v>20</v>
+      </c>
+      <c r="G183" t="s">
+        <v>156</v>
+      </c>
+      <c r="H183">
+        <v>6.5</v>
+      </c>
+      <c r="I183">
+        <v>9.5</v>
+      </c>
+      <c r="J183" t="s">
+        <v>198</v>
+      </c>
+      <c r="K183" t="s">
+        <v>260</v>
+      </c>
+      <c r="L183" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12">
+      <c r="A184" t="s">
+        <v>318</v>
+      </c>
+      <c r="B184" t="s">
+        <v>319</v>
+      </c>
+      <c r="C184" t="s">
+        <v>322</v>
+      </c>
+      <c r="D184" t="s">
+        <v>11</v>
+      </c>
+      <c r="E184" t="s">
+        <v>12</v>
+      </c>
+      <c r="F184">
+        <v>18</v>
+      </c>
+      <c r="G184" t="s">
+        <v>156</v>
+      </c>
+      <c r="H184">
+        <v>6.5</v>
+      </c>
+      <c r="I184">
+        <v>10.5</v>
+      </c>
+      <c r="J184" t="s">
+        <v>166</v>
+      </c>
+      <c r="K184" t="s">
+        <v>260</v>
+      </c>
+      <c r="L184" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12">
+      <c r="A185" t="s">
+        <v>48</v>
+      </c>
+      <c r="B185" t="s">
+        <v>323</v>
+      </c>
+      <c r="C185" t="s">
+        <v>324</v>
+      </c>
+      <c r="D185" t="s">
+        <v>11</v>
+      </c>
+      <c r="E185" t="s">
+        <v>12</v>
+      </c>
+      <c r="F185">
+        <v>3.5</v>
+      </c>
+      <c r="G185" t="s">
+        <v>156</v>
+      </c>
+      <c r="H185">
+        <v>6</v>
+      </c>
+      <c r="I185">
+        <v>8.5</v>
+      </c>
+      <c r="J185" t="s">
+        <v>176</v>
+      </c>
+      <c r="K185" t="s">
+        <v>260</v>
+      </c>
+      <c r="L185" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12">
+      <c r="A186" t="s">
+        <v>48</v>
+      </c>
+      <c r="B186" t="s">
+        <v>55</v>
+      </c>
+      <c r="C186" t="s">
+        <v>52</v>
+      </c>
+      <c r="D186" t="s">
+        <v>11</v>
+      </c>
+      <c r="E186" t="s">
+        <v>12</v>
+      </c>
+      <c r="F186">
+        <v>1.5</v>
+      </c>
+      <c r="G186" t="s">
+        <v>156</v>
+      </c>
+      <c r="H186">
+        <v>5.5</v>
+      </c>
+      <c r="I186">
+        <v>8</v>
+      </c>
+      <c r="J186" t="s">
+        <v>176</v>
+      </c>
+      <c r="K186" t="s">
+        <v>260</v>
+      </c>
+      <c r="L186" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12">
+      <c r="A187" t="s">
+        <v>179</v>
+      </c>
+      <c r="B187" t="s">
+        <v>325</v>
+      </c>
+      <c r="C187" t="s">
+        <v>326</v>
+      </c>
+      <c r="D187" t="s">
+        <v>11</v>
+      </c>
+      <c r="E187" t="s">
+        <v>256</v>
+      </c>
+      <c r="G187" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12">
+      <c r="A188" t="s">
+        <v>48</v>
+      </c>
+      <c r="B188" t="s">
+        <v>329</v>
+      </c>
+      <c r="C188" t="s">
+        <v>330</v>
+      </c>
+      <c r="D188" t="s">
+        <v>11</v>
+      </c>
+      <c r="E188" t="s">
+        <v>12</v>
+      </c>
+      <c r="F188">
+        <v>1</v>
+      </c>
+      <c r="G188" t="s">
+        <v>156</v>
+      </c>
+      <c r="H188">
+        <v>6</v>
+      </c>
+      <c r="I188">
+        <v>8.5</v>
+      </c>
+      <c r="J188" t="s">
+        <v>166</v>
+      </c>
+      <c r="K188" t="s">
+        <v>260</v>
+      </c>
+      <c r="L188" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12">
+      <c r="A189" t="s">
+        <v>48</v>
+      </c>
+      <c r="B189" t="s">
+        <v>329</v>
+      </c>
+      <c r="C189" t="s">
+        <v>331</v>
+      </c>
+      <c r="D189" t="s">
+        <v>11</v>
+      </c>
+      <c r="E189" t="s">
+        <v>12</v>
+      </c>
+      <c r="F189">
+        <v>1.5</v>
+      </c>
+      <c r="G189" t="s">
+        <v>156</v>
+      </c>
+      <c r="H189">
+        <v>5.5</v>
+      </c>
+      <c r="I189">
+        <v>9</v>
+      </c>
+      <c r="J189" t="s">
+        <v>176</v>
+      </c>
+      <c r="K189" t="s">
+        <v>260</v>
+      </c>
+      <c r="L189" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12">
+      <c r="A190" t="s">
+        <v>48</v>
+      </c>
+      <c r="B190" t="s">
+        <v>329</v>
+      </c>
+      <c r="C190" t="s">
+        <v>332</v>
+      </c>
+      <c r="D190" t="s">
+        <v>11</v>
+      </c>
+      <c r="E190" t="s">
+        <v>12</v>
+      </c>
+      <c r="F190">
+        <v>0.6</v>
+      </c>
+      <c r="G190" t="s">
+        <v>156</v>
+      </c>
+      <c r="H190">
+        <v>6.5</v>
+      </c>
+      <c r="I190">
+        <v>9</v>
+      </c>
+      <c r="J190" t="s">
+        <v>166</v>
+      </c>
+      <c r="K190" t="s">
+        <v>260</v>
+      </c>
+      <c r="L190" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12">
+      <c r="A191" t="s">
+        <v>48</v>
+      </c>
+      <c r="B191" t="s">
+        <v>329</v>
+      </c>
+      <c r="C191" t="s">
+        <v>333</v>
+      </c>
+      <c r="D191" t="s">
+        <v>11</v>
+      </c>
+      <c r="E191" t="s">
+        <v>12</v>
+      </c>
+      <c r="F191">
+        <v>3</v>
+      </c>
+      <c r="G191" t="s">
+        <v>156</v>
+      </c>
+      <c r="H191">
+        <v>5.5</v>
+      </c>
+      <c r="I191">
+        <v>8</v>
+      </c>
+      <c r="J191" t="s">
+        <v>166</v>
+      </c>
+      <c r="K191" t="s">
+        <v>260</v>
+      </c>
+      <c r="L191" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12">
+      <c r="A192" t="s">
+        <v>48</v>
+      </c>
+      <c r="B192" t="s">
+        <v>329</v>
+      </c>
+      <c r="C192" t="s">
+        <v>88</v>
+      </c>
+      <c r="D192" t="s">
+        <v>11</v>
+      </c>
+      <c r="E192" t="s">
+        <v>12</v>
+      </c>
+      <c r="F192">
+        <v>2</v>
+      </c>
+      <c r="G192" t="s">
+        <v>156</v>
+      </c>
+      <c r="H192">
+        <v>6.5</v>
+      </c>
+      <c r="I192">
+        <v>8.5</v>
+      </c>
+      <c r="J192" t="s">
+        <v>198</v>
+      </c>
+      <c r="K192" t="s">
+        <v>260</v>
+      </c>
+      <c r="L192" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12">
+      <c r="A193" t="s">
+        <v>48</v>
+      </c>
+      <c r="B193" t="s">
+        <v>334</v>
+      </c>
+      <c r="C193" t="s">
+        <v>335</v>
+      </c>
+      <c r="D193" t="s">
+        <v>11</v>
+      </c>
+      <c r="E193" t="s">
+        <v>12</v>
+      </c>
+      <c r="F193">
+        <v>3.5</v>
+      </c>
+      <c r="G193" t="s">
+        <v>156</v>
+      </c>
+      <c r="H193">
+        <v>5.5</v>
+      </c>
+      <c r="I193">
+        <v>8</v>
+      </c>
+      <c r="J193" t="s">
+        <v>166</v>
+      </c>
+      <c r="K193" t="s">
+        <v>260</v>
+      </c>
+      <c r="L193" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12">
+      <c r="A194" t="s">
+        <v>48</v>
+      </c>
+      <c r="B194" t="s">
+        <v>334</v>
+      </c>
+      <c r="C194" t="s">
+        <v>336</v>
+      </c>
+      <c r="D194" t="s">
+        <v>11</v>
+      </c>
+      <c r="E194" t="s">
+        <v>12</v>
+      </c>
+      <c r="F194">
+        <v>4</v>
+      </c>
+      <c r="G194" t="s">
+        <v>156</v>
+      </c>
+      <c r="H194">
+        <v>5.5</v>
+      </c>
+      <c r="I194">
+        <v>7.5</v>
+      </c>
+      <c r="J194" t="s">
+        <v>166</v>
+      </c>
+      <c r="K194" t="s">
+        <v>260</v>
+      </c>
+      <c r="L194" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12">
+      <c r="A195" t="s">
+        <v>48</v>
+      </c>
+      <c r="B195" t="s">
+        <v>334</v>
+      </c>
+      <c r="C195" t="s">
+        <v>337</v>
+      </c>
+      <c r="D195" t="s">
+        <v>11</v>
+      </c>
+      <c r="E195" t="s">
+        <v>12</v>
+      </c>
+      <c r="F195">
+        <v>1.5</v>
+      </c>
+      <c r="G195" t="s">
+        <v>156</v>
+      </c>
+      <c r="H195">
+        <v>6.5</v>
+      </c>
+      <c r="I195">
+        <v>8</v>
+      </c>
+      <c r="J195" t="s">
+        <v>166</v>
+      </c>
+      <c r="K195" t="s">
+        <v>260</v>
+      </c>
+      <c r="L195" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12">
+      <c r="A196" t="s">
+        <v>48</v>
+      </c>
+      <c r="B196" t="s">
+        <v>334</v>
+      </c>
+      <c r="C196" t="s">
+        <v>19</v>
+      </c>
+      <c r="D196" t="s">
+        <v>11</v>
+      </c>
+      <c r="E196" t="s">
+        <v>12</v>
+      </c>
+      <c r="F196">
+        <v>4</v>
+      </c>
+      <c r="G196" t="s">
+        <v>156</v>
+      </c>
+      <c r="H196">
+        <v>5.5</v>
+      </c>
+      <c r="I196">
+        <v>7.5</v>
+      </c>
+      <c r="J196" t="s">
+        <v>166</v>
+      </c>
+      <c r="K196" t="s">
+        <v>260</v>
+      </c>
+      <c r="L196" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12">
+      <c r="A197" t="s">
+        <v>48</v>
+      </c>
+      <c r="B197" t="s">
+        <v>334</v>
+      </c>
+      <c r="C197" t="s">
+        <v>338</v>
+      </c>
+      <c r="D197" t="s">
+        <v>11</v>
+      </c>
+      <c r="E197" t="s">
+        <v>12</v>
+      </c>
+      <c r="F197">
+        <v>2.5</v>
+      </c>
+      <c r="G197" t="s">
+        <v>156</v>
+      </c>
+      <c r="H197">
+        <v>6.5</v>
+      </c>
+      <c r="I197">
+        <v>8.5</v>
+      </c>
+      <c r="J197" t="s">
+        <v>166</v>
+      </c>
+      <c r="K197" t="s">
+        <v>260</v>
+      </c>
+      <c r="L197" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12">
+      <c r="A198" t="s">
+        <v>48</v>
+      </c>
+      <c r="B198" t="s">
+        <v>334</v>
+      </c>
+      <c r="C198" t="s">
+        <v>339</v>
+      </c>
+      <c r="D198" t="s">
+        <v>11</v>
+      </c>
+      <c r="E198" t="s">
+        <v>12</v>
+      </c>
+      <c r="F198">
+        <v>2</v>
+      </c>
+      <c r="G198" t="s">
+        <v>156</v>
+      </c>
+      <c r="H198">
+        <v>5.5</v>
+      </c>
+      <c r="I198">
+        <v>7.5</v>
+      </c>
+      <c r="J198" t="s">
+        <v>166</v>
+      </c>
+      <c r="K198" t="s">
+        <v>260</v>
+      </c>
+      <c r="L198" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12">
+      <c r="A199" t="s">
+        <v>143</v>
+      </c>
+      <c r="B199" t="s">
+        <v>340</v>
+      </c>
+      <c r="C199" t="s">
+        <v>172</v>
+      </c>
+      <c r="D199" t="s">
+        <v>11</v>
+      </c>
+      <c r="E199" t="s">
+        <v>12</v>
+      </c>
+      <c r="F199">
+        <v>4</v>
+      </c>
+      <c r="G199" t="s">
+        <v>156</v>
+      </c>
+      <c r="H199">
+        <v>6.5</v>
+      </c>
+      <c r="I199">
+        <v>9.5</v>
+      </c>
+      <c r="J199" t="s">
+        <v>198</v>
+      </c>
+      <c r="K199" t="s">
+        <v>260</v>
+      </c>
+      <c r="L199" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12">
+      <c r="A200" t="s">
+        <v>143</v>
+      </c>
+      <c r="B200" t="s">
+        <v>340</v>
+      </c>
+      <c r="C200" t="s">
+        <v>341</v>
+      </c>
+      <c r="D200" t="s">
+        <v>11</v>
+      </c>
+      <c r="E200" t="s">
+        <v>12</v>
+      </c>
+      <c r="F200">
+        <v>4</v>
+      </c>
+      <c r="G200" t="s">
+        <v>156</v>
+      </c>
+      <c r="H200">
+        <v>4.5</v>
+      </c>
+      <c r="I200">
+        <v>6.5</v>
+      </c>
+      <c r="J200" t="s">
+        <v>198</v>
+      </c>
+      <c r="K200" t="s">
+        <v>260</v>
+      </c>
+      <c r="L200" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12">
+      <c r="A201" t="s">
+        <v>342</v>
+      </c>
+      <c r="B201" t="s">
+        <v>343</v>
+      </c>
+      <c r="C201" t="s">
+        <v>259</v>
+      </c>
+      <c r="D201" t="s">
+        <v>11</v>
+      </c>
+      <c r="E201" t="s">
+        <v>12</v>
+      </c>
+      <c r="F201">
+        <v>6</v>
+      </c>
+      <c r="G201" t="s">
+        <v>158</v>
+      </c>
+      <c r="H201">
+        <v>6</v>
+      </c>
+      <c r="I201">
+        <v>10.5</v>
+      </c>
+      <c r="J201" t="s">
+        <v>166</v>
+      </c>
+      <c r="K201" t="s">
+        <v>260</v>
+      </c>
+      <c r="L201" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12">
+      <c r="A202" t="s">
+        <v>342</v>
+      </c>
+      <c r="B202" t="s">
+        <v>343</v>
+      </c>
+      <c r="C202" t="s">
+        <v>344</v>
+      </c>
+      <c r="D202" t="s">
+        <v>11</v>
+      </c>
+      <c r="E202" t="s">
+        <v>12</v>
+      </c>
+      <c r="F202">
+        <v>5</v>
+      </c>
+      <c r="G202" t="s">
+        <v>158</v>
+      </c>
+      <c r="H202">
+        <v>6</v>
+      </c>
+      <c r="I202">
+        <v>10.5</v>
+      </c>
+      <c r="J202" t="s">
+        <v>166</v>
+      </c>
+      <c r="K202" t="s">
+        <v>260</v>
+      </c>
+      <c r="L202" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12">
+      <c r="B203" t="s">
+        <v>345</v>
+      </c>
+      <c r="C203" t="s">
+        <v>346</v>
+      </c>
+      <c r="E203" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12">
+      <c r="A204" t="s">
+        <v>48</v>
+      </c>
+      <c r="B204" t="s">
+        <v>348</v>
+      </c>
+      <c r="C204" t="s">
+        <v>32</v>
+      </c>
+      <c r="D204" t="s">
+        <v>11</v>
+      </c>
+      <c r="E204" t="s">
+        <v>12</v>
+      </c>
+      <c r="F204">
+        <v>2</v>
+      </c>
+      <c r="G204" t="s">
+        <v>156</v>
+      </c>
+      <c r="H204">
+        <v>7.5</v>
+      </c>
+      <c r="I204">
+        <v>9</v>
+      </c>
+      <c r="J204" t="s">
+        <v>166</v>
+      </c>
+      <c r="K204" t="s">
+        <v>260</v>
+      </c>
+      <c r="L204" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12">
+      <c r="A205" t="s">
+        <v>48</v>
+      </c>
+      <c r="B205" t="s">
+        <v>348</v>
+      </c>
+      <c r="C205" t="s">
+        <v>349</v>
+      </c>
+      <c r="D205" t="s">
+        <v>11</v>
+      </c>
+      <c r="E205" t="s">
+        <v>12</v>
+      </c>
+      <c r="F205">
+        <v>1.2</v>
+      </c>
+      <c r="G205" t="s">
+        <v>156</v>
+      </c>
+      <c r="H205">
+        <v>7.5</v>
+      </c>
+      <c r="I205">
+        <v>9</v>
+      </c>
+      <c r="J205" t="s">
+        <v>166</v>
+      </c>
+      <c r="K205" t="s">
+        <v>260</v>
+      </c>
+      <c r="L205" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12">
+      <c r="A206" t="s">
+        <v>310</v>
+      </c>
+      <c r="B206" t="s">
+        <v>350</v>
+      </c>
+      <c r="C206" t="s">
+        <v>351</v>
+      </c>
+      <c r="D206" t="s">
+        <v>11</v>
+      </c>
+      <c r="E206" t="s">
+        <v>12</v>
+      </c>
+      <c r="F206">
+        <v>1</v>
+      </c>
+      <c r="G206" t="s">
+        <v>156</v>
+      </c>
+      <c r="H206">
+        <v>6.5</v>
+      </c>
+      <c r="I206">
+        <v>9.5</v>
+      </c>
+      <c r="J206" t="s">
+        <v>166</v>
+      </c>
+      <c r="K206" t="s">
+        <v>260</v>
+      </c>
+      <c r="L206" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12">
+      <c r="A207" t="s">
+        <v>112</v>
+      </c>
+      <c r="B207" t="s">
+        <v>352</v>
+      </c>
+      <c r="C207" t="s">
+        <v>268</v>
+      </c>
+      <c r="D207" t="s">
+        <v>11</v>
+      </c>
+      <c r="E207" t="s">
+        <v>12</v>
+      </c>
+      <c r="F207">
+        <v>1</v>
+      </c>
+      <c r="G207" t="s">
+        <v>158</v>
+      </c>
+      <c r="H207">
+        <v>5.5</v>
+      </c>
+      <c r="I207">
+        <v>8.5</v>
+      </c>
+      <c r="J207" t="s">
+        <v>166</v>
+      </c>
+      <c r="K207" t="s">
+        <v>260</v>
+      </c>
+      <c r="L207" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12">
+      <c r="A208" t="s">
+        <v>112</v>
+      </c>
+      <c r="B208" t="s">
+        <v>352</v>
+      </c>
+      <c r="C208" t="s">
+        <v>353</v>
+      </c>
+      <c r="D208" t="s">
+        <v>11</v>
+      </c>
+      <c r="E208" t="s">
+        <v>12</v>
+      </c>
+      <c r="F208">
+        <v>6</v>
+      </c>
+      <c r="G208" t="s">
+        <v>158</v>
+      </c>
+      <c r="H208">
+        <v>6</v>
+      </c>
+      <c r="I208">
+        <v>9</v>
+      </c>
+      <c r="J208" t="s">
+        <v>166</v>
+      </c>
+      <c r="K208" t="s">
+        <v>260</v>
+      </c>
+      <c r="L208" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12">
+      <c r="A209" t="s">
+        <v>143</v>
+      </c>
+      <c r="B209" t="s">
+        <v>144</v>
+      </c>
+      <c r="C209" t="s">
+        <v>358</v>
+      </c>
+      <c r="D209" t="s">
+        <v>11</v>
+      </c>
+      <c r="E209" t="s">
+        <v>12</v>
+      </c>
+      <c r="F209">
+        <v>2</v>
+      </c>
+      <c r="G209" t="s">
+        <v>156</v>
+      </c>
+      <c r="H209">
+        <v>5.5</v>
+      </c>
+      <c r="I209">
+        <v>9</v>
+      </c>
+      <c r="J209" t="s">
+        <v>167</v>
+      </c>
+      <c r="K209" t="s">
+        <v>260</v>
+      </c>
+      <c r="L209" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12">
+      <c r="A210" t="s">
+        <v>143</v>
+      </c>
+      <c r="B210" t="s">
+        <v>144</v>
+      </c>
+      <c r="C210" t="s">
+        <v>359</v>
+      </c>
+      <c r="D210" t="s">
+        <v>11</v>
+      </c>
+      <c r="E210" t="s">
+        <v>12</v>
+      </c>
+      <c r="F210">
+        <v>4</v>
+      </c>
+      <c r="G210" t="s">
+        <v>156</v>
+      </c>
+      <c r="H210">
+        <v>6</v>
+      </c>
+      <c r="I210">
+        <v>9</v>
+      </c>
+      <c r="J210" t="s">
+        <v>198</v>
+      </c>
+      <c r="K210" t="s">
+        <v>260</v>
+      </c>
+      <c r="L210" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12">
+      <c r="A211" t="s">
+        <v>143</v>
+      </c>
+      <c r="B211" t="s">
+        <v>144</v>
+      </c>
+      <c r="C211" t="s">
+        <v>360</v>
+      </c>
+      <c r="D211" t="s">
+        <v>11</v>
+      </c>
+      <c r="E211" t="s">
+        <v>12</v>
+      </c>
+      <c r="F211">
+        <v>3</v>
+      </c>
+      <c r="G211" t="s">
+        <v>156</v>
+      </c>
+      <c r="H211">
+        <v>5.5</v>
+      </c>
+      <c r="I211">
+        <v>8.5</v>
+      </c>
+      <c r="J211" t="s">
+        <v>198</v>
+      </c>
+      <c r="K211" t="s">
+        <v>260</v>
+      </c>
+      <c r="L211" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12">
+      <c r="A212" t="s">
+        <v>143</v>
+      </c>
+      <c r="B212" t="s">
+        <v>144</v>
+      </c>
+      <c r="C212" t="s">
+        <v>361</v>
+      </c>
+      <c r="D212" t="s">
+        <v>11</v>
+      </c>
+      <c r="E212" t="s">
+        <v>12</v>
+      </c>
+      <c r="F212">
+        <v>2.5</v>
+      </c>
+      <c r="G212" t="s">
+        <v>156</v>
+      </c>
+      <c r="H212">
+        <v>5.5</v>
+      </c>
+      <c r="I212">
+        <v>8.5</v>
+      </c>
+      <c r="J212" t="s">
+        <v>198</v>
+      </c>
+      <c r="K212" t="s">
+        <v>260</v>
+      </c>
+      <c r="L212" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12">
+      <c r="A213" t="s">
+        <v>143</v>
+      </c>
+      <c r="B213" t="s">
+        <v>144</v>
+      </c>
+      <c r="C213" t="s">
+        <v>362</v>
+      </c>
+      <c r="D213" t="s">
+        <v>11</v>
+      </c>
+      <c r="E213" t="s">
+        <v>12</v>
+      </c>
+      <c r="F213">
+        <v>5</v>
+      </c>
+      <c r="G213" t="s">
+        <v>156</v>
+      </c>
+      <c r="H213">
+        <v>5.5</v>
+      </c>
+      <c r="I213">
+        <v>9</v>
+      </c>
+      <c r="J213" t="s">
+        <v>198</v>
+      </c>
+      <c r="K213" t="s">
+        <v>260</v>
+      </c>
+      <c r="L213" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12">
+      <c r="A214" t="s">
+        <v>318</v>
+      </c>
+      <c r="B214" t="s">
+        <v>363</v>
+      </c>
+      <c r="C214" t="s">
+        <v>364</v>
+      </c>
+      <c r="D214" t="s">
+        <v>11</v>
+      </c>
+      <c r="E214" t="s">
+        <v>12</v>
+      </c>
+      <c r="F214">
+        <v>10</v>
+      </c>
+      <c r="G214" t="s">
+        <v>159</v>
+      </c>
+      <c r="H214">
+        <v>5.5</v>
+      </c>
+      <c r="I214">
+        <v>9.5</v>
+      </c>
+      <c r="J214" t="s">
+        <v>176</v>
+      </c>
+      <c r="K214" t="s">
+        <v>260</v>
+      </c>
+      <c r="L214" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12">
+      <c r="A215" t="s">
+        <v>318</v>
+      </c>
+      <c r="B215" t="s">
+        <v>363</v>
+      </c>
+      <c r="C215" t="s">
+        <v>365</v>
+      </c>
+      <c r="D215" t="s">
+        <v>11</v>
+      </c>
+      <c r="E215" t="s">
+        <v>12</v>
+      </c>
+      <c r="F215">
+        <v>10</v>
+      </c>
+      <c r="G215" t="s">
+        <v>159</v>
+      </c>
+      <c r="H215">
+        <v>5.5</v>
+      </c>
+      <c r="I215">
+        <v>9.5</v>
+      </c>
+      <c r="J215" t="s">
+        <v>166</v>
+      </c>
+      <c r="K215" t="s">
+        <v>260</v>
+      </c>
+      <c r="L215" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
